--- a/打怪.xlsx
+++ b/打怪.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF1DF8-73EF-423E-9BFB-545CF554DB16}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7608" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -316,11 +316,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +340,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -577,10 +584,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -627,6 +637,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,13 +660,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,7 +680,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -714,7 +726,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -769,189 +780,194 @@
             <c:numRef>
               <c:f>Sheet1!$H$9:$H$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>1.0455555555555551E-2</c:v>
+                  <c:v>1.7425925925925918E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0355555555555562E-2</c:v>
+                  <c:v>3.4685185185185187E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0255555555555573E-2</c:v>
+                  <c:v>5.1777777777777804E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0155555555555584E-2</c:v>
+                  <c:v>6.8703703703703781E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0055555555555595E-2</c:v>
+                  <c:v>8.5462962962963102E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9555555555554953E-3</c:v>
+                  <c:v>0.10205555555555559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8555555555555063E-3</c:v>
+                  <c:v>0.11848148148148142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7555555555556284E-3</c:v>
+                  <c:v>0.1347407407407408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6555555555555284E-3</c:v>
+                  <c:v>0.15083333333333335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5555555555555394E-3</c:v>
+                  <c:v>0.16675925925925925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4555555555556059E-3</c:v>
+                  <c:v>0.18251851851851858</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3555555555555614E-3</c:v>
+                  <c:v>0.19811111111111118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.2555555555555724E-3</c:v>
+                  <c:v>0.21353703703703714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.1555555555555279E-3</c:v>
+                  <c:v>0.22879629629629636</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0555555555555389E-3</c:v>
+                  <c:v>0.24388888888888891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9555555555555499E-3</c:v>
+                  <c:v>0.25881481481481483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.855555555555561E-3</c:v>
+                  <c:v>0.27357407407407408</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7555555555555165E-3</c:v>
+                  <c:v>0.28816666666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.655555555555583E-3</c:v>
+                  <c:v>0.30259259259259258</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.555555555555594E-3</c:v>
+                  <c:v>0.31685185185185188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.4555555555555495E-3</c:v>
+                  <c:v>0.33094444444444449</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.355555555555505E-3</c:v>
+                  <c:v>0.34487037037037033</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.2555555555555715E-3</c:v>
+                  <c:v>0.35862962962962963</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.1555555555555825E-3</c:v>
+                  <c:v>0.37222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.055555555555538E-3</c:v>
+                  <c:v>0.38564814814814813</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9555555555556046E-3</c:v>
+                  <c:v>0.39890740740740749</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8555555555555046E-3</c:v>
+                  <c:v>0.41199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.7555555555555711E-3</c:v>
+                  <c:v>0.42492592592592593</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.6555555555555266E-3</c:v>
+                  <c:v>0.43768518518518512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5555555555555931E-3</c:v>
+                  <c:v>0.45027777777777778</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.4555555555554931E-3</c:v>
+                  <c:v>0.46270370370370362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.3555555555556151E-3</c:v>
+                  <c:v>0.47496296296296298</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.2555555555555706E-3</c:v>
+                  <c:v>0.48705555555555557</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.1555555555555261E-3</c:v>
+                  <c:v>0.49898148148148147</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.0555555555555927E-3</c:v>
+                  <c:v>0.51074074074074083</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9555555555555482E-3</c:v>
+                  <c:v>0.52233333333333332</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8555555555555592E-3</c:v>
+                  <c:v>0.53375925925925927</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.7555555555555702E-3</c:v>
+                  <c:v>0.54501851851851857</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.6555555555555257E-3</c:v>
+                  <c:v>0.55611111111111111</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.5555555555555922E-3</c:v>
+                  <c:v>0.56703703703703712</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.4555555555554922E-3</c:v>
+                  <c:v>0.57779629629629625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.3555555555555587E-3</c:v>
+                  <c:v>0.58838888888888885</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.2555555555555697E-3</c:v>
+                  <c:v>0.5988148148148148</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.1555555555555808E-3</c:v>
+                  <c:v>0.6090740740740741</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.0555555555555363E-3</c:v>
+                  <c:v>0.61916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9555555555555473E-3</c:v>
+                  <c:v>0.62909259259259254</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.8555555555555583E-3</c:v>
+                  <c:v>0.63885185185185178</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.7555555555555693E-3</c:v>
+                  <c:v>0.64844444444444449</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.6555555555555803E-3</c:v>
+                  <c:v>0.65787037037037044</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.5555555555555358E-3</c:v>
+                  <c:v>0.66712962962962963</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.4555555555555468E-3</c:v>
+                  <c:v>0.67622222222222217</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.3555555555555578E-3</c:v>
+                  <c:v>0.68514814814814817</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.2555555555555689E-3</c:v>
+                  <c:v>0.69390740740740742</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.1555555555555244E-3</c:v>
+                  <c:v>0.70250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.0555555555555909E-3</c:v>
+                  <c:v>0.71092592592592596</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9555555555555464E-3</c:v>
+                  <c:v>0.71918518518518515</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.8555555555555574E-3</c:v>
+                  <c:v>0.7272777777777778</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.7555555555555684E-3</c:v>
+                  <c:v>0.73520370370370369</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.6555555555555517E-3</c:v>
+                  <c:v>0.74296296296296294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C682-4F5E-8F13-6CCE8038AD78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -962,11 +978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1013148960"/>
-        <c:axId val="-1013146784"/>
+        <c:axId val="-489774800"/>
+        <c:axId val="-326578688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1013148960"/>
+        <c:axId val="-489774800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1024,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013146784"/>
+        <c:crossAx val="-326578688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1013146784"/>
+        <c:axId val="-326578688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1052,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1067,7 +1083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013148960"/>
+        <c:crossAx val="-489774800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1117,7 +1133,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1163,7 +1179,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1217,7 +1232,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1225,14 +1239,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1240,8 +1254,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1610,6 +1625,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1620,11 +1640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1013146240"/>
-        <c:axId val="-1022974608"/>
+        <c:axId val="-326576512"/>
+        <c:axId val="-326577056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1013146240"/>
+        <c:axId val="-326576512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022974608"/>
+        <c:crossAx val="-326577056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1022974608"/>
+        <c:axId val="-326577056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1746,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013146240"/>
+        <c:crossAx val="-326576512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,7 +1796,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1822,7 +1842,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1886,7 +1905,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1894,14 +1912,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0B8B-4554-8A34-FCC23104E7CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1909,8 +1927,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0B8B-4554-8A34-FCC23104E7CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2279,6 +2298,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B8B-4554-8A34-FCC23104E7CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2289,11 +2313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1026612736"/>
-        <c:axId val="-878923232"/>
+        <c:axId val="-326575968"/>
+        <c:axId val="-326575424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1026612736"/>
+        <c:axId val="-326575968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +2359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-878923232"/>
+        <c:crossAx val="-326575424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2343,7 +2367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-878923232"/>
+        <c:axId val="-326575424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2418,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1026612736"/>
+        <c:crossAx val="-326575968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2444,7 +2468,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2490,7 +2514,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2851,6 +2874,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2BF-4068-B7B5-7C12C4D19E94}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2861,11 +2889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-878926496"/>
-        <c:axId val="-878925952"/>
+        <c:axId val="-326574880"/>
+        <c:axId val="-326572704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-878926496"/>
+        <c:axId val="-326574880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,7 +2935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-878925952"/>
+        <c:crossAx val="-326572704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2915,7 +2943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-878925952"/>
+        <c:axId val="-326572704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2994,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-878926496"/>
+        <c:crossAx val="-326574880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3016,7 +3044,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3055,7 +3083,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3109,7 +3136,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="81"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3117,14 +3143,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-BD14-4755-AD40-B0680C15F795}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="87"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3132,14 +3158,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BD14-4755-AD40-B0680C15F795}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="93"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3147,14 +3173,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BD14-4755-AD40-B0680C15F795}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3162,8 +3188,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BD14-4755-AD40-B0680C15F795}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3532,6 +3559,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BD14-4755-AD40-B0680C15F795}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3542,11 +3574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-833932128"/>
-        <c:axId val="-833929952"/>
+        <c:axId val="-326578144"/>
+        <c:axId val="-326577600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-833932128"/>
+        <c:axId val="-326578144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3588,7 +3620,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-833929952"/>
+        <c:crossAx val="-326577600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3596,7 +3628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-833929952"/>
+        <c:axId val="-326577600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +3679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-833932128"/>
+        <c:crossAx val="-326578144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3697,7 +3729,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3736,7 +3768,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3801,309 +3832,314 @@
             <c:numRef>
               <c:f>Sheet1!$H$9:$H$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>1.0455555555555551E-2</c:v>
+                  <c:v>1.7425925925925918E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0355555555555562E-2</c:v>
+                  <c:v>3.4685185185185187E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0255555555555573E-2</c:v>
+                  <c:v>5.1777777777777804E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0155555555555584E-2</c:v>
+                  <c:v>6.8703703703703781E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0055555555555595E-2</c:v>
+                  <c:v>8.5462962962963102E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9555555555554953E-3</c:v>
+                  <c:v>0.10205555555555559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8555555555555063E-3</c:v>
+                  <c:v>0.11848148148148142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7555555555556284E-3</c:v>
+                  <c:v>0.1347407407407408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6555555555555284E-3</c:v>
+                  <c:v>0.15083333333333335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5555555555555394E-3</c:v>
+                  <c:v>0.16675925925925925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4555555555556059E-3</c:v>
+                  <c:v>0.18251851851851858</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3555555555555614E-3</c:v>
+                  <c:v>0.19811111111111118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.2555555555555724E-3</c:v>
+                  <c:v>0.21353703703703714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.1555555555555279E-3</c:v>
+                  <c:v>0.22879629629629636</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0555555555555389E-3</c:v>
+                  <c:v>0.24388888888888891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9555555555555499E-3</c:v>
+                  <c:v>0.25881481481481483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.855555555555561E-3</c:v>
+                  <c:v>0.27357407407407408</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7555555555555165E-3</c:v>
+                  <c:v>0.28816666666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.655555555555583E-3</c:v>
+                  <c:v>0.30259259259259258</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.555555555555594E-3</c:v>
+                  <c:v>0.31685185185185188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.4555555555555495E-3</c:v>
+                  <c:v>0.33094444444444449</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.355555555555505E-3</c:v>
+                  <c:v>0.34487037037037033</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.2555555555555715E-3</c:v>
+                  <c:v>0.35862962962962963</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.1555555555555825E-3</c:v>
+                  <c:v>0.37222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.055555555555538E-3</c:v>
+                  <c:v>0.38564814814814813</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9555555555556046E-3</c:v>
+                  <c:v>0.39890740740740749</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8555555555555046E-3</c:v>
+                  <c:v>0.41199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.7555555555555711E-3</c:v>
+                  <c:v>0.42492592592592593</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.6555555555555266E-3</c:v>
+                  <c:v>0.43768518518518512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5555555555555931E-3</c:v>
+                  <c:v>0.45027777777777778</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.4555555555554931E-3</c:v>
+                  <c:v>0.46270370370370362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.3555555555556151E-3</c:v>
+                  <c:v>0.47496296296296298</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.2555555555555706E-3</c:v>
+                  <c:v>0.48705555555555557</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.1555555555555261E-3</c:v>
+                  <c:v>0.49898148148148147</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.0555555555555927E-3</c:v>
+                  <c:v>0.51074074074074083</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9555555555555482E-3</c:v>
+                  <c:v>0.52233333333333332</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8555555555555592E-3</c:v>
+                  <c:v>0.53375925925925927</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.7555555555555702E-3</c:v>
+                  <c:v>0.54501851851851857</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.6555555555555257E-3</c:v>
+                  <c:v>0.55611111111111111</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.5555555555555922E-3</c:v>
+                  <c:v>0.56703703703703712</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.4555555555554922E-3</c:v>
+                  <c:v>0.57779629629629625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.3555555555555587E-3</c:v>
+                  <c:v>0.58838888888888885</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.2555555555555697E-3</c:v>
+                  <c:v>0.5988148148148148</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.1555555555555808E-3</c:v>
+                  <c:v>0.6090740740740741</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.0555555555555363E-3</c:v>
+                  <c:v>0.61916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9555555555555473E-3</c:v>
+                  <c:v>0.62909259259259254</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.8555555555555583E-3</c:v>
+                  <c:v>0.63885185185185178</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.7555555555555693E-3</c:v>
+                  <c:v>0.64844444444444449</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.6555555555555803E-3</c:v>
+                  <c:v>0.65787037037037044</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.5555555555555358E-3</c:v>
+                  <c:v>0.66712962962962963</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.4555555555555468E-3</c:v>
+                  <c:v>0.67622222222222217</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.3555555555555578E-3</c:v>
+                  <c:v>0.68514814814814817</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.2555555555555689E-3</c:v>
+                  <c:v>0.69390740740740742</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.1555555555555244E-3</c:v>
+                  <c:v>0.70250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.0555555555555909E-3</c:v>
+                  <c:v>0.71092592592592596</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.9555555555555464E-3</c:v>
+                  <c:v>0.71918518518518515</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.8555555555555574E-3</c:v>
+                  <c:v>0.7272777777777778</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.7555555555555684E-3</c:v>
+                  <c:v>0.73520370370370369</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.6555555555555517E-3</c:v>
+                  <c:v>0.74296296296296294</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.5555555555555627E-3</c:v>
+                  <c:v>0.75055555555555553</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.4555555555555459E-3</c:v>
+                  <c:v>0.75798148148148148</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.355555555555557E-3</c:v>
+                  <c:v>0.76524074074074078</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.255555555555568E-3</c:v>
+                  <c:v>0.77233333333333332</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.1555555555555235E-3</c:v>
+                  <c:v>0.77925925925925921</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.0555555555555622E-3</c:v>
+                  <c:v>0.78601851851851856</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.9555555555555594E-3</c:v>
+                  <c:v>0.79261111111111116</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.8555555555555565E-3</c:v>
+                  <c:v>0.7990370370370371</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.7555555555555675E-3</c:v>
+                  <c:v>0.80529629629629629</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.6555555555555508E-3</c:v>
+                  <c:v>0.81138888888888883</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.5555555555555479E-3</c:v>
+                  <c:v>0.81731481481481483</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.4555555555555589E-3</c:v>
+                  <c:v>0.82307407407407407</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.3555555555555561E-3</c:v>
+                  <c:v>0.82866666666666666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.2555555555555532E-3</c:v>
+                  <c:v>0.83409259259259261</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1555555555555503E-3</c:v>
+                  <c:v>0.8393518518518519</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0555555555555614E-3</c:v>
+                  <c:v>0.84444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.9555555555555585E-3</c:v>
+                  <c:v>0.84937037037037044</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.8555555555555556E-3</c:v>
+                  <c:v>0.85412962962962957</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.7555555555555528E-3</c:v>
+                  <c:v>0.85872222222222228</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.6555555555555499E-3</c:v>
+                  <c:v>0.86314814814814811</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.5555555555555609E-3</c:v>
+                  <c:v>0.8674074074074074</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.455555555555558E-3</c:v>
+                  <c:v>0.87149999999999994</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.3555555555555552E-3</c:v>
+                  <c:v>0.87542592592592583</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2555555555555523E-3</c:v>
+                  <c:v>0.87918518518518507</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.1555555555555633E-3</c:v>
+                  <c:v>0.88277777777777777</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0555555555555466E-3</c:v>
+                  <c:v>0.88620370370370372</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9555555555555576E-3</c:v>
+                  <c:v>0.8894629629629629</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8555555555555686E-3</c:v>
+                  <c:v>0.89255555555555555</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7555555555555519E-3</c:v>
+                  <c:v>0.89548148148148143</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6555555555555559E-3</c:v>
+                  <c:v>0.89824074074074078</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.5555555555555531E-3</c:v>
+                  <c:v>0.90083333333333337</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.4555555555555572E-3</c:v>
+                  <c:v>0.90325925925925921</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3555555555555543E-3</c:v>
+                  <c:v>0.9055185185185185</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.2555555555555514E-3</c:v>
+                  <c:v>0.90761111111111115</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1555555555555624E-3</c:v>
+                  <c:v>0.90953703703703703</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0555555555555526E-3</c:v>
+                  <c:v>0.91129629629629616</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.5555555555555671E-4</c:v>
+                  <c:v>0.91288888888888886</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8.5555555555555385E-4</c:v>
+                  <c:v>0.91431481481481491</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.5555555555555792E-4</c:v>
+                  <c:v>0.9155740740740741</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.5555555555555506E-4</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0EE-4B2F-AF02-7A911D2AD5B2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4114,11 +4150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-830239296"/>
-        <c:axId val="-830238208"/>
+        <c:axId val="-326574336"/>
+        <c:axId val="-326573792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-830239296"/>
+        <c:axId val="-326574336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,7 +4196,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-830238208"/>
+        <c:crossAx val="-326573792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4168,7 +4204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-830238208"/>
+        <c:axId val="-326573792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,7 +4224,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4219,7 +4255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-830239296"/>
+        <c:crossAx val="-326574336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7608,20 +7644,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7651,7 +7693,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7681,7 +7729,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7711,7 +7765,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7741,7 +7801,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7771,7 +7837,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7790,7 +7862,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7865,6 +7937,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7900,6 +7989,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8075,11 +8181,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8214,21 +8320,21 @@
     </row>
     <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
       <c r="R6" s="16" t="s">
         <v>21</v>
       </c>
@@ -8412,9 +8518,9 @@
         <f t="shared" ref="G9:G67" si="6">E9+C9</f>
         <v>21</v>
       </c>
-      <c r="H9">
-        <f>D8-D9</f>
-        <v>1.0455555555555551E-2</v>
+      <c r="H9" s="35">
+        <f>(D$8-D9)/D$8</f>
+        <v>1.7425925925925918E-2</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I72" si="7">C$8/D9</f>
@@ -8493,9 +8599,9 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H67" si="15">D9-D10</f>
-        <v>1.0355555555555562E-2</v>
+      <c r="H10" s="35">
+        <f t="shared" ref="H10:H73" si="15">(D$8-D10)/D$8</f>
+        <v>3.4685185185185187E-2</v>
       </c>
       <c r="I10">
         <f t="shared" si="7"/>
@@ -8574,9 +8680,9 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="35">
         <f t="shared" si="15"/>
-        <v>1.0255555555555573E-2</v>
+        <v>5.1777777777777804E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
@@ -8655,9 +8761,9 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="35">
         <f t="shared" si="15"/>
-        <v>1.0155555555555584E-2</v>
+        <v>6.8703703703703781E-2</v>
       </c>
       <c r="I12">
         <f t="shared" si="7"/>
@@ -8736,9 +8842,9 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="35">
         <f t="shared" si="15"/>
-        <v>1.0055555555555595E-2</v>
+        <v>8.5462962962963102E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
@@ -8817,9 +8923,9 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="35">
         <f t="shared" si="15"/>
-        <v>9.9555555555554953E-3</v>
+        <v>0.10205555555555559</v>
       </c>
       <c r="I14">
         <f t="shared" si="7"/>
@@ -8898,9 +9004,9 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="35">
         <f t="shared" si="15"/>
-        <v>9.8555555555555063E-3</v>
+        <v>0.11848148148148142</v>
       </c>
       <c r="I15">
         <f t="shared" si="7"/>
@@ -8979,9 +9085,9 @@
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="35">
         <f t="shared" si="15"/>
-        <v>9.7555555555556284E-3</v>
+        <v>0.1347407407407408</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
@@ -9063,9 +9169,9 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="35">
         <f t="shared" si="15"/>
-        <v>9.6555555555555284E-3</v>
+        <v>0.15083333333333335</v>
       </c>
       <c r="I17">
         <f t="shared" si="7"/>
@@ -9147,9 +9253,9 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="35">
         <f t="shared" si="15"/>
-        <v>9.5555555555555394E-3</v>
+        <v>0.16675925925925925</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
@@ -9231,9 +9337,9 @@
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="35">
         <f t="shared" si="15"/>
-        <v>9.4555555555556059E-3</v>
+        <v>0.18251851851851858</v>
       </c>
       <c r="I19">
         <f t="shared" si="7"/>
@@ -9315,9 +9421,9 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="35">
         <f t="shared" si="15"/>
-        <v>9.3555555555555614E-3</v>
+        <v>0.19811111111111118</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
@@ -9399,9 +9505,9 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="35">
         <f t="shared" si="15"/>
-        <v>9.2555555555555724E-3</v>
+        <v>0.21353703703703714</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
@@ -9483,9 +9589,9 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="35">
         <f t="shared" si="15"/>
-        <v>9.1555555555555279E-3</v>
+        <v>0.22879629629629636</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
@@ -9567,9 +9673,9 @@
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="35">
         <f t="shared" si="15"/>
-        <v>9.0555555555555389E-3</v>
+        <v>0.24388888888888891</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
@@ -9651,9 +9757,9 @@
         <f t="shared" si="6"/>
         <v>111</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="35">
         <f t="shared" si="15"/>
-        <v>8.9555555555555499E-3</v>
+        <v>0.25881481481481483</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
@@ -9735,9 +9841,9 @@
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="35">
         <f t="shared" si="15"/>
-        <v>8.855555555555561E-3</v>
+        <v>0.27357407407407408</v>
       </c>
       <c r="I25">
         <f t="shared" si="7"/>
@@ -9819,9 +9925,9 @@
         <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="35">
         <f t="shared" si="15"/>
-        <v>8.7555555555555165E-3</v>
+        <v>0.28816666666666663</v>
       </c>
       <c r="I26">
         <f t="shared" si="7"/>
@@ -9903,9 +10009,9 @@
         <f t="shared" si="6"/>
         <v>144</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="35">
         <f t="shared" si="15"/>
-        <v>8.655555555555583E-3</v>
+        <v>0.30259259259259258</v>
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
@@ -9987,9 +10093,9 @@
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="35">
         <f t="shared" si="15"/>
-        <v>8.555555555555594E-3</v>
+        <v>0.31685185185185188</v>
       </c>
       <c r="I28">
         <f t="shared" si="7"/>
@@ -10071,9 +10177,9 @@
         <f t="shared" si="6"/>
         <v>166</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="35">
         <f t="shared" si="15"/>
-        <v>8.4555555555555495E-3</v>
+        <v>0.33094444444444449</v>
       </c>
       <c r="I29">
         <f t="shared" si="7"/>
@@ -10155,9 +10261,9 @@
         <f t="shared" si="6"/>
         <v>177</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="35">
         <f t="shared" si="15"/>
-        <v>8.355555555555505E-3</v>
+        <v>0.34487037037037033</v>
       </c>
       <c r="I30">
         <f t="shared" si="7"/>
@@ -10239,9 +10345,9 @@
         <f t="shared" si="6"/>
         <v>188</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="35">
         <f t="shared" si="15"/>
-        <v>8.2555555555555715E-3</v>
+        <v>0.35862962962962963</v>
       </c>
       <c r="I31">
         <f t="shared" si="7"/>
@@ -10323,9 +10429,9 @@
         <f t="shared" si="6"/>
         <v>199</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="35">
         <f t="shared" si="15"/>
-        <v>8.1555555555555825E-3</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="I32">
         <f t="shared" si="7"/>
@@ -10407,9 +10513,9 @@
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="35">
         <f t="shared" si="15"/>
-        <v>8.055555555555538E-3</v>
+        <v>0.38564814814814813</v>
       </c>
       <c r="I33">
         <f t="shared" si="7"/>
@@ -10491,9 +10597,9 @@
         <f t="shared" si="6"/>
         <v>221</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="35">
         <f t="shared" si="15"/>
-        <v>7.9555555555556046E-3</v>
+        <v>0.39890740740740749</v>
       </c>
       <c r="I34">
         <f t="shared" si="7"/>
@@ -10575,9 +10681,9 @@
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="35">
         <f t="shared" si="15"/>
-        <v>7.8555555555555046E-3</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I35">
         <f t="shared" si="7"/>
@@ -10659,9 +10765,9 @@
         <f t="shared" si="6"/>
         <v>243</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="35">
         <f t="shared" si="15"/>
-        <v>7.7555555555555711E-3</v>
+        <v>0.42492592592592593</v>
       </c>
       <c r="I36">
         <f t="shared" si="7"/>
@@ -10743,9 +10849,9 @@
         <f t="shared" si="6"/>
         <v>254</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="35">
         <f t="shared" si="15"/>
-        <v>7.6555555555555266E-3</v>
+        <v>0.43768518518518512</v>
       </c>
       <c r="I37">
         <f t="shared" si="7"/>
@@ -10827,9 +10933,9 @@
         <f t="shared" si="6"/>
         <v>265</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="35">
         <f t="shared" si="15"/>
-        <v>7.5555555555555931E-3</v>
+        <v>0.45027777777777778</v>
       </c>
       <c r="I38">
         <f t="shared" si="7"/>
@@ -10911,9 +11017,9 @@
         <f t="shared" si="6"/>
         <v>276</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="35">
         <f t="shared" si="15"/>
-        <v>7.4555555555554931E-3</v>
+        <v>0.46270370370370362</v>
       </c>
       <c r="I39">
         <f t="shared" si="7"/>
@@ -10995,9 +11101,9 @@
         <f t="shared" si="6"/>
         <v>287</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="35">
         <f t="shared" si="15"/>
-        <v>7.3555555555556151E-3</v>
+        <v>0.47496296296296298</v>
       </c>
       <c r="I40">
         <f t="shared" si="7"/>
@@ -11079,9 +11185,9 @@
         <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="35">
         <f t="shared" si="15"/>
-        <v>7.2555555555555706E-3</v>
+        <v>0.48705555555555557</v>
       </c>
       <c r="I41">
         <f t="shared" si="7"/>
@@ -11163,9 +11269,9 @@
         <f t="shared" si="6"/>
         <v>309</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="35">
         <f t="shared" si="15"/>
-        <v>7.1555555555555261E-3</v>
+        <v>0.49898148148148147</v>
       </c>
       <c r="I42">
         <f t="shared" si="7"/>
@@ -11247,9 +11353,9 @@
         <f t="shared" si="6"/>
         <v>320</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="35">
         <f t="shared" si="15"/>
-        <v>7.0555555555555927E-3</v>
+        <v>0.51074074074074083</v>
       </c>
       <c r="I43">
         <f t="shared" si="7"/>
@@ -11331,9 +11437,9 @@
         <f t="shared" si="6"/>
         <v>331</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="35">
         <f t="shared" si="15"/>
-        <v>6.9555555555555482E-3</v>
+        <v>0.52233333333333332</v>
       </c>
       <c r="I44">
         <f t="shared" si="7"/>
@@ -11415,9 +11521,9 @@
         <f t="shared" si="6"/>
         <v>342</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="35">
         <f t="shared" si="15"/>
-        <v>6.8555555555555592E-3</v>
+        <v>0.53375925925925927</v>
       </c>
       <c r="I45">
         <f t="shared" si="7"/>
@@ -11499,9 +11605,9 @@
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="35">
         <f t="shared" si="15"/>
-        <v>6.7555555555555702E-3</v>
+        <v>0.54501851851851857</v>
       </c>
       <c r="I46">
         <f t="shared" si="7"/>
@@ -11583,9 +11689,9 @@
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="35">
         <f t="shared" si="15"/>
-        <v>6.6555555555555257E-3</v>
+        <v>0.55611111111111111</v>
       </c>
       <c r="I47">
         <f t="shared" si="7"/>
@@ -11667,9 +11773,9 @@
         <f t="shared" si="6"/>
         <v>375</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="35">
         <f t="shared" si="15"/>
-        <v>6.5555555555555922E-3</v>
+        <v>0.56703703703703712</v>
       </c>
       <c r="I48">
         <f t="shared" si="7"/>
@@ -11751,9 +11857,9 @@
         <f t="shared" si="6"/>
         <v>386</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="35">
         <f t="shared" si="15"/>
-        <v>6.4555555555554922E-3</v>
+        <v>0.57779629629629625</v>
       </c>
       <c r="I49">
         <f t="shared" si="7"/>
@@ -11835,9 +11941,9 @@
         <f t="shared" si="6"/>
         <v>397</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="35">
         <f t="shared" si="15"/>
-        <v>6.3555555555555587E-3</v>
+        <v>0.58838888888888885</v>
       </c>
       <c r="I50">
         <f t="shared" si="7"/>
@@ -11919,9 +12025,9 @@
         <f t="shared" si="6"/>
         <v>408</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="35">
         <f t="shared" si="15"/>
-        <v>6.2555555555555697E-3</v>
+        <v>0.5988148148148148</v>
       </c>
       <c r="I51">
         <f t="shared" si="7"/>
@@ -12003,9 +12109,9 @@
         <f t="shared" si="6"/>
         <v>419</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="35">
         <f t="shared" si="15"/>
-        <v>6.1555555555555808E-3</v>
+        <v>0.6090740740740741</v>
       </c>
       <c r="I52">
         <f t="shared" si="7"/>
@@ -12087,9 +12193,9 @@
         <f t="shared" si="6"/>
         <v>430</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="35">
         <f t="shared" si="15"/>
-        <v>6.0555555555555363E-3</v>
+        <v>0.61916666666666664</v>
       </c>
       <c r="I53">
         <f t="shared" si="7"/>
@@ -12171,9 +12277,9 @@
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="35">
         <f t="shared" si="15"/>
-        <v>5.9555555555555473E-3</v>
+        <v>0.62909259259259254</v>
       </c>
       <c r="I54">
         <f t="shared" si="7"/>
@@ -12255,9 +12361,9 @@
         <f t="shared" si="6"/>
         <v>452</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="35">
         <f t="shared" si="15"/>
-        <v>5.8555555555555583E-3</v>
+        <v>0.63885185185185178</v>
       </c>
       <c r="I55">
         <f t="shared" si="7"/>
@@ -12339,9 +12445,9 @@
         <f t="shared" si="6"/>
         <v>463</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="35">
         <f t="shared" si="15"/>
-        <v>5.7555555555555693E-3</v>
+        <v>0.64844444444444449</v>
       </c>
       <c r="I56">
         <f t="shared" si="7"/>
@@ -12423,9 +12529,9 @@
         <f t="shared" si="6"/>
         <v>474</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="35">
         <f t="shared" si="15"/>
-        <v>5.6555555555555803E-3</v>
+        <v>0.65787037037037044</v>
       </c>
       <c r="I57">
         <f t="shared" si="7"/>
@@ -12507,9 +12613,9 @@
         <f t="shared" si="6"/>
         <v>485</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="35">
         <f t="shared" si="15"/>
-        <v>5.5555555555555358E-3</v>
+        <v>0.66712962962962963</v>
       </c>
       <c r="I58">
         <f t="shared" si="7"/>
@@ -12591,9 +12697,9 @@
         <f t="shared" si="6"/>
         <v>496</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="35">
         <f t="shared" si="15"/>
-        <v>5.4555555555555468E-3</v>
+        <v>0.67622222222222217</v>
       </c>
       <c r="I59">
         <f t="shared" si="7"/>
@@ -12675,9 +12781,9 @@
         <f t="shared" si="6"/>
         <v>507</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="35">
         <f t="shared" si="15"/>
-        <v>5.3555555555555578E-3</v>
+        <v>0.68514814814814817</v>
       </c>
       <c r="I60">
         <f t="shared" si="7"/>
@@ -12759,9 +12865,9 @@
         <f t="shared" si="6"/>
         <v>518</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="35">
         <f t="shared" si="15"/>
-        <v>5.2555555555555689E-3</v>
+        <v>0.69390740740740742</v>
       </c>
       <c r="I61">
         <f t="shared" si="7"/>
@@ -12843,9 +12949,9 @@
         <f t="shared" si="6"/>
         <v>529</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="35">
         <f t="shared" si="15"/>
-        <v>5.1555555555555244E-3</v>
+        <v>0.70250000000000001</v>
       </c>
       <c r="I62">
         <f t="shared" si="7"/>
@@ -12927,9 +13033,9 @@
         <f t="shared" si="6"/>
         <v>540</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="35">
         <f t="shared" si="15"/>
-        <v>5.0555555555555909E-3</v>
+        <v>0.71092592592592596</v>
       </c>
       <c r="I63">
         <f t="shared" si="7"/>
@@ -13011,9 +13117,9 @@
         <f t="shared" si="6"/>
         <v>551</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="35">
         <f t="shared" si="15"/>
-        <v>4.9555555555555464E-3</v>
+        <v>0.71918518518518515</v>
       </c>
       <c r="I64">
         <f t="shared" si="7"/>
@@ -13095,9 +13201,9 @@
         <f t="shared" si="6"/>
         <v>562</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="35">
         <f t="shared" si="15"/>
-        <v>4.8555555555555574E-3</v>
+        <v>0.7272777777777778</v>
       </c>
       <c r="I65">
         <f t="shared" si="7"/>
@@ -13179,9 +13285,9 @@
         <f t="shared" si="6"/>
         <v>573</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="35">
         <f t="shared" si="15"/>
-        <v>4.7555555555555684E-3</v>
+        <v>0.73520370370370369</v>
       </c>
       <c r="I66">
         <f t="shared" si="7"/>
@@ -13263,9 +13369,9 @@
         <f t="shared" si="6"/>
         <v>584</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="35">
         <f t="shared" si="15"/>
-        <v>4.6555555555555517E-3</v>
+        <v>0.74296296296296294</v>
       </c>
       <c r="I67">
         <f t="shared" si="7"/>
@@ -13347,24 +13453,24 @@
         <f t="shared" ref="G68:G107" si="22">E68+C68</f>
         <v>595</v>
       </c>
-      <c r="H68">
-        <f t="shared" ref="H68:H107" si="23">D67-D68</f>
-        <v>4.5555555555555627E-3</v>
+      <c r="H68" s="35">
+        <f t="shared" si="15"/>
+        <v>0.75055555555555553</v>
       </c>
       <c r="I68">
         <f t="shared" si="7"/>
         <v>133.63028953229397</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J107" si="24">C68/D$8</f>
+        <f t="shared" ref="J68:J107" si="23">C68/D$8</f>
         <v>133.33333333333331</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K107" si="25">C68/D68</f>
+        <f t="shared" ref="K68:K107" si="24">C68/D68</f>
         <v>534.52115812917589</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L107" si="26">1/D68</f>
+        <f t="shared" ref="L68:L107" si="25">1/D68</f>
         <v>6.6815144766146988</v>
       </c>
       <c r="M68">
@@ -13375,33 +13481,33 @@
         <v>61</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O107" si="27">C68*$B$3/D68</f>
+        <f t="shared" ref="O68:O107" si="26">C68*$B$3/D68</f>
         <v>1603.5634743875278</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P107" si="28">9+N68</f>
+        <f t="shared" ref="P68:P107" si="27">9+N68</f>
         <v>70</v>
       </c>
       <c r="Q68">
         <v>1</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R107" si="29">IF(N68&lt;=10,0,(N68+20)^2)</f>
+        <f t="shared" ref="R68:R107" si="28">IF(N68&lt;=10,0,(N68+20)^2)</f>
         <v>6561</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U107" si="30">O68+R68</f>
+        <f t="shared" ref="U68:U107" si="29">O68+R68</f>
         <v>8164.563474387528</v>
       </c>
       <c r="W68">
         <v>61</v>
       </c>
       <c r="X68">
-        <f t="shared" ref="X68:X107" si="31">X$7-W68/$Z$3*$Y$3</f>
+        <f t="shared" ref="X68:X107" si="30">X$7-W68/$Z$3*$Y$3</f>
         <v>-1919.3808710776882</v>
       </c>
       <c r="Y68">
-        <f t="shared" ref="Y68:Y107" si="32">Y$7-W68/$Z$4*$Y$4</f>
+        <f t="shared" ref="Y68:Y107" si="31">Y$7-W68/$Z$4*$Y$4</f>
         <v>-662</v>
       </c>
     </row>
@@ -13431,24 +13537,24 @@
         <f t="shared" si="22"/>
         <v>606</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="23"/>
-        <v>4.4555555555555459E-3</v>
+      <c r="H69" s="35">
+        <f t="shared" si="15"/>
+        <v>0.75798148148148148</v>
       </c>
       <c r="I69">
         <f t="shared" si="7"/>
         <v>137.73050730736858</v>
       </c>
       <c r="J69">
+        <f t="shared" si="23"/>
+        <v>134.99999999999997</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="24"/>
-        <v>134.99999999999997</v>
-      </c>
-      <c r="K69">
+        <v>557.80855459484269</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="25"/>
-        <v>557.80855459484269</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="26"/>
         <v>6.8865253653684286</v>
       </c>
       <c r="M69">
@@ -13459,33 +13565,33 @@
         <v>62</v>
       </c>
       <c r="O69">
+        <f t="shared" si="26"/>
+        <v>1673.4256637845281</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="27"/>
-        <v>1673.4256637845281</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="28"/>
         <v>71</v>
       </c>
       <c r="Q69">
         <v>1</v>
       </c>
       <c r="R69">
+        <f t="shared" si="28"/>
+        <v>6724</v>
+      </c>
+      <c r="U69">
         <f t="shared" si="29"/>
-        <v>6724</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="30"/>
         <v>8397.4256637845283</v>
       </c>
       <c r="W69">
         <v>62</v>
       </c>
       <c r="X69">
+        <f t="shared" si="30"/>
+        <v>-1952.7142044110212</v>
+      </c>
+      <c r="Y69">
         <f t="shared" si="31"/>
-        <v>-1952.7142044110212</v>
-      </c>
-      <c r="Y69">
-        <f t="shared" si="32"/>
         <v>-674</v>
       </c>
     </row>
@@ -13515,24 +13621,24 @@
         <f t="shared" si="22"/>
         <v>617</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="23"/>
-        <v>4.355555555555557E-3</v>
+      <c r="H70" s="35">
+        <f t="shared" si="15"/>
+        <v>0.76524074074074078</v>
       </c>
       <c r="I70">
         <f t="shared" si="7"/>
         <v>141.9894296757908</v>
       </c>
       <c r="J70">
+        <f t="shared" si="23"/>
+        <v>136.66666666666666</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="24"/>
-        <v>136.66666666666666</v>
-      </c>
-      <c r="K70">
+        <v>582.15666167074221</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="25"/>
-        <v>582.15666167074221</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="26"/>
         <v>7.0994714837895394</v>
       </c>
       <c r="M70">
@@ -13543,33 +13649,33 @@
         <v>63</v>
       </c>
       <c r="O70">
+        <f t="shared" si="26"/>
+        <v>1746.4699850122267</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="27"/>
-        <v>1746.4699850122267</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="28"/>
         <v>72</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70">
+        <f t="shared" si="28"/>
+        <v>6889</v>
+      </c>
+      <c r="U70">
         <f t="shared" si="29"/>
-        <v>6889</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="30"/>
         <v>8635.469985012227</v>
       </c>
       <c r="W70">
         <v>63</v>
       </c>
       <c r="X70">
+        <f t="shared" si="30"/>
+        <v>-1986.0475377443547</v>
+      </c>
+      <c r="Y70">
         <f t="shared" si="31"/>
-        <v>-1986.0475377443547</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" si="32"/>
         <v>-686</v>
       </c>
     </row>
@@ -13599,24 +13705,24 @@
         <f t="shared" si="22"/>
         <v>628</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="23"/>
-        <v>4.255555555555568E-3</v>
+      <c r="H71" s="35">
+        <f t="shared" si="15"/>
+        <v>0.77233333333333332</v>
       </c>
       <c r="I71">
         <f t="shared" si="7"/>
         <v>146.41288433382138</v>
       </c>
       <c r="J71">
+        <f t="shared" si="23"/>
+        <v>138.33333333333331</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="24"/>
-        <v>138.33333333333331</v>
-      </c>
-      <c r="K71">
+        <v>607.61346998535873</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="25"/>
-        <v>607.61346998535873</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="26"/>
         <v>7.3206442166910692</v>
       </c>
       <c r="M71">
@@ -13627,33 +13733,33 @@
         <v>64</v>
       </c>
       <c r="O71">
+        <f t="shared" si="26"/>
+        <v>1822.8404099560762</v>
+      </c>
+      <c r="P71">
         <f t="shared" si="27"/>
-        <v>1822.8404099560762</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="28"/>
         <v>73</v>
       </c>
       <c r="Q71">
         <v>1</v>
       </c>
       <c r="R71">
+        <f t="shared" si="28"/>
+        <v>7056</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="29"/>
-        <v>7056</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="30"/>
         <v>8878.8404099560757</v>
       </c>
       <c r="W71">
         <v>64</v>
       </c>
       <c r="X71">
+        <f t="shared" si="30"/>
+        <v>-2019.3808710776882</v>
+      </c>
+      <c r="Y71">
         <f t="shared" si="31"/>
-        <v>-2019.3808710776882</v>
-      </c>
-      <c r="Y71">
-        <f t="shared" si="32"/>
         <v>-698</v>
       </c>
     </row>
@@ -13683,24 +13789,24 @@
         <f t="shared" si="22"/>
         <v>639</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="23"/>
-        <v>4.1555555555555235E-3</v>
+      <c r="H72" s="35">
+        <f t="shared" si="15"/>
+        <v>0.77925925925925921</v>
       </c>
       <c r="I72">
         <f t="shared" si="7"/>
         <v>151.00671140939593</v>
       </c>
       <c r="J72">
+        <f t="shared" si="23"/>
+        <v>139.99999999999997</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="24"/>
-        <v>139.99999999999997</v>
-      </c>
-      <c r="K72">
+        <v>634.22818791946293</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="25"/>
-        <v>634.22818791946293</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="26"/>
         <v>7.5503355704697972</v>
       </c>
       <c r="M72">
@@ -13711,33 +13817,33 @@
         <v>65</v>
       </c>
       <c r="O72">
+        <f t="shared" si="26"/>
+        <v>1902.6845637583888</v>
+      </c>
+      <c r="P72">
         <f t="shared" si="27"/>
-        <v>1902.6845637583888</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="28"/>
         <v>74</v>
       </c>
       <c r="Q72">
         <v>1</v>
       </c>
       <c r="R72">
+        <f t="shared" si="28"/>
+        <v>7225</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="29"/>
-        <v>7225</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="30"/>
         <v>9127.6845637583883</v>
       </c>
       <c r="W72">
         <v>65</v>
       </c>
       <c r="X72">
+        <f t="shared" si="30"/>
+        <v>-2052.714204411021</v>
+      </c>
+      <c r="Y72">
         <f t="shared" si="31"/>
-        <v>-2052.714204411021</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" si="32"/>
         <v>-710</v>
       </c>
     </row>
@@ -13753,7 +13859,7 @@
         <v>85</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:D107" si="33">$H$1*(A73-$J$1)^2+$J$2</f>
+        <f t="shared" ref="D73:D107" si="32">$H$1*(A73-$J$1)^2+$J$2</f>
         <v>0.12838888888888891</v>
       </c>
       <c r="E73">
@@ -13767,61 +13873,61 @@
         <f t="shared" si="22"/>
         <v>650</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="35">
+        <f t="shared" si="15"/>
+        <v>0.78601851851851856</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73:I107" si="33">C$8/D73</f>
+        <v>155.77672003461703</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="23"/>
-        <v>4.0555555555555622E-3</v>
-      </c>
-      <c r="I73">
-        <f t="shared" ref="I73:I107" si="34">C$8/D73</f>
-        <v>155.77672003461703</v>
-      </c>
-      <c r="J73">
+        <v>141.66666666666666</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="24"/>
-        <v>141.66666666666666</v>
-      </c>
-      <c r="K73">
+        <v>662.05106014712237</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="25"/>
-        <v>662.05106014712237</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="26"/>
         <v>7.7888360017308509</v>
       </c>
       <c r="M73">
-        <f t="shared" ref="M73:M107" si="35">L73*5</f>
+        <f t="shared" ref="M73:M107" si="34">L73*5</f>
         <v>38.944180008654257</v>
       </c>
       <c r="N73">
         <v>66</v>
       </c>
       <c r="O73">
+        <f t="shared" si="26"/>
+        <v>1986.1531804413669</v>
+      </c>
+      <c r="P73">
         <f t="shared" si="27"/>
-        <v>1986.1531804413669</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="28"/>
         <v>75</v>
       </c>
       <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73">
+        <f t="shared" si="28"/>
+        <v>7396</v>
+      </c>
+      <c r="U73">
         <f t="shared" si="29"/>
-        <v>7396</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="30"/>
         <v>9382.1531804413662</v>
       </c>
       <c r="W73">
         <v>66</v>
       </c>
       <c r="X73">
+        <f t="shared" si="30"/>
+        <v>-2086.0475377443545</v>
+      </c>
+      <c r="Y73">
         <f t="shared" si="31"/>
-        <v>-2086.0475377443545</v>
-      </c>
-      <c r="Y73">
-        <f t="shared" si="32"/>
         <v>-722</v>
       </c>
     </row>
@@ -13837,7 +13943,7 @@
         <v>86</v>
       </c>
       <c r="D74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.12443333333333335</v>
       </c>
       <c r="E74">
@@ -13851,61 +13957,61 @@
         <f t="shared" si="22"/>
         <v>661</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="35">
+        <f t="shared" ref="H74:H107" si="35">(D$8-D74)/D$8</f>
+        <v>0.79261111111111116</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="33"/>
+        <v>160.72863648540044</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="23"/>
-        <v>3.9555555555555594E-3</v>
-      </c>
-      <c r="I74">
+        <v>143.33333333333331</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="24"/>
+        <v>691.13313688722201</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="25"/>
+        <v>8.0364318242700232</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="34"/>
-        <v>160.72863648540044</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="24"/>
-        <v>143.33333333333331</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="25"/>
-        <v>691.13313688722201</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="26"/>
-        <v>8.0364318242700232</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="35"/>
         <v>40.182159121350118</v>
       </c>
       <c r="N74">
         <v>67</v>
       </c>
       <c r="O74">
+        <f t="shared" si="26"/>
+        <v>2073.399410661666</v>
+      </c>
+      <c r="P74">
         <f t="shared" si="27"/>
-        <v>2073.399410661666</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="28"/>
         <v>76</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74">
+        <f t="shared" si="28"/>
+        <v>7569</v>
+      </c>
+      <c r="U74">
         <f t="shared" si="29"/>
-        <v>7569</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="30"/>
         <v>9642.3994106616665</v>
       </c>
       <c r="W74">
         <v>67</v>
       </c>
       <c r="X74">
+        <f t="shared" si="30"/>
+        <v>-2119.380871077688</v>
+      </c>
+      <c r="Y74">
         <f t="shared" si="31"/>
-        <v>-2119.380871077688</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="32"/>
         <v>-734</v>
       </c>
     </row>
@@ -13921,7 +14027,7 @@
         <v>87</v>
       </c>
       <c r="D75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.1205777777777778</v>
       </c>
       <c r="E75">
@@ -13935,61 +14041,61 @@
         <f t="shared" si="22"/>
         <v>672</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="35">
+        <f t="shared" si="35"/>
+        <v>0.7990370370370371</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="33"/>
+        <v>165.86804275709545</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="23"/>
-        <v>3.8555555555555565E-3</v>
-      </c>
-      <c r="I75">
+        <v>144.99999999999997</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="24"/>
+        <v>721.52598599336511</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="25"/>
+        <v>8.2934021378547715</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="34"/>
-        <v>165.86804275709545</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="24"/>
-        <v>144.99999999999997</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="25"/>
-        <v>721.52598599336511</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="26"/>
-        <v>8.2934021378547715</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="35"/>
         <v>41.467010689273856</v>
       </c>
       <c r="N75">
         <v>68</v>
       </c>
       <c r="O75">
+        <f t="shared" si="26"/>
+        <v>2164.5779579800956</v>
+      </c>
+      <c r="P75">
         <f t="shared" si="27"/>
-        <v>2164.5779579800956</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="28"/>
         <v>77</v>
       </c>
       <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
+        <f t="shared" si="28"/>
+        <v>7744</v>
+      </c>
+      <c r="U75">
         <f t="shared" si="29"/>
-        <v>7744</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="30"/>
         <v>9908.5779579800947</v>
       </c>
       <c r="W75">
         <v>68</v>
       </c>
       <c r="X75">
+        <f t="shared" si="30"/>
+        <v>-2152.714204411021</v>
+      </c>
+      <c r="Y75">
         <f t="shared" si="31"/>
-        <v>-2152.714204411021</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" si="32"/>
         <v>-746</v>
       </c>
     </row>
@@ -14005,7 +14111,7 @@
         <v>88</v>
       </c>
       <c r="D76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.11682222222222223</v>
       </c>
       <c r="E76">
@@ -14019,61 +14125,61 @@
         <f t="shared" si="22"/>
         <v>683</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="35">
+        <f t="shared" si="35"/>
+        <v>0.80529629629629629</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="33"/>
+        <v>171.20030435609661</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="23"/>
-        <v>3.7555555555555675E-3</v>
-      </c>
-      <c r="I76">
+        <v>146.66666666666666</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="24"/>
+        <v>753.28133916682509</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="25"/>
+        <v>8.5600152178048319</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="34"/>
-        <v>171.20030435609661</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="24"/>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="25"/>
-        <v>753.28133916682509</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="26"/>
-        <v>8.5600152178048319</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="35"/>
         <v>42.800076089024159</v>
       </c>
       <c r="N76">
         <v>69</v>
       </c>
       <c r="O76">
+        <f t="shared" si="26"/>
+        <v>2259.8440175004753</v>
+      </c>
+      <c r="P76">
         <f t="shared" si="27"/>
-        <v>2259.8440175004753</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="28"/>
         <v>78</v>
       </c>
       <c r="Q76">
         <v>1</v>
       </c>
       <c r="R76">
+        <f t="shared" si="28"/>
+        <v>7921</v>
+      </c>
+      <c r="U76">
         <f t="shared" si="29"/>
-        <v>7921</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="30"/>
         <v>10180.844017500476</v>
       </c>
       <c r="W76">
         <v>69</v>
       </c>
       <c r="X76">
+        <f t="shared" si="30"/>
+        <v>-2186.0475377443545</v>
+      </c>
+      <c r="Y76">
         <f t="shared" si="31"/>
-        <v>-2186.0475377443545</v>
-      </c>
-      <c r="Y76">
-        <f t="shared" si="32"/>
         <v>-758</v>
       </c>
     </row>
@@ -14089,7 +14195,7 @@
         <v>89</v>
       </c>
       <c r="D77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.11316666666666668</v>
       </c>
       <c r="E77">
@@ -14103,61 +14209,61 @@
         <f t="shared" si="22"/>
         <v>694</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="35">
+        <f t="shared" si="35"/>
+        <v>0.81138888888888883</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="33"/>
+        <v>176.73048600883649</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="23"/>
-        <v>3.6555555555555508E-3</v>
-      </c>
-      <c r="I77">
+        <v>148.33333333333331</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="24"/>
+        <v>786.45066273932241</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="25"/>
+        <v>8.836524300441825</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="34"/>
-        <v>176.73048600883649</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="24"/>
-        <v>148.33333333333331</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="25"/>
-        <v>786.45066273932241</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="26"/>
-        <v>8.836524300441825</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="35"/>
         <v>44.182621502209123</v>
       </c>
       <c r="N77">
         <v>70</v>
       </c>
       <c r="O77">
+        <f t="shared" si="26"/>
+        <v>2359.3519882179671</v>
+      </c>
+      <c r="P77">
         <f t="shared" si="27"/>
-        <v>2359.3519882179671</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="28"/>
         <v>79</v>
       </c>
       <c r="Q77">
         <v>1</v>
       </c>
       <c r="R77">
+        <f t="shared" si="28"/>
+        <v>8100</v>
+      </c>
+      <c r="U77">
         <f t="shared" si="29"/>
-        <v>8100</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="30"/>
         <v>10459.351988217968</v>
       </c>
       <c r="W77">
         <v>70</v>
       </c>
       <c r="X77">
+        <f t="shared" si="30"/>
+        <v>-2219.380871077688</v>
+      </c>
+      <c r="Y77">
         <f t="shared" si="31"/>
-        <v>-2219.380871077688</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" si="32"/>
         <v>-770</v>
       </c>
     </row>
@@ -14173,7 +14279,7 @@
         <v>90</v>
       </c>
       <c r="D78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.10961111111111113</v>
       </c>
       <c r="E78">
@@ -14187,61 +14293,61 @@
         <f t="shared" si="22"/>
         <v>705</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="35">
+        <f t="shared" si="35"/>
+        <v>0.81731481481481483</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="33"/>
+        <v>182.46325392802834</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="23"/>
-        <v>3.5555555555555479E-3</v>
-      </c>
-      <c r="I78">
+        <v>149.99999999999997</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="24"/>
+        <v>821.0846426761276</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="25"/>
+        <v>9.1231626964014172</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="34"/>
-        <v>182.46325392802834</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="24"/>
-        <v>149.99999999999997</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="25"/>
-        <v>821.0846426761276</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="26"/>
-        <v>9.1231626964014172</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="35"/>
         <v>45.615813482007084</v>
       </c>
       <c r="N78">
         <v>71</v>
       </c>
       <c r="O78">
+        <f t="shared" si="26"/>
+        <v>2463.2539280283827</v>
+      </c>
+      <c r="P78">
         <f t="shared" si="27"/>
-        <v>2463.2539280283827</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="28"/>
         <v>80</v>
       </c>
       <c r="Q78">
         <v>1</v>
       </c>
       <c r="R78">
+        <f t="shared" si="28"/>
+        <v>8281</v>
+      </c>
+      <c r="U78">
         <f t="shared" si="29"/>
-        <v>8281</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="30"/>
         <v>10744.253928028382</v>
       </c>
       <c r="W78">
         <v>71</v>
       </c>
       <c r="X78">
+        <f t="shared" si="30"/>
+        <v>-2252.714204411021</v>
+      </c>
+      <c r="Y78">
         <f t="shared" si="31"/>
-        <v>-2252.714204411021</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" si="32"/>
         <v>-782</v>
       </c>
     </row>
@@ -14257,7 +14363,7 @@
         <v>91</v>
       </c>
       <c r="D79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.10615555555555557</v>
       </c>
       <c r="E79">
@@ -14271,61 +14377,61 @@
         <f t="shared" si="22"/>
         <v>716</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="35">
+        <f t="shared" si="35"/>
+        <v>0.82307407407407407</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="33"/>
+        <v>188.40276324052749</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="23"/>
-        <v>3.4555555555555589E-3</v>
-      </c>
-      <c r="I79">
+        <v>151.66666666666666</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="24"/>
+        <v>857.23257274440016</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="25"/>
+        <v>9.4201381620263742</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="34"/>
-        <v>188.40276324052749</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="24"/>
-        <v>151.66666666666666</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="25"/>
-        <v>857.23257274440016</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="26"/>
-        <v>9.4201381620263742</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="35"/>
         <v>47.100690810131873</v>
       </c>
       <c r="N79">
         <v>72</v>
       </c>
       <c r="O79">
+        <f t="shared" si="26"/>
+        <v>2571.6977182332002</v>
+      </c>
+      <c r="P79">
         <f t="shared" si="27"/>
-        <v>2571.6977182332002</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="28"/>
         <v>81</v>
       </c>
       <c r="Q79">
         <v>1</v>
       </c>
       <c r="R79">
+        <f t="shared" si="28"/>
+        <v>8464</v>
+      </c>
+      <c r="U79">
         <f t="shared" si="29"/>
-        <v>8464</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="30"/>
         <v>11035.697718233201</v>
       </c>
       <c r="W79">
         <v>72</v>
       </c>
       <c r="X79">
+        <f t="shared" si="30"/>
+        <v>-2286.0475377443545</v>
+      </c>
+      <c r="Y79">
         <f t="shared" si="31"/>
-        <v>-2286.0475377443545</v>
-      </c>
-      <c r="Y79">
-        <f t="shared" si="32"/>
         <v>-794</v>
       </c>
     </row>
@@ -14341,7 +14447,7 @@
         <v>92</v>
       </c>
       <c r="D80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.10280000000000002</v>
       </c>
       <c r="E80">
@@ -14355,61 +14461,61 @@
         <f t="shared" si="22"/>
         <v>727</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="35">
+        <f t="shared" si="35"/>
+        <v>0.82866666666666666</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="33"/>
+        <v>194.55252918287934</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="23"/>
-        <v>3.3555555555555561E-3</v>
-      </c>
-      <c r="I80">
+        <v>153.33333333333331</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="24"/>
+        <v>894.94163424124497</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="25"/>
+        <v>9.7276264591439681</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="34"/>
-        <v>194.55252918287934</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="24"/>
-        <v>153.33333333333331</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="25"/>
-        <v>894.94163424124497</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="26"/>
-        <v>9.7276264591439681</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="35"/>
         <v>48.638132295719842</v>
       </c>
       <c r="N80">
         <v>73</v>
       </c>
       <c r="O80">
+        <f t="shared" si="26"/>
+        <v>2684.8249027237348</v>
+      </c>
+      <c r="P80">
         <f t="shared" si="27"/>
-        <v>2684.8249027237348</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="28"/>
         <v>82</v>
       </c>
       <c r="Q80">
         <v>1</v>
       </c>
       <c r="R80">
+        <f t="shared" si="28"/>
+        <v>8649</v>
+      </c>
+      <c r="U80">
         <f t="shared" si="29"/>
-        <v>8649</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="30"/>
         <v>11333.824902723734</v>
       </c>
       <c r="W80">
         <v>73</v>
       </c>
       <c r="X80">
+        <f t="shared" si="30"/>
+        <v>-2319.380871077688</v>
+      </c>
+      <c r="Y80">
         <f t="shared" si="31"/>
-        <v>-2319.380871077688</v>
-      </c>
-      <c r="Y80">
-        <f t="shared" si="32"/>
         <v>-806</v>
       </c>
     </row>
@@ -14425,7 +14531,7 @@
         <v>93</v>
       </c>
       <c r="D81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>9.9544444444444463E-2</v>
       </c>
       <c r="E81">
@@ -14439,61 +14545,61 @@
         <f t="shared" si="22"/>
         <v>738</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="35">
+        <f t="shared" si="35"/>
+        <v>0.83409259259259261</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="33"/>
+        <v>200.91528072329498</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="23"/>
-        <v>3.2555555555555532E-3</v>
-      </c>
-      <c r="I81">
+        <v>154.99999999999997</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="24"/>
+        <v>934.25605536332159</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="25"/>
+        <v>10.045764036164748</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="34"/>
-        <v>200.91528072329498</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="24"/>
-        <v>154.99999999999997</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="25"/>
-        <v>934.25605536332159</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="26"/>
-        <v>10.045764036164748</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="35"/>
         <v>50.228820180823739</v>
       </c>
       <c r="N81">
         <v>74</v>
       </c>
       <c r="O81">
+        <f t="shared" si="26"/>
+        <v>2802.7681660899648</v>
+      </c>
+      <c r="P81">
         <f t="shared" si="27"/>
-        <v>2802.7681660899648</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="28"/>
         <v>83</v>
       </c>
       <c r="Q81">
         <v>1</v>
       </c>
       <c r="R81">
+        <f t="shared" si="28"/>
+        <v>8836</v>
+      </c>
+      <c r="U81">
         <f t="shared" si="29"/>
-        <v>8836</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="30"/>
         <v>11638.768166089965</v>
       </c>
       <c r="W81">
         <v>74</v>
       </c>
       <c r="X81">
+        <f t="shared" si="30"/>
+        <v>-2352.714204411021</v>
+      </c>
+      <c r="Y81">
         <f t="shared" si="31"/>
-        <v>-2352.714204411021</v>
-      </c>
-      <c r="Y81">
-        <f t="shared" si="32"/>
         <v>-818</v>
       </c>
     </row>
@@ -14509,7 +14615,7 @@
         <v>94</v>
       </c>
       <c r="D82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>9.6388888888888913E-2</v>
       </c>
       <c r="E82">
@@ -14523,61 +14629,61 @@
         <f t="shared" si="22"/>
         <v>749</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="35">
+        <f t="shared" si="35"/>
+        <v>0.8393518518518519</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="33"/>
+        <v>207.49279538904895</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="23"/>
-        <v>3.1555555555555503E-3</v>
-      </c>
-      <c r="I82">
+        <v>156.66666666666666</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="24"/>
+        <v>975.21613832853006</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="25"/>
+        <v>10.374639769452447</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="34"/>
-        <v>207.49279538904895</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="24"/>
-        <v>156.66666666666666</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="25"/>
-        <v>975.21613832853006</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="26"/>
-        <v>10.374639769452447</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="35"/>
         <v>51.873198847262231</v>
       </c>
       <c r="N82">
         <v>75</v>
       </c>
       <c r="O82">
+        <f t="shared" si="26"/>
+        <v>2925.6484149855901</v>
+      </c>
+      <c r="P82">
         <f t="shared" si="27"/>
-        <v>2925.6484149855901</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="28"/>
         <v>84</v>
       </c>
       <c r="Q82">
         <v>1</v>
       </c>
       <c r="R82">
+        <f t="shared" si="28"/>
+        <v>9025</v>
+      </c>
+      <c r="U82">
         <f t="shared" si="29"/>
-        <v>9025</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="30"/>
         <v>11950.64841498559</v>
       </c>
       <c r="W82">
         <v>75</v>
       </c>
       <c r="X82">
+        <f t="shared" si="30"/>
+        <v>-2386.0475377443545</v>
+      </c>
+      <c r="Y82">
         <f t="shared" si="31"/>
-        <v>-2386.0475377443545</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" si="32"/>
         <v>-830</v>
       </c>
     </row>
@@ -14593,7 +14699,7 @@
         <v>95</v>
       </c>
       <c r="D83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>9.3333333333333351E-2</v>
       </c>
       <c r="E83">
@@ -14607,61 +14713,61 @@
         <f t="shared" si="22"/>
         <v>760</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="35">
+        <f t="shared" si="35"/>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="33"/>
+        <v>214.28571428571425</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="23"/>
-        <v>3.0555555555555614E-3</v>
-      </c>
-      <c r="I83">
+        <v>158.33333333333331</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="24"/>
+        <v>1017.8571428571427</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="25"/>
+        <v>10.714285714285712</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="34"/>
-        <v>214.28571428571425</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="24"/>
-        <v>158.33333333333331</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="25"/>
-        <v>1017.8571428571427</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="26"/>
-        <v>10.714285714285712</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="35"/>
         <v>53.571428571428555</v>
       </c>
       <c r="N83">
         <v>76</v>
       </c>
       <c r="O83">
+        <f t="shared" si="26"/>
+        <v>3053.571428571428</v>
+      </c>
+      <c r="P83">
         <f t="shared" si="27"/>
-        <v>3053.571428571428</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="28"/>
         <v>85</v>
       </c>
       <c r="Q83">
         <v>1</v>
       </c>
       <c r="R83">
+        <f t="shared" si="28"/>
+        <v>9216</v>
+      </c>
+      <c r="U83">
         <f t="shared" si="29"/>
-        <v>9216</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="30"/>
         <v>12269.571428571428</v>
       </c>
       <c r="W83">
         <v>76</v>
       </c>
       <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-2419.380871077688</v>
+      </c>
+      <c r="Y83">
         <f t="shared" si="31"/>
-        <v>-2419.380871077688</v>
-      </c>
-      <c r="Y83">
-        <f t="shared" si="32"/>
         <v>-842</v>
       </c>
     </row>
@@ -14677,7 +14783,7 @@
         <v>96</v>
       </c>
       <c r="D84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>9.0377777777777793E-2</v>
       </c>
       <c r="E84">
@@ -14691,61 +14797,61 @@
         <f t="shared" si="22"/>
         <v>771</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="35">
+        <f t="shared" si="35"/>
+        <v>0.84937037037037044</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="33"/>
+        <v>221.29333661175309</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="23"/>
-        <v>2.9555555555555585E-3</v>
-      </c>
-      <c r="I84">
+        <v>159.99999999999997</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="24"/>
+        <v>1062.2080157364148</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="25"/>
+        <v>11.064666830587655</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="34"/>
-        <v>221.29333661175309</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="24"/>
-        <v>159.99999999999997</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="25"/>
-        <v>1062.2080157364148</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="26"/>
-        <v>11.064666830587655</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="35"/>
         <v>55.323334152938273</v>
       </c>
       <c r="N84">
         <v>77</v>
       </c>
       <c r="O84">
+        <f t="shared" si="26"/>
+        <v>3186.6240472092445</v>
+      </c>
+      <c r="P84">
         <f t="shared" si="27"/>
-        <v>3186.6240472092445</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="28"/>
         <v>86</v>
       </c>
       <c r="Q84">
         <v>1</v>
       </c>
       <c r="R84">
+        <f t="shared" si="28"/>
+        <v>9409</v>
+      </c>
+      <c r="U84">
         <f t="shared" si="29"/>
-        <v>9409</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="30"/>
         <v>12595.624047209245</v>
       </c>
       <c r="W84">
         <v>77</v>
       </c>
       <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-2452.714204411021</v>
+      </c>
+      <c r="Y84">
         <f t="shared" si="31"/>
-        <v>-2452.714204411021</v>
-      </c>
-      <c r="Y84">
-        <f t="shared" si="32"/>
         <v>-854</v>
       </c>
     </row>
@@ -14761,7 +14867,7 @@
         <v>97</v>
       </c>
       <c r="D85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>8.7522222222222237E-2</v>
       </c>
       <c r="E85">
@@ -14775,61 +14881,61 @@
         <f t="shared" si="22"/>
         <v>782</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="35">
+        <f t="shared" si="35"/>
+        <v>0.85412962962962957</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="33"/>
+        <v>228.5133934238923</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="23"/>
-        <v>2.8555555555555556E-3</v>
-      </c>
-      <c r="I85">
+        <v>161.66666666666663</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="24"/>
+        <v>1108.2899581058778</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="25"/>
+        <v>11.425669671194616</v>
+      </c>
+      <c r="M85">
         <f t="shared" si="34"/>
-        <v>228.5133934238923</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="24"/>
-        <v>161.66666666666663</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="25"/>
-        <v>1108.2899581058778</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="26"/>
-        <v>11.425669671194616</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="35"/>
         <v>57.128348355973074</v>
       </c>
       <c r="N85">
         <v>78</v>
       </c>
       <c r="O85">
+        <f t="shared" si="26"/>
+        <v>3324.8698743176328</v>
+      </c>
+      <c r="P85">
         <f t="shared" si="27"/>
-        <v>3324.8698743176328</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="28"/>
         <v>87</v>
       </c>
       <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85">
+        <f t="shared" si="28"/>
+        <v>9604</v>
+      </c>
+      <c r="U85">
         <f t="shared" si="29"/>
-        <v>9604</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="30"/>
         <v>12928.869874317632</v>
       </c>
       <c r="W85">
         <v>78</v>
       </c>
       <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-2486.0475377443545</v>
+      </c>
+      <c r="Y85">
         <f t="shared" si="31"/>
-        <v>-2486.0475377443545</v>
-      </c>
-      <c r="Y85">
-        <f t="shared" si="32"/>
         <v>-866</v>
       </c>
     </row>
@@ -14845,7 +14951,7 @@
         <v>98</v>
       </c>
       <c r="D86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>8.4766666666666685E-2</v>
       </c>
       <c r="E86">
@@ -14859,61 +14965,61 @@
         <f t="shared" si="22"/>
         <v>793</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="35">
+        <f t="shared" si="35"/>
+        <v>0.85872222222222228</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="33"/>
+        <v>235.94180102241441</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="23"/>
-        <v>2.7555555555555528E-3</v>
-      </c>
-      <c r="I86">
+        <v>163.33333333333331</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="24"/>
+        <v>1156.1148250098306</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="25"/>
+        <v>11.797090051120721</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="34"/>
-        <v>235.94180102241441</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="24"/>
-        <v>163.33333333333331</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="25"/>
-        <v>1156.1148250098306</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="26"/>
-        <v>11.797090051120721</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="35"/>
         <v>58.985450255603602</v>
       </c>
       <c r="N86">
         <v>79</v>
       </c>
       <c r="O86">
+        <f t="shared" si="26"/>
+        <v>3468.3444750294921</v>
+      </c>
+      <c r="P86">
         <f t="shared" si="27"/>
-        <v>3468.3444750294921</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="28"/>
         <v>88</v>
       </c>
       <c r="Q86">
         <v>1</v>
       </c>
       <c r="R86">
+        <f t="shared" si="28"/>
+        <v>9801</v>
+      </c>
+      <c r="U86">
         <f t="shared" si="29"/>
-        <v>9801</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="30"/>
         <v>13269.344475029491</v>
       </c>
       <c r="W86">
         <v>79</v>
       </c>
       <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-2519.380871077688</v>
+      </c>
+      <c r="Y86">
         <f t="shared" si="31"/>
-        <v>-2519.380871077688</v>
-      </c>
-      <c r="Y86">
-        <f t="shared" si="32"/>
         <v>-878</v>
       </c>
     </row>
@@ -14929,7 +15035,7 @@
         <v>99</v>
       </c>
       <c r="D87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>8.2111111111111135E-2</v>
       </c>
       <c r="E87">
@@ -14943,61 +15049,61 @@
         <f t="shared" si="22"/>
         <v>804</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="35">
+        <f t="shared" si="35"/>
+        <v>0.86314814814814811</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="33"/>
+        <v>243.57239512855202</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="23"/>
-        <v>2.6555555555555499E-3</v>
-      </c>
-      <c r="I87">
+        <v>164.99999999999997</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="24"/>
+        <v>1205.6833558863325</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="25"/>
+        <v>12.178619756427601</v>
+      </c>
+      <c r="M87">
         <f t="shared" si="34"/>
-        <v>243.57239512855202</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="24"/>
-        <v>164.99999999999997</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="25"/>
-        <v>1205.6833558863325</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="26"/>
-        <v>12.178619756427601</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="35"/>
         <v>60.893098782138004</v>
       </c>
       <c r="N87">
         <v>80</v>
       </c>
       <c r="O87">
+        <f t="shared" si="26"/>
+        <v>3617.0500676589977</v>
+      </c>
+      <c r="P87">
         <f t="shared" si="27"/>
-        <v>3617.0500676589977</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="28"/>
         <v>89</v>
       </c>
       <c r="Q87">
         <v>1</v>
       </c>
       <c r="R87">
+        <f t="shared" si="28"/>
+        <v>10000</v>
+      </c>
+      <c r="U87">
         <f t="shared" si="29"/>
-        <v>10000</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="30"/>
         <v>13617.050067658998</v>
       </c>
       <c r="W87">
         <v>80</v>
       </c>
       <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-2552.714204411021</v>
+      </c>
+      <c r="Y87">
         <f t="shared" si="31"/>
-        <v>-2552.714204411021</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="32"/>
         <v>-890</v>
       </c>
     </row>
@@ -15013,7 +15119,7 @@
         <v>100</v>
       </c>
       <c r="D88">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>7.9555555555555574E-2</v>
       </c>
       <c r="E88">
@@ -15027,61 +15133,61 @@
         <f t="shared" si="22"/>
         <v>815</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="35">
+        <f t="shared" si="35"/>
+        <v>0.8674074074074074</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="33"/>
+        <v>251.39664804469268</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="23"/>
-        <v>2.5555555555555609E-3</v>
-      </c>
-      <c r="I88">
+        <v>166.66666666666663</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="24"/>
+        <v>1256.9832402234633</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="25"/>
+        <v>12.569832402234635</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="34"/>
-        <v>251.39664804469268</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="24"/>
-        <v>166.66666666666663</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="25"/>
-        <v>1256.9832402234633</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="26"/>
-        <v>12.569832402234635</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="35"/>
         <v>62.849162011173178</v>
       </c>
       <c r="N88">
         <v>81</v>
       </c>
       <c r="O88">
+        <f t="shared" si="26"/>
+        <v>3770.94972067039</v>
+      </c>
+      <c r="P88">
         <f t="shared" si="27"/>
-        <v>3770.94972067039</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="28"/>
         <v>90</v>
       </c>
       <c r="Q88">
         <v>1</v>
       </c>
       <c r="R88">
+        <f t="shared" si="28"/>
+        <v>10201</v>
+      </c>
+      <c r="U88">
         <f t="shared" si="29"/>
-        <v>10201</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="30"/>
         <v>13971.949720670389</v>
       </c>
       <c r="W88">
         <v>81</v>
       </c>
       <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-2586.0475377443545</v>
+      </c>
+      <c r="Y88">
         <f t="shared" si="31"/>
-        <v>-2586.0475377443545</v>
-      </c>
-      <c r="Y88">
-        <f t="shared" si="32"/>
         <v>-902</v>
       </c>
     </row>
@@ -15097,7 +15203,7 @@
         <v>101</v>
       </c>
       <c r="D89">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>7.7100000000000016E-2</v>
       </c>
       <c r="E89">
@@ -15111,61 +15217,61 @@
         <f t="shared" si="22"/>
         <v>826</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="35">
+        <f t="shared" si="35"/>
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="33"/>
+        <v>259.4033722438391</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="23"/>
-        <v>2.455555555555558E-3</v>
-      </c>
-      <c r="I89">
+        <v>168.33333333333331</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="24"/>
+        <v>1309.9870298313876</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="25"/>
+        <v>12.970168612191955</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="34"/>
-        <v>259.4033722438391</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="24"/>
-        <v>168.33333333333331</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="25"/>
-        <v>1309.9870298313876</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="26"/>
-        <v>12.970168612191955</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="35"/>
         <v>64.850843060959775</v>
       </c>
       <c r="N89">
         <v>82</v>
       </c>
       <c r="O89">
+        <f t="shared" si="26"/>
+        <v>3929.9610894941625</v>
+      </c>
+      <c r="P89">
         <f t="shared" si="27"/>
-        <v>3929.9610894941625</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="28"/>
         <v>91</v>
       </c>
       <c r="Q89">
         <v>1</v>
       </c>
       <c r="R89">
+        <f t="shared" si="28"/>
+        <v>10404</v>
+      </c>
+      <c r="U89">
         <f t="shared" si="29"/>
-        <v>10404</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="30"/>
         <v>14333.961089494162</v>
       </c>
       <c r="W89">
         <v>82</v>
       </c>
       <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-2619.380871077688</v>
+      </c>
+      <c r="Y89">
         <f t="shared" si="31"/>
-        <v>-2619.380871077688</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="32"/>
         <v>-914</v>
       </c>
     </row>
@@ -15181,7 +15287,7 @@
         <v>102</v>
       </c>
       <c r="D90">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>7.4744444444444461E-2</v>
       </c>
       <c r="E90">
@@ -15195,61 +15301,61 @@
         <f t="shared" si="22"/>
         <v>837</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="35">
+        <f t="shared" si="35"/>
+        <v>0.87542592592592583</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="33"/>
+        <v>267.57841534116244</v>
+      </c>
+      <c r="J90">
         <f t="shared" si="23"/>
-        <v>2.3555555555555552E-3</v>
-      </c>
-      <c r="I90">
+        <v>169.99999999999997</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="24"/>
+        <v>1364.6499182399284</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="25"/>
+        <v>13.378920767058121</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="34"/>
-        <v>267.57841534116244</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="24"/>
-        <v>169.99999999999997</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="25"/>
-        <v>1364.6499182399284</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="26"/>
-        <v>13.378920767058121</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="35"/>
         <v>66.89460383529061</v>
       </c>
       <c r="N90">
         <v>83</v>
       </c>
       <c r="O90">
+        <f t="shared" si="26"/>
+        <v>4093.9497547197852</v>
+      </c>
+      <c r="P90">
         <f t="shared" si="27"/>
-        <v>4093.9497547197852</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="28"/>
         <v>92</v>
       </c>
       <c r="Q90">
         <v>1</v>
       </c>
       <c r="R90">
+        <f t="shared" si="28"/>
+        <v>10609</v>
+      </c>
+      <c r="U90">
         <f t="shared" si="29"/>
-        <v>10609</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="30"/>
         <v>14702.949754719786</v>
       </c>
       <c r="W90">
         <v>83</v>
       </c>
       <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-2652.714204411021</v>
+      </c>
+      <c r="Y90">
         <f t="shared" si="31"/>
-        <v>-2652.714204411021</v>
-      </c>
-      <c r="Y90">
-        <f t="shared" si="32"/>
         <v>-926</v>
       </c>
     </row>
@@ -15265,7 +15371,7 @@
         <v>103</v>
       </c>
       <c r="D91">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>7.2488888888888908E-2</v>
       </c>
       <c r="E91">
@@ -15279,61 +15385,61 @@
         <f t="shared" si="22"/>
         <v>848</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="35">
+        <f t="shared" si="35"/>
+        <v>0.87918518518518507</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="33"/>
+        <v>275.90435315757196</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="23"/>
-        <v>2.2555555555555523E-3</v>
-      </c>
-      <c r="I91">
+        <v>171.66666666666663</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="24"/>
+        <v>1420.9074187614956</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="25"/>
+        <v>13.795217657878599</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="34"/>
-        <v>275.90435315757196</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="24"/>
-        <v>171.66666666666663</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="25"/>
-        <v>1420.9074187614956</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="26"/>
-        <v>13.795217657878599</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="35"/>
         <v>68.97608828939299</v>
       </c>
       <c r="N91">
         <v>84</v>
       </c>
       <c r="O91">
+        <f t="shared" si="26"/>
+        <v>4262.7222562844872</v>
+      </c>
+      <c r="P91">
         <f t="shared" si="27"/>
-        <v>4262.7222562844872</v>
-      </c>
-      <c r="P91">
-        <f t="shared" si="28"/>
         <v>93</v>
       </c>
       <c r="Q91">
         <v>1</v>
       </c>
       <c r="R91">
+        <f t="shared" si="28"/>
+        <v>10816</v>
+      </c>
+      <c r="U91">
         <f t="shared" si="29"/>
-        <v>10816</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="30"/>
         <v>15078.722256284487</v>
       </c>
       <c r="W91">
         <v>84</v>
       </c>
       <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-2686.0475377443545</v>
+      </c>
+      <c r="Y91">
         <f t="shared" si="31"/>
-        <v>-2686.0475377443545</v>
-      </c>
-      <c r="Y91">
-        <f t="shared" si="32"/>
         <v>-938</v>
       </c>
     </row>
@@ -15349,7 +15455,7 @@
         <v>104</v>
       </c>
       <c r="D92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>7.0333333333333345E-2</v>
       </c>
       <c r="E92">
@@ -15363,61 +15469,61 @@
         <f t="shared" si="22"/>
         <v>859</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="35">
+        <f t="shared" si="35"/>
+        <v>0.88277777777777777</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="33"/>
+        <v>284.36018957345965</v>
+      </c>
+      <c r="J92">
         <f t="shared" si="23"/>
-        <v>2.1555555555555633E-3</v>
-      </c>
-      <c r="I92">
+        <v>173.33333333333331</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="24"/>
+        <v>1478.6729857819903</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="25"/>
+        <v>14.218009478672984</v>
+      </c>
+      <c r="M92">
         <f t="shared" si="34"/>
-        <v>284.36018957345965</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="24"/>
-        <v>173.33333333333331</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="25"/>
-        <v>1478.6729857819903</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="26"/>
-        <v>14.218009478672984</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="35"/>
         <v>71.090047393364927</v>
       </c>
       <c r="N92">
         <v>85</v>
       </c>
       <c r="O92">
+        <f t="shared" si="26"/>
+        <v>4436.0189573459711</v>
+      </c>
+      <c r="P92">
         <f t="shared" si="27"/>
-        <v>4436.0189573459711</v>
-      </c>
-      <c r="P92">
-        <f t="shared" si="28"/>
         <v>94</v>
       </c>
       <c r="Q92">
         <v>1</v>
       </c>
       <c r="R92">
+        <f t="shared" si="28"/>
+        <v>11025</v>
+      </c>
+      <c r="U92">
         <f t="shared" si="29"/>
-        <v>11025</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="30"/>
         <v>15461.018957345972</v>
       </c>
       <c r="W92">
         <v>85</v>
       </c>
       <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-2719.380871077688</v>
+      </c>
+      <c r="Y92">
         <f t="shared" si="31"/>
-        <v>-2719.380871077688</v>
-      </c>
-      <c r="Y92">
-        <f t="shared" si="32"/>
         <v>-950</v>
       </c>
     </row>
@@ -15433,7 +15539,7 @@
         <v>105</v>
       </c>
       <c r="D93">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>6.8277777777777798E-2</v>
       </c>
       <c r="E93">
@@ -15447,61 +15553,61 @@
         <f t="shared" si="22"/>
         <v>870</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="35">
+        <f t="shared" si="35"/>
+        <v>0.88620370370370372</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="33"/>
+        <v>292.92107404393806</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="23"/>
-        <v>2.0555555555555466E-3</v>
-      </c>
-      <c r="I93">
+        <v>174.99999999999997</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="24"/>
+        <v>1537.8356387306749</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="25"/>
+        <v>14.646053702196904</v>
+      </c>
+      <c r="M93">
         <f t="shared" si="34"/>
-        <v>292.92107404393806</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="24"/>
-        <v>174.99999999999997</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="25"/>
-        <v>1537.8356387306749</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="26"/>
-        <v>14.646053702196904</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="35"/>
         <v>73.230268510984516</v>
       </c>
       <c r="N93">
         <v>86</v>
       </c>
       <c r="O93">
+        <f t="shared" si="26"/>
+        <v>4613.5069161920246</v>
+      </c>
+      <c r="P93">
         <f t="shared" si="27"/>
-        <v>4613.5069161920246</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="28"/>
         <v>95</v>
       </c>
       <c r="Q93">
         <v>1</v>
       </c>
       <c r="R93">
+        <f t="shared" si="28"/>
+        <v>11236</v>
+      </c>
+      <c r="U93">
         <f t="shared" si="29"/>
-        <v>11236</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="30"/>
         <v>15849.506916192026</v>
       </c>
       <c r="W93">
         <v>86</v>
       </c>
       <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-2752.714204411021</v>
+      </c>
+      <c r="Y93">
         <f t="shared" si="31"/>
-        <v>-2752.714204411021</v>
-      </c>
-      <c r="Y93">
-        <f t="shared" si="32"/>
         <v>-962</v>
       </c>
     </row>
@@ -15517,7 +15623,7 @@
         <v>106</v>
       </c>
       <c r="D94">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>6.6322222222222241E-2</v>
       </c>
       <c r="E94">
@@ -15531,61 +15637,61 @@
         <f t="shared" si="22"/>
         <v>881</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="35">
+        <f t="shared" si="35"/>
+        <v>0.8894629629629629</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="33"/>
+        <v>301.55804992461043</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="23"/>
-        <v>1.9555555555555576E-3</v>
-      </c>
-      <c r="I94">
+        <v>176.66666666666663</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="24"/>
+        <v>1598.2576646004352</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="25"/>
+        <v>15.07790249623052</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="34"/>
-        <v>301.55804992461043</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="24"/>
-        <v>176.66666666666663</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="25"/>
-        <v>1598.2576646004352</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="26"/>
-        <v>15.07790249623052</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="35"/>
         <v>75.389512481152593</v>
       </c>
       <c r="N94">
         <v>87</v>
       </c>
       <c r="O94">
+        <f t="shared" si="26"/>
+        <v>4794.7729938013053</v>
+      </c>
+      <c r="P94">
         <f t="shared" si="27"/>
-        <v>4794.7729938013053</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="28"/>
         <v>96</v>
       </c>
       <c r="Q94">
         <v>1</v>
       </c>
       <c r="R94">
+        <f t="shared" si="28"/>
+        <v>11449</v>
+      </c>
+      <c r="U94">
         <f t="shared" si="29"/>
-        <v>11449</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="30"/>
         <v>16243.772993801305</v>
       </c>
       <c r="W94">
         <v>87</v>
       </c>
       <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-2786.0475377443545</v>
+      </c>
+      <c r="Y94">
         <f t="shared" si="31"/>
-        <v>-2786.0475377443545</v>
-      </c>
-      <c r="Y94">
-        <f t="shared" si="32"/>
         <v>-974</v>
       </c>
     </row>
@@ -15601,7 +15707,7 @@
         <v>107</v>
       </c>
       <c r="D95">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>6.4466666666666672E-2</v>
       </c>
       <c r="E95">
@@ -15615,61 +15721,61 @@
         <f t="shared" si="22"/>
         <v>892</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="35">
+        <f t="shared" si="35"/>
+        <v>0.89255555555555555</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="33"/>
+        <v>310.23784901758012</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="23"/>
-        <v>1.8555555555555686E-3</v>
-      </c>
-      <c r="I95">
+        <v>178.33333333333331</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="24"/>
+        <v>1659.7724922440536</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="25"/>
+        <v>15.511892450879007</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="34"/>
-        <v>310.23784901758012</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="24"/>
-        <v>178.33333333333331</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="25"/>
-        <v>1659.7724922440536</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="26"/>
-        <v>15.511892450879007</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="35"/>
         <v>77.559462254395029</v>
       </c>
       <c r="N95">
         <v>88</v>
       </c>
       <c r="O95">
+        <f t="shared" si="26"/>
+        <v>4979.3174767321607</v>
+      </c>
+      <c r="P95">
         <f t="shared" si="27"/>
-        <v>4979.3174767321607</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="28"/>
         <v>97</v>
       </c>
       <c r="Q95">
         <v>1</v>
       </c>
       <c r="R95">
+        <f t="shared" si="28"/>
+        <v>11664</v>
+      </c>
+      <c r="U95">
         <f t="shared" si="29"/>
-        <v>11664</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="30"/>
         <v>16643.317476732162</v>
       </c>
       <c r="W95">
         <v>88</v>
       </c>
       <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-2819.380871077688</v>
+      </c>
+      <c r="Y95">
         <f t="shared" si="31"/>
-        <v>-2819.380871077688</v>
-      </c>
-      <c r="Y95">
-        <f t="shared" si="32"/>
         <v>-986</v>
       </c>
     </row>
@@ -15685,7 +15791,7 @@
         <v>108</v>
       </c>
       <c r="D96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>6.271111111111112E-2</v>
       </c>
       <c r="E96">
@@ -15699,61 +15805,61 @@
         <f t="shared" si="22"/>
         <v>903</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="35">
+        <f t="shared" si="35"/>
+        <v>0.89548148148148143</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="33"/>
+        <v>318.92274982282066</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="23"/>
-        <v>1.7555555555555519E-3</v>
-      </c>
-      <c r="I96">
+        <v>179.99999999999997</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="24"/>
+        <v>1722.1828490432315</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="25"/>
+        <v>15.946137491141032</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="34"/>
-        <v>318.92274982282066</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="24"/>
-        <v>179.99999999999997</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="25"/>
-        <v>1722.1828490432315</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="26"/>
-        <v>15.946137491141032</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="35"/>
         <v>79.730687455705166</v>
       </c>
       <c r="N96">
         <v>89</v>
       </c>
       <c r="O96">
+        <f t="shared" si="26"/>
+        <v>5166.5485471296943</v>
+      </c>
+      <c r="P96">
         <f t="shared" si="27"/>
-        <v>5166.5485471296943</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="28"/>
         <v>98</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
+        <f t="shared" si="28"/>
+        <v>11881</v>
+      </c>
+      <c r="U96">
         <f t="shared" si="29"/>
-        <v>11881</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="30"/>
         <v>17047.548547129692</v>
       </c>
       <c r="W96">
         <v>89</v>
       </c>
       <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-2852.714204411021</v>
+      </c>
+      <c r="Y96">
         <f t="shared" si="31"/>
-        <v>-2852.714204411021</v>
-      </c>
-      <c r="Y96">
-        <f t="shared" si="32"/>
         <v>-998</v>
       </c>
     </row>
@@ -15769,7 +15875,7 @@
         <v>109</v>
       </c>
       <c r="D97">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>6.1055555555555564E-2</v>
       </c>
       <c r="E97">
@@ -15783,61 +15889,61 @@
         <f t="shared" si="22"/>
         <v>914</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="35">
+        <f t="shared" si="35"/>
+        <v>0.89824074074074078</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="33"/>
+        <v>327.57051865332113</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="23"/>
-        <v>1.6555555555555559E-3</v>
-      </c>
-      <c r="I97">
+        <v>181.66666666666663</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="24"/>
+        <v>1785.2593266606002</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="25"/>
+        <v>16.378525932666058</v>
+      </c>
+      <c r="M97">
         <f t="shared" si="34"/>
-        <v>327.57051865332113</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="24"/>
-        <v>181.66666666666663</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="25"/>
-        <v>1785.2593266606002</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="26"/>
-        <v>16.378525932666058</v>
-      </c>
-      <c r="M97">
-        <f t="shared" si="35"/>
         <v>81.892629663330297</v>
       </c>
       <c r="N97">
         <v>90</v>
       </c>
       <c r="O97">
+        <f t="shared" si="26"/>
+        <v>5355.7779799818009</v>
+      </c>
+      <c r="P97">
         <f t="shared" si="27"/>
-        <v>5355.7779799818009</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="28"/>
         <v>99</v>
       </c>
       <c r="Q97">
         <v>1</v>
       </c>
       <c r="R97">
+        <f t="shared" si="28"/>
+        <v>12100</v>
+      </c>
+      <c r="U97">
         <f t="shared" si="29"/>
-        <v>12100</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="30"/>
         <v>17455.777979981802</v>
       </c>
       <c r="W97">
         <v>90</v>
       </c>
       <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-2886.0475377443545</v>
+      </c>
+      <c r="Y97">
         <f t="shared" si="31"/>
-        <v>-2886.0475377443545</v>
-      </c>
-      <c r="Y97">
-        <f t="shared" si="32"/>
         <v>-1010</v>
       </c>
     </row>
@@ -15853,7 +15959,7 @@
         <v>110</v>
       </c>
       <c r="D98">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.9500000000000011E-2</v>
       </c>
       <c r="E98">
@@ -15867,61 +15973,61 @@
         <f t="shared" si="22"/>
         <v>925</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="35">
+        <f t="shared" si="35"/>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="33"/>
+        <v>336.13445378151255</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="23"/>
-        <v>1.5555555555555531E-3</v>
-      </c>
-      <c r="I98">
+        <v>183.33333333333331</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="24"/>
+        <v>1848.739495798319</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="25"/>
+        <v>16.806722689075627</v>
+      </c>
+      <c r="M98">
         <f t="shared" si="34"/>
-        <v>336.13445378151255</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="24"/>
-        <v>183.33333333333331</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="25"/>
-        <v>1848.739495798319</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="26"/>
-        <v>16.806722689075627</v>
-      </c>
-      <c r="M98">
-        <f t="shared" si="35"/>
         <v>84.033613445378137</v>
       </c>
       <c r="N98">
         <v>91</v>
       </c>
       <c r="O98">
+        <f t="shared" si="26"/>
+        <v>5546.2184873949573</v>
+      </c>
+      <c r="P98">
         <f t="shared" si="27"/>
-        <v>5546.2184873949573</v>
-      </c>
-      <c r="P98">
-        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="Q98">
         <v>1</v>
       </c>
       <c r="R98">
+        <f t="shared" si="28"/>
+        <v>12321</v>
+      </c>
+      <c r="U98">
         <f t="shared" si="29"/>
-        <v>12321</v>
-      </c>
-      <c r="U98">
-        <f t="shared" si="30"/>
         <v>17867.218487394959</v>
       </c>
       <c r="W98">
         <v>91</v>
       </c>
       <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-2919.380871077688</v>
+      </c>
+      <c r="Y98">
         <f t="shared" si="31"/>
-        <v>-2919.380871077688</v>
-      </c>
-      <c r="Y98">
-        <f t="shared" si="32"/>
         <v>-1022</v>
       </c>
     </row>
@@ -15937,7 +16043,7 @@
         <v>111</v>
       </c>
       <c r="D99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.8044444444444454E-2</v>
       </c>
       <c r="E99">
@@ -15951,61 +16057,61 @@
         <f t="shared" si="22"/>
         <v>936</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="35">
+        <f t="shared" si="35"/>
+        <v>0.90325925925925921</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="33"/>
+        <v>344.56355283307806</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="23"/>
-        <v>1.4555555555555572E-3</v>
-      </c>
-      <c r="I99">
+        <v>184.99999999999997</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="24"/>
+        <v>1912.3277182235831</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="25"/>
+        <v>17.228177641653904</v>
+      </c>
+      <c r="M99">
         <f t="shared" si="34"/>
-        <v>344.56355283307806</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="24"/>
-        <v>184.99999999999997</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="25"/>
-        <v>1912.3277182235831</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="26"/>
-        <v>17.228177641653904</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="35"/>
         <v>86.140888208269516</v>
       </c>
       <c r="N99">
         <v>92</v>
       </c>
       <c r="O99">
+        <f t="shared" si="26"/>
+        <v>5736.9831546707492</v>
+      </c>
+      <c r="P99">
         <f t="shared" si="27"/>
-        <v>5736.9831546707492</v>
-      </c>
-      <c r="P99">
-        <f t="shared" si="28"/>
         <v>101</v>
       </c>
       <c r="Q99">
         <v>1</v>
       </c>
       <c r="R99">
+        <f t="shared" si="28"/>
+        <v>12544</v>
+      </c>
+      <c r="U99">
         <f t="shared" si="29"/>
-        <v>12544</v>
-      </c>
-      <c r="U99">
-        <f t="shared" si="30"/>
         <v>18280.98315467075</v>
       </c>
       <c r="W99">
         <v>92</v>
       </c>
       <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-2952.714204411021</v>
+      </c>
+      <c r="Y99">
         <f t="shared" si="31"/>
-        <v>-2952.714204411021</v>
-      </c>
-      <c r="Y99">
-        <f t="shared" si="32"/>
         <v>-1034</v>
       </c>
     </row>
@@ -16021,7 +16127,7 @@
         <v>112</v>
       </c>
       <c r="D100">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.66888888888889E-2</v>
       </c>
       <c r="E100">
@@ -16035,61 +16141,61 @@
         <f t="shared" si="22"/>
         <v>947</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="35">
+        <f t="shared" si="35"/>
+        <v>0.9055185185185185</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="33"/>
+        <v>352.80282242257931</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="23"/>
-        <v>1.3555555555555543E-3</v>
-      </c>
-      <c r="I100">
+        <v>186.66666666666663</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="24"/>
+        <v>1975.6958055664441</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="25"/>
+        <v>17.640141121128966</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="34"/>
-        <v>352.80282242257931</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="24"/>
-        <v>186.66666666666663</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="25"/>
-        <v>1975.6958055664441</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="26"/>
-        <v>17.640141121128966</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="35"/>
         <v>88.200705605644828</v>
       </c>
       <c r="N100">
         <v>93</v>
       </c>
       <c r="O100">
+        <f t="shared" si="26"/>
+        <v>5927.0874166993326</v>
+      </c>
+      <c r="P100">
         <f t="shared" si="27"/>
-        <v>5927.0874166993326</v>
-      </c>
-      <c r="P100">
-        <f t="shared" si="28"/>
         <v>102</v>
       </c>
       <c r="Q100">
         <v>1</v>
       </c>
       <c r="R100">
+        <f t="shared" si="28"/>
+        <v>12769</v>
+      </c>
+      <c r="U100">
         <f t="shared" si="29"/>
-        <v>12769</v>
-      </c>
-      <c r="U100">
-        <f t="shared" si="30"/>
         <v>18696.087416699331</v>
       </c>
       <c r="W100">
         <v>93</v>
       </c>
       <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-2986.0475377443545</v>
+      </c>
+      <c r="Y100">
         <f t="shared" si="31"/>
-        <v>-2986.0475377443545</v>
-      </c>
-      <c r="Y100">
-        <f t="shared" si="32"/>
         <v>-1046</v>
       </c>
     </row>
@@ -16105,7 +16211,7 @@
         <v>113</v>
       </c>
       <c r="D101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.5433333333333348E-2</v>
       </c>
       <c r="E101">
@@ -16119,61 +16225,61 @@
         <f t="shared" si="22"/>
         <v>958</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="35">
+        <f t="shared" si="35"/>
+        <v>0.90761111111111115</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="33"/>
+        <v>360.7937462417317</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="23"/>
-        <v>1.2555555555555514E-3</v>
-      </c>
-      <c r="I101">
+        <v>188.33333333333331</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="24"/>
+        <v>2038.4846662657842</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="25"/>
+        <v>18.039687312086585</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="34"/>
-        <v>360.7937462417317</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="24"/>
-        <v>188.33333333333331</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="25"/>
-        <v>2038.4846662657842</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="26"/>
-        <v>18.039687312086585</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="35"/>
         <v>90.198436560432924</v>
       </c>
       <c r="N101">
         <v>94</v>
       </c>
       <c r="O101">
+        <f t="shared" si="26"/>
+        <v>6115.4539987973521</v>
+      </c>
+      <c r="P101">
         <f t="shared" si="27"/>
-        <v>6115.4539987973521</v>
-      </c>
-      <c r="P101">
-        <f t="shared" si="28"/>
         <v>103</v>
       </c>
       <c r="Q101">
         <v>1</v>
       </c>
       <c r="R101">
+        <f t="shared" si="28"/>
+        <v>12996</v>
+      </c>
+      <c r="U101">
         <f t="shared" si="29"/>
-        <v>12996</v>
-      </c>
-      <c r="U101">
-        <f t="shared" si="30"/>
         <v>19111.453998797351</v>
       </c>
       <c r="W101">
         <v>94</v>
       </c>
       <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-3019.380871077688</v>
+      </c>
+      <c r="Y101">
         <f t="shared" si="31"/>
-        <v>-3019.380871077688</v>
-      </c>
-      <c r="Y101">
-        <f t="shared" si="32"/>
         <v>-1058</v>
       </c>
     </row>
@@ -16189,7 +16295,7 @@
         <v>114</v>
       </c>
       <c r="D102">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.4277777777777786E-2</v>
       </c>
       <c r="E102">
@@ -16203,61 +16309,61 @@
         <f t="shared" si="22"/>
         <v>969</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="35">
+        <f t="shared" si="35"/>
+        <v>0.90953703703703703</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="33"/>
+        <v>368.47492323439093</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="23"/>
-        <v>1.1555555555555624E-3</v>
-      </c>
-      <c r="I102">
+        <v>189.99999999999997</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="24"/>
+        <v>2100.3070624360284</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="25"/>
+        <v>18.423746161719546</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="34"/>
-        <v>368.47492323439093</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="24"/>
-        <v>189.99999999999997</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="25"/>
-        <v>2100.3070624360284</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="26"/>
-        <v>18.423746161719546</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="35"/>
         <v>92.118730808597732</v>
       </c>
       <c r="N102">
         <v>95</v>
       </c>
       <c r="O102">
+        <f t="shared" si="26"/>
+        <v>6300.9211873080849</v>
+      </c>
+      <c r="P102">
         <f t="shared" si="27"/>
-        <v>6300.9211873080849</v>
-      </c>
-      <c r="P102">
-        <f t="shared" si="28"/>
         <v>104</v>
       </c>
       <c r="Q102">
         <v>1</v>
       </c>
       <c r="R102">
+        <f t="shared" si="28"/>
+        <v>13225</v>
+      </c>
+      <c r="U102">
         <f t="shared" si="29"/>
-        <v>13225</v>
-      </c>
-      <c r="U102">
-        <f t="shared" si="30"/>
         <v>19525.921187308086</v>
       </c>
       <c r="W102">
         <v>95</v>
       </c>
       <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-3052.714204411021</v>
+      </c>
+      <c r="Y102">
         <f t="shared" si="31"/>
-        <v>-3052.714204411021</v>
-      </c>
-      <c r="Y102">
-        <f t="shared" si="32"/>
         <v>-1070</v>
       </c>
     </row>
@@ -16273,7 +16379,7 @@
         <v>115</v>
       </c>
       <c r="D103">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.3222222222222233E-2</v>
       </c>
       <c r="E103">
@@ -16287,61 +16393,61 @@
         <f t="shared" si="22"/>
         <v>980</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="35">
+        <f t="shared" si="35"/>
+        <v>0.91129629629629616</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="33"/>
+        <v>375.78288100208761</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="23"/>
-        <v>1.0555555555555526E-3</v>
-      </c>
-      <c r="I103">
+        <v>191.66666666666663</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="24"/>
+        <v>2160.7515657620038</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="25"/>
+        <v>18.78914405010438</v>
+      </c>
+      <c r="M103">
         <f t="shared" si="34"/>
-        <v>375.78288100208761</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="24"/>
-        <v>191.66666666666663</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="25"/>
-        <v>2160.7515657620038</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="26"/>
-        <v>18.78914405010438</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="35"/>
         <v>93.945720250521902</v>
       </c>
       <c r="N103">
         <v>96</v>
       </c>
       <c r="O103">
+        <f t="shared" si="26"/>
+        <v>6482.2546972860109</v>
+      </c>
+      <c r="P103">
         <f t="shared" si="27"/>
-        <v>6482.2546972860109</v>
-      </c>
-      <c r="P103">
-        <f t="shared" si="28"/>
         <v>105</v>
       </c>
       <c r="Q103">
         <v>1</v>
       </c>
       <c r="R103">
+        <f t="shared" si="28"/>
+        <v>13456</v>
+      </c>
+      <c r="U103">
         <f t="shared" si="29"/>
-        <v>13456</v>
-      </c>
-      <c r="U103">
-        <f t="shared" si="30"/>
         <v>19938.254697286011</v>
       </c>
       <c r="W103">
         <v>96</v>
       </c>
       <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-3086.0475377443545</v>
+      </c>
+      <c r="Y103">
         <f t="shared" si="31"/>
-        <v>-3086.0475377443545</v>
-      </c>
-      <c r="Y103">
-        <f t="shared" si="32"/>
         <v>-1082</v>
       </c>
     </row>
@@ -16357,7 +16463,7 @@
         <v>116</v>
       </c>
       <c r="D104">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.2266666666666677E-2</v>
       </c>
       <c r="E104">
@@ -16371,61 +16477,61 @@
         <f t="shared" si="22"/>
         <v>991</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="35">
+        <f t="shared" si="35"/>
+        <v>0.91288888888888886</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="33"/>
+        <v>382.6530612244897</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="23"/>
-        <v>9.5555555555555671E-4</v>
-      </c>
-      <c r="I104">
+        <v>193.33333333333331</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="24"/>
+        <v>2219.3877551020405</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="25"/>
+        <v>19.132653061224485</v>
+      </c>
+      <c r="M104">
         <f t="shared" si="34"/>
-        <v>382.6530612244897</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="24"/>
-        <v>193.33333333333331</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="25"/>
-        <v>2219.3877551020405</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="26"/>
-        <v>19.132653061224485</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="35"/>
         <v>95.663265306122426</v>
       </c>
       <c r="N104">
         <v>97</v>
       </c>
       <c r="O104">
+        <f t="shared" si="26"/>
+        <v>6658.1632653061215</v>
+      </c>
+      <c r="P104">
         <f t="shared" si="27"/>
-        <v>6658.1632653061215</v>
-      </c>
-      <c r="P104">
-        <f t="shared" si="28"/>
         <v>106</v>
       </c>
       <c r="Q104">
         <v>1</v>
       </c>
       <c r="R104">
+        <f t="shared" si="28"/>
+        <v>13689</v>
+      </c>
+      <c r="U104">
         <f t="shared" si="29"/>
-        <v>13689</v>
-      </c>
-      <c r="U104">
-        <f t="shared" si="30"/>
         <v>20347.163265306121</v>
       </c>
       <c r="W104">
         <v>97</v>
       </c>
       <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-3119.3808710776875</v>
+      </c>
+      <c r="Y104">
         <f t="shared" si="31"/>
-        <v>-3119.3808710776875</v>
-      </c>
-      <c r="Y104">
-        <f t="shared" si="32"/>
         <v>-1094</v>
       </c>
     </row>
@@ -16441,7 +16547,7 @@
         <v>117</v>
       </c>
       <c r="D105">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.1411111111111123E-2</v>
       </c>
       <c r="E105">
@@ -16455,61 +16561,61 @@
         <f t="shared" si="22"/>
         <v>1002</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="35">
+        <f t="shared" si="35"/>
+        <v>0.91431481481481491</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="33"/>
+        <v>389.02096390749938</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="23"/>
-        <v>8.5555555555555385E-4</v>
-      </c>
-      <c r="I105">
+        <v>194.99999999999997</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="24"/>
+        <v>2275.7726388588712</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="25"/>
+        <v>19.45104819537497</v>
+      </c>
+      <c r="M105">
         <f t="shared" si="34"/>
-        <v>389.02096390749938</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="24"/>
-        <v>194.99999999999997</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="25"/>
-        <v>2275.7726388588712</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="26"/>
-        <v>19.45104819537497</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="35"/>
         <v>97.255240976874845</v>
       </c>
       <c r="N105">
         <v>98</v>
       </c>
       <c r="O105">
+        <f t="shared" si="26"/>
+        <v>6827.3179165766142</v>
+      </c>
+      <c r="P105">
         <f t="shared" si="27"/>
-        <v>6827.3179165766142</v>
-      </c>
-      <c r="P105">
-        <f t="shared" si="28"/>
         <v>107</v>
       </c>
       <c r="Q105">
         <v>1</v>
       </c>
       <c r="R105">
+        <f t="shared" si="28"/>
+        <v>13924</v>
+      </c>
+      <c r="U105">
         <f t="shared" si="29"/>
-        <v>13924</v>
-      </c>
-      <c r="U105">
-        <f t="shared" si="30"/>
         <v>20751.317916576612</v>
       </c>
       <c r="W105">
         <v>98</v>
       </c>
       <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-3152.714204411021</v>
+      </c>
+      <c r="Y105">
         <f t="shared" si="31"/>
-        <v>-3152.714204411021</v>
-      </c>
-      <c r="Y105">
-        <f t="shared" si="32"/>
         <v>-1106</v>
       </c>
     </row>
@@ -16525,7 +16631,7 @@
         <v>118</v>
       </c>
       <c r="D106">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.0655555555555565E-2</v>
       </c>
       <c r="E106">
@@ -16539,61 +16645,61 @@
         <f t="shared" si="22"/>
         <v>1013</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="35">
+        <f t="shared" si="35"/>
+        <v>0.9155740740740741</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="33"/>
+        <v>394.82342618995386</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="23"/>
-        <v>7.5555555555555792E-4</v>
-      </c>
-      <c r="I106">
+        <v>196.66666666666663</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="24"/>
+        <v>2329.4582145207278</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="25"/>
+        <v>19.741171309497695</v>
+      </c>
+      <c r="M106">
         <f t="shared" si="34"/>
-        <v>394.82342618995386</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="24"/>
-        <v>196.66666666666663</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="25"/>
-        <v>2329.4582145207278</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="26"/>
-        <v>19.741171309497695</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="35"/>
         <v>98.70585654748848</v>
       </c>
       <c r="N106">
         <v>99</v>
       </c>
       <c r="O106">
+        <f t="shared" si="26"/>
+        <v>6988.3746435621833</v>
+      </c>
+      <c r="P106">
         <f t="shared" si="27"/>
-        <v>6988.3746435621833</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="28"/>
         <v>108</v>
       </c>
       <c r="Q106">
         <v>1</v>
       </c>
       <c r="R106">
+        <f t="shared" si="28"/>
+        <v>14161</v>
+      </c>
+      <c r="U106">
         <f t="shared" si="29"/>
-        <v>14161</v>
-      </c>
-      <c r="U106">
-        <f t="shared" si="30"/>
         <v>21149.374643562183</v>
       </c>
       <c r="W106">
         <v>99</v>
       </c>
       <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-3186.0475377443545</v>
+      </c>
+      <c r="Y106">
         <f t="shared" si="31"/>
-        <v>-3186.0475377443545</v>
-      </c>
-      <c r="Y106">
-        <f t="shared" si="32"/>
         <v>-1118</v>
       </c>
     </row>
@@ -16609,7 +16715,7 @@
         <v>119</v>
       </c>
       <c r="D107">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>5.000000000000001E-2</v>
       </c>
       <c r="E107">
@@ -16623,61 +16729,61 @@
         <f t="shared" si="22"/>
         <v>1024</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="35">
+        <f t="shared" si="35"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="33"/>
+        <v>399.99999999999994</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="23"/>
-        <v>6.5555555555555506E-4</v>
-      </c>
-      <c r="I107">
+        <v>198.33333333333331</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="24"/>
+        <v>2379.9999999999995</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="25"/>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="M107">
         <f t="shared" si="34"/>
-        <v>399.99999999999994</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="24"/>
-        <v>198.33333333333331</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="25"/>
-        <v>2379.9999999999995</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="26"/>
-        <v>19.999999999999996</v>
-      </c>
-      <c r="M107">
-        <f t="shared" si="35"/>
         <v>99.999999999999986</v>
       </c>
       <c r="N107">
         <v>100</v>
       </c>
       <c r="O107">
+        <f t="shared" si="26"/>
+        <v>7139.9999999999982</v>
+      </c>
+      <c r="P107">
         <f t="shared" si="27"/>
-        <v>7139.9999999999982</v>
-      </c>
-      <c r="P107">
-        <f t="shared" si="28"/>
         <v>109</v>
       </c>
       <c r="Q107">
         <v>1</v>
       </c>
       <c r="R107">
+        <f t="shared" si="28"/>
+        <v>14400</v>
+      </c>
+      <c r="U107">
         <f t="shared" si="29"/>
-        <v>14400</v>
-      </c>
-      <c r="U107">
-        <f t="shared" si="30"/>
         <v>21540</v>
       </c>
       <c r="W107">
         <v>100</v>
       </c>
       <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-3219.3808710776875</v>
+      </c>
+      <c r="Y107">
         <f t="shared" si="31"/>
-        <v>-3219.3808710776875</v>
-      </c>
-      <c r="Y107">
-        <f t="shared" si="32"/>
         <v>-1130</v>
       </c>
     </row>
@@ -16694,11 +16800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16716,7 +16822,7 @@
         <v>19</v>
       </c>
       <c r="F1">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>31</v>
@@ -16754,6 +16860,7 @@
         <v>20</v>
       </c>
       <c r="F2">
+        <f>F1/C2</f>
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -21786,47 +21893,47 @@
         <v>26.836701388888894</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="32">
+    <row r="107" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26">
         <v>100</v>
       </c>
-      <c r="B107" s="33">
+      <c r="B107" s="27">
         <f t="shared" si="11"/>
         <v>1820</v>
       </c>
-      <c r="C107" s="34">
+      <c r="C107" s="28">
         <f t="shared" si="21"/>
         <v>40414.800000000003</v>
       </c>
-      <c r="D107" s="32">
+      <c r="D107" s="26">
         <f t="shared" si="12"/>
         <v>673.58</v>
       </c>
-      <c r="E107" s="32">
+      <c r="E107" s="26">
         <f t="shared" si="13"/>
         <v>1820</v>
       </c>
-      <c r="G107" s="32">
+      <c r="G107" s="26">
         <f t="shared" si="14"/>
         <v>3712800</v>
       </c>
-      <c r="H107" s="32">
+      <c r="H107" s="26">
         <f t="shared" si="15"/>
         <v>2040</v>
       </c>
-      <c r="I107" s="32">
+      <c r="I107" s="26">
         <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
-      <c r="J107" s="32">
+      <c r="J107" s="26">
         <f t="shared" si="17"/>
         <v>36400</v>
       </c>
-      <c r="K107" s="32">
+      <c r="K107" s="26">
         <f t="shared" si="18"/>
         <v>102</v>
       </c>
-      <c r="L107" s="32">
+      <c r="L107" s="26">
         <f t="shared" si="19"/>
         <v>673.58</v>
       </c>
@@ -23749,5 +23856,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/打怪.xlsx
+++ b/打怪.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF1DF8-73EF-423E-9BFB-545CF554DB16}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7608" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,11 +311,31 @@
     <t>升到该级总时间（天）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应原来等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在战斗力等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -590,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -642,6 +661,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,7 +680,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -680,7 +705,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -726,6 +751,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -963,7 +989,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C682-4F5E-8F13-6CCE8038AD78}"/>
             </c:ext>
@@ -978,11 +1004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-489774800"/>
-        <c:axId val="-326578688"/>
+        <c:axId val="-1452179216"/>
+        <c:axId val="-1452174320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-489774800"/>
+        <c:axId val="-1452179216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1050,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326578688"/>
+        <c:crossAx val="-1452174320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-326578688"/>
+        <c:axId val="-1452174320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1109,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-489774800"/>
+        <c:crossAx val="-1452179216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1133,7 +1159,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1179,6 +1205,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1232,31 +1259,37 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1295,7 +1328,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1625,7 +1658,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
             </c:ext>
@@ -1640,11 +1673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-326576512"/>
-        <c:axId val="-326577056"/>
+        <c:axId val="-1452181936"/>
+        <c:axId val="-1452187920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-326576512"/>
+        <c:axId val="-1452181936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,7 +1720,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326577056"/>
+        <c:crossAx val="-1452187920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1695,7 +1728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-326577056"/>
+        <c:axId val="-1452187920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1779,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326576512"/>
+        <c:crossAx val="-1452181936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1796,7 +1829,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1842,6 +1875,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1905,31 +1939,37 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0B8B-4554-8A34-FCC23104E7CA}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0B8B-4554-8A34-FCC23104E7CA}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1968,7 +2008,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2298,7 +2338,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B8B-4554-8A34-FCC23104E7CA}"/>
             </c:ext>
@@ -2313,11 +2353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-326575968"/>
-        <c:axId val="-326575424"/>
+        <c:axId val="-1452173776"/>
+        <c:axId val="-1452186832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-326575968"/>
+        <c:axId val="-1452173776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326575424"/>
+        <c:crossAx val="-1452186832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2367,7 +2407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-326575424"/>
+        <c:axId val="-1452186832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,7 +2458,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326575968"/>
+        <c:crossAx val="-1452173776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2468,7 +2508,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2514,6 +2554,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2874,7 +2915,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2BF-4068-B7B5-7C12C4D19E94}"/>
             </c:ext>
@@ -2889,11 +2930,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-326574880"/>
-        <c:axId val="-326572704"/>
+        <c:axId val="-1452187376"/>
+        <c:axId val="-1452185200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-326574880"/>
+        <c:axId val="-1452187376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,7 +2976,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326572704"/>
+        <c:crossAx val="-1452185200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2943,7 +2984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-326572704"/>
+        <c:axId val="-1452185200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2994,7 +3035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326574880"/>
+        <c:crossAx val="-1452187376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3044,7 +3085,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3083,6 +3124,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3136,61 +3178,73 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="81"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-BD14-4755-AD40-B0680C15F795}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="87"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-BD14-4755-AD40-B0680C15F795}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="93"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-BD14-4755-AD40-B0680C15F795}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-BD14-4755-AD40-B0680C15F795}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3229,7 +3283,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3559,7 +3613,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BD14-4755-AD40-B0680C15F795}"/>
             </c:ext>
@@ -3574,11 +3628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-326578144"/>
-        <c:axId val="-326577600"/>
+        <c:axId val="-1452181392"/>
+        <c:axId val="-1452186288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-326578144"/>
+        <c:axId val="-1452181392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,7 +3674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326577600"/>
+        <c:crossAx val="-1452186288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3628,7 +3682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-326577600"/>
+        <c:axId val="-1452186288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,7 +3733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326578144"/>
+        <c:crossAx val="-1452181392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3729,7 +3783,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4135,7 +4189,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0EE-4B2F-AF02-7A911D2AD5B2}"/>
             </c:ext>
@@ -4150,11 +4204,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-326574336"/>
-        <c:axId val="-326573792"/>
+        <c:axId val="-1452183568"/>
+        <c:axId val="-1452177584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-326574336"/>
+        <c:axId val="-1452183568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4250,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326573792"/>
+        <c:crossAx val="-1452177584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4204,7 +4258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-326573792"/>
+        <c:axId val="-1452177584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-326574336"/>
+        <c:crossAx val="-1452183568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7660,7 +7714,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7696,7 +7750,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7732,7 +7786,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7768,7 +7822,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7804,7 +7858,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7840,7 +7894,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7862,7 +7916,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7937,23 +7991,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7989,23 +8026,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8181,10 +8201,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -8320,21 +8340,21 @@
     </row>
     <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="16" t="s">
         <v>21</v>
       </c>
@@ -8518,7 +8538,7 @@
         <f t="shared" ref="G9:G67" si="6">E9+C9</f>
         <v>21</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="29">
         <f>(D$8-D9)/D$8</f>
         <v>1.7425925925925918E-2</v>
       </c>
@@ -8599,7 +8619,7 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="29">
         <f t="shared" ref="H10:H73" si="15">(D$8-D10)/D$8</f>
         <v>3.4685185185185187E-2</v>
       </c>
@@ -8680,7 +8700,7 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="29">
         <f t="shared" si="15"/>
         <v>5.1777777777777804E-2</v>
       </c>
@@ -8761,7 +8781,7 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="29">
         <f t="shared" si="15"/>
         <v>6.8703703703703781E-2</v>
       </c>
@@ -8842,7 +8862,7 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="29">
         <f t="shared" si="15"/>
         <v>8.5462962962963102E-2</v>
       </c>
@@ -8923,7 +8943,7 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="29">
         <f t="shared" si="15"/>
         <v>0.10205555555555559</v>
       </c>
@@ -9004,7 +9024,7 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="29">
         <f t="shared" si="15"/>
         <v>0.11848148148148142</v>
       </c>
@@ -9085,7 +9105,7 @@
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="29">
         <f t="shared" si="15"/>
         <v>0.1347407407407408</v>
       </c>
@@ -9169,7 +9189,7 @@
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="29">
         <f t="shared" si="15"/>
         <v>0.15083333333333335</v>
       </c>
@@ -9253,7 +9273,7 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="29">
         <f t="shared" si="15"/>
         <v>0.16675925925925925</v>
       </c>
@@ -9337,7 +9357,7 @@
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="29">
         <f t="shared" si="15"/>
         <v>0.18251851851851858</v>
       </c>
@@ -9421,7 +9441,7 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="29">
         <f t="shared" si="15"/>
         <v>0.19811111111111118</v>
       </c>
@@ -9505,7 +9525,7 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="29">
         <f t="shared" si="15"/>
         <v>0.21353703703703714</v>
       </c>
@@ -9589,7 +9609,7 @@
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="29">
         <f t="shared" si="15"/>
         <v>0.22879629629629636</v>
       </c>
@@ -9673,7 +9693,7 @@
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="29">
         <f t="shared" si="15"/>
         <v>0.24388888888888891</v>
       </c>
@@ -9757,7 +9777,7 @@
         <f t="shared" si="6"/>
         <v>111</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="29">
         <f t="shared" si="15"/>
         <v>0.25881481481481483</v>
       </c>
@@ -9841,7 +9861,7 @@
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="29">
         <f t="shared" si="15"/>
         <v>0.27357407407407408</v>
       </c>
@@ -9925,7 +9945,7 @@
         <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="29">
         <f t="shared" si="15"/>
         <v>0.28816666666666663</v>
       </c>
@@ -10009,7 +10029,7 @@
         <f t="shared" si="6"/>
         <v>144</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="29">
         <f t="shared" si="15"/>
         <v>0.30259259259259258</v>
       </c>
@@ -10093,7 +10113,7 @@
         <f t="shared" si="6"/>
         <v>155</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="29">
         <f t="shared" si="15"/>
         <v>0.31685185185185188</v>
       </c>
@@ -10177,7 +10197,7 @@
         <f t="shared" si="6"/>
         <v>166</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="29">
         <f t="shared" si="15"/>
         <v>0.33094444444444449</v>
       </c>
@@ -10261,7 +10281,7 @@
         <f t="shared" si="6"/>
         <v>177</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="29">
         <f t="shared" si="15"/>
         <v>0.34487037037037033</v>
       </c>
@@ -10345,7 +10365,7 @@
         <f t="shared" si="6"/>
         <v>188</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="29">
         <f t="shared" si="15"/>
         <v>0.35862962962962963</v>
       </c>
@@ -10429,7 +10449,7 @@
         <f t="shared" si="6"/>
         <v>199</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="29">
         <f t="shared" si="15"/>
         <v>0.37222222222222223</v>
       </c>
@@ -10513,7 +10533,7 @@
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="29">
         <f t="shared" si="15"/>
         <v>0.38564814814814813</v>
       </c>
@@ -10597,7 +10617,7 @@
         <f t="shared" si="6"/>
         <v>221</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="29">
         <f t="shared" si="15"/>
         <v>0.39890740740740749</v>
       </c>
@@ -10681,7 +10701,7 @@
         <f t="shared" si="6"/>
         <v>232</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="29">
         <f t="shared" si="15"/>
         <v>0.41199999999999998</v>
       </c>
@@ -10765,7 +10785,7 @@
         <f t="shared" si="6"/>
         <v>243</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="29">
         <f t="shared" si="15"/>
         <v>0.42492592592592593</v>
       </c>
@@ -10849,7 +10869,7 @@
         <f t="shared" si="6"/>
         <v>254</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="29">
         <f t="shared" si="15"/>
         <v>0.43768518518518512</v>
       </c>
@@ -10933,7 +10953,7 @@
         <f t="shared" si="6"/>
         <v>265</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="29">
         <f t="shared" si="15"/>
         <v>0.45027777777777778</v>
       </c>
@@ -11017,7 +11037,7 @@
         <f t="shared" si="6"/>
         <v>276</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="29">
         <f t="shared" si="15"/>
         <v>0.46270370370370362</v>
       </c>
@@ -11101,7 +11121,7 @@
         <f t="shared" si="6"/>
         <v>287</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="29">
         <f t="shared" si="15"/>
         <v>0.47496296296296298</v>
       </c>
@@ -11185,7 +11205,7 @@
         <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="29">
         <f t="shared" si="15"/>
         <v>0.48705555555555557</v>
       </c>
@@ -11269,7 +11289,7 @@
         <f t="shared" si="6"/>
         <v>309</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="29">
         <f t="shared" si="15"/>
         <v>0.49898148148148147</v>
       </c>
@@ -11353,7 +11373,7 @@
         <f t="shared" si="6"/>
         <v>320</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="29">
         <f t="shared" si="15"/>
         <v>0.51074074074074083</v>
       </c>
@@ -11437,7 +11457,7 @@
         <f t="shared" si="6"/>
         <v>331</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="29">
         <f t="shared" si="15"/>
         <v>0.52233333333333332</v>
       </c>
@@ -11521,7 +11541,7 @@
         <f t="shared" si="6"/>
         <v>342</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="29">
         <f t="shared" si="15"/>
         <v>0.53375925925925927</v>
       </c>
@@ -11605,7 +11625,7 @@
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="29">
         <f t="shared" si="15"/>
         <v>0.54501851851851857</v>
       </c>
@@ -11689,7 +11709,7 @@
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H47" s="29">
         <f t="shared" si="15"/>
         <v>0.55611111111111111</v>
       </c>
@@ -11773,7 +11793,7 @@
         <f t="shared" si="6"/>
         <v>375</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="29">
         <f t="shared" si="15"/>
         <v>0.56703703703703712</v>
       </c>
@@ -11857,7 +11877,7 @@
         <f t="shared" si="6"/>
         <v>386</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H49" s="29">
         <f t="shared" si="15"/>
         <v>0.57779629629629625</v>
       </c>
@@ -11941,7 +11961,7 @@
         <f t="shared" si="6"/>
         <v>397</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="29">
         <f t="shared" si="15"/>
         <v>0.58838888888888885</v>
       </c>
@@ -12025,7 +12045,7 @@
         <f t="shared" si="6"/>
         <v>408</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="29">
         <f t="shared" si="15"/>
         <v>0.5988148148148148</v>
       </c>
@@ -12109,7 +12129,7 @@
         <f t="shared" si="6"/>
         <v>419</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="29">
         <f t="shared" si="15"/>
         <v>0.6090740740740741</v>
       </c>
@@ -12193,7 +12213,7 @@
         <f t="shared" si="6"/>
         <v>430</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="29">
         <f t="shared" si="15"/>
         <v>0.61916666666666664</v>
       </c>
@@ -12277,7 +12297,7 @@
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="H54" s="35">
+      <c r="H54" s="29">
         <f t="shared" si="15"/>
         <v>0.62909259259259254</v>
       </c>
@@ -12361,7 +12381,7 @@
         <f t="shared" si="6"/>
         <v>452</v>
       </c>
-      <c r="H55" s="35">
+      <c r="H55" s="29">
         <f t="shared" si="15"/>
         <v>0.63885185185185178</v>
       </c>
@@ -12445,7 +12465,7 @@
         <f t="shared" si="6"/>
         <v>463</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="29">
         <f t="shared" si="15"/>
         <v>0.64844444444444449</v>
       </c>
@@ -12529,7 +12549,7 @@
         <f t="shared" si="6"/>
         <v>474</v>
       </c>
-      <c r="H57" s="35">
+      <c r="H57" s="29">
         <f t="shared" si="15"/>
         <v>0.65787037037037044</v>
       </c>
@@ -12613,7 +12633,7 @@
         <f t="shared" si="6"/>
         <v>485</v>
       </c>
-      <c r="H58" s="35">
+      <c r="H58" s="29">
         <f t="shared" si="15"/>
         <v>0.66712962962962963</v>
       </c>
@@ -12697,7 +12717,7 @@
         <f t="shared" si="6"/>
         <v>496</v>
       </c>
-      <c r="H59" s="35">
+      <c r="H59" s="29">
         <f t="shared" si="15"/>
         <v>0.67622222222222217</v>
       </c>
@@ -12781,7 +12801,7 @@
         <f t="shared" si="6"/>
         <v>507</v>
       </c>
-      <c r="H60" s="35">
+      <c r="H60" s="29">
         <f t="shared" si="15"/>
         <v>0.68514814814814817</v>
       </c>
@@ -12865,7 +12885,7 @@
         <f t="shared" si="6"/>
         <v>518</v>
       </c>
-      <c r="H61" s="35">
+      <c r="H61" s="29">
         <f t="shared" si="15"/>
         <v>0.69390740740740742</v>
       </c>
@@ -12949,7 +12969,7 @@
         <f t="shared" si="6"/>
         <v>529</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="29">
         <f t="shared" si="15"/>
         <v>0.70250000000000001</v>
       </c>
@@ -13033,7 +13053,7 @@
         <f t="shared" si="6"/>
         <v>540</v>
       </c>
-      <c r="H63" s="35">
+      <c r="H63" s="29">
         <f t="shared" si="15"/>
         <v>0.71092592592592596</v>
       </c>
@@ -13117,7 +13137,7 @@
         <f t="shared" si="6"/>
         <v>551</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="29">
         <f t="shared" si="15"/>
         <v>0.71918518518518515</v>
       </c>
@@ -13201,7 +13221,7 @@
         <f t="shared" si="6"/>
         <v>562</v>
       </c>
-      <c r="H65" s="35">
+      <c r="H65" s="29">
         <f t="shared" si="15"/>
         <v>0.7272777777777778</v>
       </c>
@@ -13285,7 +13305,7 @@
         <f t="shared" si="6"/>
         <v>573</v>
       </c>
-      <c r="H66" s="35">
+      <c r="H66" s="29">
         <f t="shared" si="15"/>
         <v>0.73520370370370369</v>
       </c>
@@ -13369,7 +13389,7 @@
         <f t="shared" si="6"/>
         <v>584</v>
       </c>
-      <c r="H67" s="35">
+      <c r="H67" s="29">
         <f t="shared" si="15"/>
         <v>0.74296296296296294</v>
       </c>
@@ -13453,7 +13473,7 @@
         <f t="shared" ref="G68:G107" si="22">E68+C68</f>
         <v>595</v>
       </c>
-      <c r="H68" s="35">
+      <c r="H68" s="29">
         <f t="shared" si="15"/>
         <v>0.75055555555555553</v>
       </c>
@@ -13537,7 +13557,7 @@
         <f t="shared" si="22"/>
         <v>606</v>
       </c>
-      <c r="H69" s="35">
+      <c r="H69" s="29">
         <f t="shared" si="15"/>
         <v>0.75798148148148148</v>
       </c>
@@ -13621,7 +13641,7 @@
         <f t="shared" si="22"/>
         <v>617</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="29">
         <f t="shared" si="15"/>
         <v>0.76524074074074078</v>
       </c>
@@ -13705,7 +13725,7 @@
         <f t="shared" si="22"/>
         <v>628</v>
       </c>
-      <c r="H71" s="35">
+      <c r="H71" s="29">
         <f t="shared" si="15"/>
         <v>0.77233333333333332</v>
       </c>
@@ -13789,7 +13809,7 @@
         <f t="shared" si="22"/>
         <v>639</v>
       </c>
-      <c r="H72" s="35">
+      <c r="H72" s="29">
         <f t="shared" si="15"/>
         <v>0.77925925925925921</v>
       </c>
@@ -13873,7 +13893,7 @@
         <f t="shared" si="22"/>
         <v>650</v>
       </c>
-      <c r="H73" s="35">
+      <c r="H73" s="29">
         <f t="shared" si="15"/>
         <v>0.78601851851851856</v>
       </c>
@@ -13957,7 +13977,7 @@
         <f t="shared" si="22"/>
         <v>661</v>
       </c>
-      <c r="H74" s="35">
+      <c r="H74" s="29">
         <f t="shared" ref="H74:H107" si="35">(D$8-D74)/D$8</f>
         <v>0.79261111111111116</v>
       </c>
@@ -14041,7 +14061,7 @@
         <f t="shared" si="22"/>
         <v>672</v>
       </c>
-      <c r="H75" s="35">
+      <c r="H75" s="29">
         <f t="shared" si="35"/>
         <v>0.7990370370370371</v>
       </c>
@@ -14125,7 +14145,7 @@
         <f t="shared" si="22"/>
         <v>683</v>
       </c>
-      <c r="H76" s="35">
+      <c r="H76" s="29">
         <f t="shared" si="35"/>
         <v>0.80529629629629629</v>
       </c>
@@ -14209,7 +14229,7 @@
         <f t="shared" si="22"/>
         <v>694</v>
       </c>
-      <c r="H77" s="35">
+      <c r="H77" s="29">
         <f t="shared" si="35"/>
         <v>0.81138888888888883</v>
       </c>
@@ -14293,7 +14313,7 @@
         <f t="shared" si="22"/>
         <v>705</v>
       </c>
-      <c r="H78" s="35">
+      <c r="H78" s="29">
         <f t="shared" si="35"/>
         <v>0.81731481481481483</v>
       </c>
@@ -14377,7 +14397,7 @@
         <f t="shared" si="22"/>
         <v>716</v>
       </c>
-      <c r="H79" s="35">
+      <c r="H79" s="29">
         <f t="shared" si="35"/>
         <v>0.82307407407407407</v>
       </c>
@@ -14461,7 +14481,7 @@
         <f t="shared" si="22"/>
         <v>727</v>
       </c>
-      <c r="H80" s="35">
+      <c r="H80" s="29">
         <f t="shared" si="35"/>
         <v>0.82866666666666666</v>
       </c>
@@ -14545,7 +14565,7 @@
         <f t="shared" si="22"/>
         <v>738</v>
       </c>
-      <c r="H81" s="35">
+      <c r="H81" s="29">
         <f t="shared" si="35"/>
         <v>0.83409259259259261</v>
       </c>
@@ -14629,7 +14649,7 @@
         <f t="shared" si="22"/>
         <v>749</v>
       </c>
-      <c r="H82" s="35">
+      <c r="H82" s="29">
         <f t="shared" si="35"/>
         <v>0.8393518518518519</v>
       </c>
@@ -14713,7 +14733,7 @@
         <f t="shared" si="22"/>
         <v>760</v>
       </c>
-      <c r="H83" s="35">
+      <c r="H83" s="29">
         <f t="shared" si="35"/>
         <v>0.84444444444444444</v>
       </c>
@@ -14797,7 +14817,7 @@
         <f t="shared" si="22"/>
         <v>771</v>
       </c>
-      <c r="H84" s="35">
+      <c r="H84" s="29">
         <f t="shared" si="35"/>
         <v>0.84937037037037044</v>
       </c>
@@ -14881,7 +14901,7 @@
         <f t="shared" si="22"/>
         <v>782</v>
       </c>
-      <c r="H85" s="35">
+      <c r="H85" s="29">
         <f t="shared" si="35"/>
         <v>0.85412962962962957</v>
       </c>
@@ -14965,7 +14985,7 @@
         <f t="shared" si="22"/>
         <v>793</v>
       </c>
-      <c r="H86" s="35">
+      <c r="H86" s="29">
         <f t="shared" si="35"/>
         <v>0.85872222222222228</v>
       </c>
@@ -15049,7 +15069,7 @@
         <f t="shared" si="22"/>
         <v>804</v>
       </c>
-      <c r="H87" s="35">
+      <c r="H87" s="29">
         <f t="shared" si="35"/>
         <v>0.86314814814814811</v>
       </c>
@@ -15133,7 +15153,7 @@
         <f t="shared" si="22"/>
         <v>815</v>
       </c>
-      <c r="H88" s="35">
+      <c r="H88" s="29">
         <f t="shared" si="35"/>
         <v>0.8674074074074074</v>
       </c>
@@ -15217,7 +15237,7 @@
         <f t="shared" si="22"/>
         <v>826</v>
       </c>
-      <c r="H89" s="35">
+      <c r="H89" s="29">
         <f t="shared" si="35"/>
         <v>0.87149999999999994</v>
       </c>
@@ -15301,7 +15321,7 @@
         <f t="shared" si="22"/>
         <v>837</v>
       </c>
-      <c r="H90" s="35">
+      <c r="H90" s="29">
         <f t="shared" si="35"/>
         <v>0.87542592592592583</v>
       </c>
@@ -15385,7 +15405,7 @@
         <f t="shared" si="22"/>
         <v>848</v>
       </c>
-      <c r="H91" s="35">
+      <c r="H91" s="29">
         <f t="shared" si="35"/>
         <v>0.87918518518518507</v>
       </c>
@@ -15469,7 +15489,7 @@
         <f t="shared" si="22"/>
         <v>859</v>
       </c>
-      <c r="H92" s="35">
+      <c r="H92" s="29">
         <f t="shared" si="35"/>
         <v>0.88277777777777777</v>
       </c>
@@ -15553,7 +15573,7 @@
         <f t="shared" si="22"/>
         <v>870</v>
       </c>
-      <c r="H93" s="35">
+      <c r="H93" s="29">
         <f t="shared" si="35"/>
         <v>0.88620370370370372</v>
       </c>
@@ -15637,7 +15657,7 @@
         <f t="shared" si="22"/>
         <v>881</v>
       </c>
-      <c r="H94" s="35">
+      <c r="H94" s="29">
         <f t="shared" si="35"/>
         <v>0.8894629629629629</v>
       </c>
@@ -15721,7 +15741,7 @@
         <f t="shared" si="22"/>
         <v>892</v>
       </c>
-      <c r="H95" s="35">
+      <c r="H95" s="29">
         <f t="shared" si="35"/>
         <v>0.89255555555555555</v>
       </c>
@@ -15805,7 +15825,7 @@
         <f t="shared" si="22"/>
         <v>903</v>
       </c>
-      <c r="H96" s="35">
+      <c r="H96" s="29">
         <f t="shared" si="35"/>
         <v>0.89548148148148143</v>
       </c>
@@ -15889,7 +15909,7 @@
         <f t="shared" si="22"/>
         <v>914</v>
       </c>
-      <c r="H97" s="35">
+      <c r="H97" s="29">
         <f t="shared" si="35"/>
         <v>0.89824074074074078</v>
       </c>
@@ -15973,7 +15993,7 @@
         <f t="shared" si="22"/>
         <v>925</v>
       </c>
-      <c r="H98" s="35">
+      <c r="H98" s="29">
         <f t="shared" si="35"/>
         <v>0.90083333333333337</v>
       </c>
@@ -16057,7 +16077,7 @@
         <f t="shared" si="22"/>
         <v>936</v>
       </c>
-      <c r="H99" s="35">
+      <c r="H99" s="29">
         <f t="shared" si="35"/>
         <v>0.90325925925925921</v>
       </c>
@@ -16141,7 +16161,7 @@
         <f t="shared" si="22"/>
         <v>947</v>
       </c>
-      <c r="H100" s="35">
+      <c r="H100" s="29">
         <f t="shared" si="35"/>
         <v>0.9055185185185185</v>
       </c>
@@ -16225,7 +16245,7 @@
         <f t="shared" si="22"/>
         <v>958</v>
       </c>
-      <c r="H101" s="35">
+      <c r="H101" s="29">
         <f t="shared" si="35"/>
         <v>0.90761111111111115</v>
       </c>
@@ -16309,7 +16329,7 @@
         <f t="shared" si="22"/>
         <v>969</v>
       </c>
-      <c r="H102" s="35">
+      <c r="H102" s="29">
         <f t="shared" si="35"/>
         <v>0.90953703703703703</v>
       </c>
@@ -16393,7 +16413,7 @@
         <f t="shared" si="22"/>
         <v>980</v>
       </c>
-      <c r="H103" s="35">
+      <c r="H103" s="29">
         <f t="shared" si="35"/>
         <v>0.91129629629629616</v>
       </c>
@@ -16477,7 +16497,7 @@
         <f t="shared" si="22"/>
         <v>991</v>
       </c>
-      <c r="H104" s="35">
+      <c r="H104" s="29">
         <f t="shared" si="35"/>
         <v>0.91288888888888886</v>
       </c>
@@ -16561,7 +16581,7 @@
         <f t="shared" si="22"/>
         <v>1002</v>
       </c>
-      <c r="H105" s="35">
+      <c r="H105" s="29">
         <f t="shared" si="35"/>
         <v>0.91431481481481491</v>
       </c>
@@ -16645,7 +16665,7 @@
         <f t="shared" si="22"/>
         <v>1013</v>
       </c>
-      <c r="H106" s="35">
+      <c r="H106" s="29">
         <f t="shared" si="35"/>
         <v>0.9155740740740741</v>
       </c>
@@ -16729,7 +16749,7 @@
         <f t="shared" si="22"/>
         <v>1024</v>
       </c>
-      <c r="H107" s="35">
+      <c r="H107" s="29">
         <f t="shared" si="35"/>
         <v>0.91666666666666663</v>
       </c>
@@ -16800,11 +16820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y310"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16812,9 +16832,11 @@
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>6</v>
       </c>
@@ -16849,7 +16871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -16888,7 +16910,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -16920,7 +16942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>55</v>
       </c>
@@ -16956,7 +16978,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>54</v>
       </c>
@@ -16991,7 +17013,7 @@
         <v>-710</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M6" s="21">
         <v>0.68</v>
       </c>
@@ -17002,7 +17024,7 @@
         <v>-6950</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>39</v>
       </c>
@@ -17042,8 +17064,23 @@
       <c r="M7" s="20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -17090,8 +17127,23 @@
         <f>L8/24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -17139,8 +17191,23 @@
         <f t="shared" ref="M9:M72" si="9">L9/24</f>
         <v>9.722222222222223E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -17188,8 +17255,23 @@
         <f t="shared" si="9"/>
         <v>2.1944444444444446E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -17237,8 +17319,23 @@
         <f t="shared" si="9"/>
         <v>3.6944444444444446E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -17286,8 +17383,23 @@
         <f t="shared" si="9"/>
         <v>5.5000000000000005E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -17335,8 +17447,23 @@
         <f t="shared" si="9"/>
         <v>7.6388888888888886E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>18</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -17384,8 +17511,23 @@
         <f t="shared" si="9"/>
         <v>1.0138888888888888E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <v>21</v>
+      </c>
+      <c r="W14">
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -17433,8 +17575,23 @@
         <f t="shared" si="9"/>
         <v>1.3027777777777777E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>24</v>
+      </c>
+      <c r="W15">
+        <v>8</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -17482,8 +17639,23 @@
         <f t="shared" si="9"/>
         <v>1.6333333333333332E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="V16">
+        <v>27</v>
+      </c>
+      <c r="W16">
+        <v>9</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+      <c r="Y16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -17531,8 +17703,23 @@
         <f t="shared" si="9"/>
         <v>2.0083333333333332E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>30</v>
+      </c>
+      <c r="W17">
+        <v>10</v>
+      </c>
+      <c r="X17">
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -17580,8 +17767,23 @@
         <f t="shared" si="9"/>
         <v>2.4305555555555552E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>11</v>
+      </c>
+      <c r="V18">
+        <v>33</v>
+      </c>
+      <c r="W18">
+        <v>11</v>
+      </c>
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -17629,8 +17831,23 @@
         <f t="shared" si="9"/>
         <v>2.9027777777777774E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>12</v>
+      </c>
+      <c r="V19">
+        <v>36</v>
+      </c>
+      <c r="W19">
+        <v>12</v>
+      </c>
+      <c r="X19">
+        <v>11</v>
+      </c>
+      <c r="Y19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -17678,8 +17895,23 @@
         <f t="shared" si="9"/>
         <v>3.4277777777777775E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>13</v>
+      </c>
+      <c r="V20">
+        <v>39</v>
+      </c>
+      <c r="W20">
+        <v>13</v>
+      </c>
+      <c r="X20">
+        <v>12</v>
+      </c>
+      <c r="Y20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -17727,8 +17959,23 @@
         <f t="shared" si="9"/>
         <v>4.0083333333333325E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>14</v>
+      </c>
+      <c r="V21">
+        <v>42</v>
+      </c>
+      <c r="W21">
+        <v>14</v>
+      </c>
+      <c r="X21">
+        <v>13</v>
+      </c>
+      <c r="Y21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -17776,8 +18023,23 @@
         <f t="shared" si="9"/>
         <v>4.6472222222222213E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>15</v>
+      </c>
+      <c r="V22">
+        <v>45</v>
+      </c>
+      <c r="W22">
+        <v>15</v>
+      </c>
+      <c r="X22">
+        <v>14</v>
+      </c>
+      <c r="Y22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -17825,8 +18087,23 @@
         <f t="shared" si="9"/>
         <v>5.3472222222222206E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>16</v>
+      </c>
+      <c r="V23">
+        <v>48</v>
+      </c>
+      <c r="W23">
+        <v>16</v>
+      </c>
+      <c r="X23">
+        <v>15</v>
+      </c>
+      <c r="Y23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
@@ -17874,8 +18151,23 @@
         <f t="shared" si="9"/>
         <v>6.1111111111111095E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>17</v>
+      </c>
+      <c r="V24">
+        <v>51</v>
+      </c>
+      <c r="W24">
+        <v>17</v>
+      </c>
+      <c r="X24">
+        <v>16</v>
+      </c>
+      <c r="Y24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -17923,8 +18215,23 @@
         <f t="shared" si="9"/>
         <v>6.9416666666666654E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>18</v>
+      </c>
+      <c r="V25">
+        <v>54</v>
+      </c>
+      <c r="W25">
+        <v>18</v>
+      </c>
+      <c r="X25">
+        <v>17</v>
+      </c>
+      <c r="Y25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -17972,8 +18279,23 @@
         <f t="shared" si="9"/>
         <v>7.8416666666666648E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>19</v>
+      </c>
+      <c r="V26">
+        <v>57</v>
+      </c>
+      <c r="W26">
+        <v>19</v>
+      </c>
+      <c r="X26">
+        <v>18</v>
+      </c>
+      <c r="Y26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -18021,8 +18343,23 @@
         <f t="shared" si="9"/>
         <v>8.8138888888888878E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>20</v>
+      </c>
+      <c r="V27">
+        <v>60</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>19</v>
+      </c>
+      <c r="Y27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
@@ -18070,8 +18407,23 @@
         <f t="shared" si="9"/>
         <v>9.8611111111111094E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>21</v>
+      </c>
+      <c r="V28">
+        <v>63</v>
+      </c>
+      <c r="W28">
+        <v>21</v>
+      </c>
+      <c r="X28">
+        <v>20</v>
+      </c>
+      <c r="Y28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22</v>
       </c>
@@ -18119,8 +18471,23 @@
         <f t="shared" si="9"/>
         <v>0.10986111111111109</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>22</v>
+      </c>
+      <c r="V29">
+        <v>66</v>
+      </c>
+      <c r="W29">
+        <v>22</v>
+      </c>
+      <c r="X29">
+        <v>21</v>
+      </c>
+      <c r="Y29">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>23</v>
       </c>
@@ -18168,8 +18535,23 @@
         <f t="shared" si="9"/>
         <v>0.12191666666666667</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>23</v>
+      </c>
+      <c r="V30">
+        <v>69</v>
+      </c>
+      <c r="W30">
+        <v>23</v>
+      </c>
+      <c r="X30">
+        <v>22</v>
+      </c>
+      <c r="Y30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
@@ -18217,8 +18599,23 @@
         <f t="shared" si="9"/>
         <v>0.13480555555555557</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>24</v>
+      </c>
+      <c r="V31">
+        <v>72</v>
+      </c>
+      <c r="W31">
+        <v>24</v>
+      </c>
+      <c r="X31">
+        <v>23</v>
+      </c>
+      <c r="Y31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25</v>
       </c>
@@ -18266,8 +18663,23 @@
         <f t="shared" si="9"/>
         <v>0.14855555555555558</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>25</v>
+      </c>
+      <c r="V32">
+        <v>75</v>
+      </c>
+      <c r="W32">
+        <v>25</v>
+      </c>
+      <c r="X32">
+        <v>24</v>
+      </c>
+      <c r="Y32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
@@ -18315,8 +18727,23 @@
         <f t="shared" si="9"/>
         <v>0.16319444444444445</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>26</v>
+      </c>
+      <c r="V33">
+        <v>78</v>
+      </c>
+      <c r="W33">
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <v>25</v>
+      </c>
+      <c r="Y33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
@@ -18364,8 +18791,23 @@
         <f t="shared" si="9"/>
         <v>0.17874999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>27</v>
+      </c>
+      <c r="V34">
+        <v>81</v>
+      </c>
+      <c r="W34">
+        <v>27</v>
+      </c>
+      <c r="X34">
+        <v>26</v>
+      </c>
+      <c r="Y34">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
@@ -18413,8 +18855,23 @@
         <f t="shared" si="9"/>
         <v>0.19524999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>28</v>
+      </c>
+      <c r="V35">
+        <v>84</v>
+      </c>
+      <c r="W35">
+        <v>28</v>
+      </c>
+      <c r="X35">
+        <v>27</v>
+      </c>
+      <c r="Y35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>29</v>
       </c>
@@ -18462,8 +18919,23 @@
         <f t="shared" si="9"/>
         <v>0.21272222222222217</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>29</v>
+      </c>
+      <c r="V36">
+        <v>87</v>
+      </c>
+      <c r="W36">
+        <v>29</v>
+      </c>
+      <c r="X36">
+        <v>28</v>
+      </c>
+      <c r="Y36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
       </c>
@@ -18511,8 +18983,23 @@
         <f t="shared" si="9"/>
         <v>0.2311944444444444</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>30</v>
+      </c>
+      <c r="V37">
+        <v>90</v>
+      </c>
+      <c r="W37">
+        <v>30</v>
+      </c>
+      <c r="X37">
+        <v>29</v>
+      </c>
+      <c r="Y37">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>31</v>
       </c>
@@ -18560,8 +19047,23 @@
         <f t="shared" si="9"/>
         <v>0.25069444444444439</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>31</v>
+      </c>
+      <c r="V38">
+        <v>93</v>
+      </c>
+      <c r="W38">
+        <v>31</v>
+      </c>
+      <c r="X38">
+        <v>30</v>
+      </c>
+      <c r="Y38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
@@ -18609,8 +19111,23 @@
         <f t="shared" si="9"/>
         <v>0.2737916666666666</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>32</v>
+      </c>
+      <c r="V39">
+        <v>96</v>
+      </c>
+      <c r="W39">
+        <v>32</v>
+      </c>
+      <c r="X39">
+        <v>31</v>
+      </c>
+      <c r="Y39">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>33</v>
       </c>
@@ -18658,8 +19175,23 @@
         <f t="shared" si="9"/>
         <v>0.29958333333333326</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>33</v>
+      </c>
+      <c r="V40">
+        <v>99</v>
+      </c>
+      <c r="W40">
+        <v>33</v>
+      </c>
+      <c r="X40">
+        <v>32</v>
+      </c>
+      <c r="Y40">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34</v>
       </c>
@@ -18707,8 +19239,23 @@
         <f t="shared" si="9"/>
         <v>0.32815277777777768</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>34</v>
+      </c>
+      <c r="V41">
+        <v>102</v>
+      </c>
+      <c r="W41">
+        <v>34</v>
+      </c>
+      <c r="X41">
+        <v>33</v>
+      </c>
+      <c r="Y41">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>35</v>
       </c>
@@ -18756,8 +19303,23 @@
         <f t="shared" si="9"/>
         <v>0.35958333333333331</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>35</v>
+      </c>
+      <c r="V42">
+        <v>105</v>
+      </c>
+      <c r="W42">
+        <v>35</v>
+      </c>
+      <c r="X42">
+        <v>34</v>
+      </c>
+      <c r="Y42">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
@@ -18805,8 +19367,23 @@
         <f t="shared" si="9"/>
         <v>0.39395833333333335</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>36</v>
+      </c>
+      <c r="V43">
+        <v>108</v>
+      </c>
+      <c r="W43">
+        <v>36</v>
+      </c>
+      <c r="X43">
+        <v>35</v>
+      </c>
+      <c r="Y43">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
@@ -18854,8 +19431,23 @@
         <f t="shared" si="9"/>
         <v>0.43136111111111108</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>37</v>
+      </c>
+      <c r="V44">
+        <v>111</v>
+      </c>
+      <c r="W44">
+        <v>37</v>
+      </c>
+      <c r="X44">
+        <v>36</v>
+      </c>
+      <c r="Y44">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>38</v>
       </c>
@@ -18903,8 +19495,23 @@
         <f t="shared" si="9"/>
         <v>0.47187499999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>38</v>
+      </c>
+      <c r="V45">
+        <v>114</v>
+      </c>
+      <c r="W45">
+        <v>38</v>
+      </c>
+      <c r="X45">
+        <v>37</v>
+      </c>
+      <c r="Y45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>39</v>
       </c>
@@ -18952,8 +19559,23 @@
         <f t="shared" si="9"/>
         <v>0.51558333333333339</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>39</v>
+      </c>
+      <c r="V46">
+        <v>117</v>
+      </c>
+      <c r="W46">
+        <v>39</v>
+      </c>
+      <c r="X46">
+        <v>38</v>
+      </c>
+      <c r="Y46">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>40</v>
       </c>
@@ -19001,8 +19623,23 @@
         <f t="shared" si="9"/>
         <v>0.56256944444444446</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>40</v>
+      </c>
+      <c r="V47">
+        <v>120</v>
+      </c>
+      <c r="W47">
+        <v>40</v>
+      </c>
+      <c r="X47">
+        <v>39</v>
+      </c>
+      <c r="Y47">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41</v>
       </c>
@@ -19050,8 +19687,23 @@
         <f t="shared" si="9"/>
         <v>0.61291666666666667</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>41</v>
+      </c>
+      <c r="V48">
+        <v>123</v>
+      </c>
+      <c r="W48">
+        <v>41</v>
+      </c>
+      <c r="X48">
+        <v>40</v>
+      </c>
+      <c r="Y48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42</v>
       </c>
@@ -19099,8 +19751,23 @@
         <f t="shared" si="9"/>
         <v>0.66670833333333335</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>42</v>
+      </c>
+      <c r="V49">
+        <v>126</v>
+      </c>
+      <c r="W49">
+        <v>42</v>
+      </c>
+      <c r="X49">
+        <v>41</v>
+      </c>
+      <c r="Y49">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
@@ -19148,8 +19815,23 @@
         <f t="shared" si="9"/>
         <v>0.72402777777777783</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>43</v>
+      </c>
+      <c r="V50">
+        <v>129</v>
+      </c>
+      <c r="W50">
+        <v>43</v>
+      </c>
+      <c r="X50">
+        <v>42</v>
+      </c>
+      <c r="Y50">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44</v>
       </c>
@@ -19197,8 +19879,23 @@
         <f t="shared" si="9"/>
         <v>0.78495833333333342</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>44</v>
+      </c>
+      <c r="V51">
+        <v>132</v>
+      </c>
+      <c r="W51">
+        <v>44</v>
+      </c>
+      <c r="X51">
+        <v>43</v>
+      </c>
+      <c r="Y51">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45</v>
       </c>
@@ -19246,8 +19943,23 @@
         <f t="shared" si="9"/>
         <v>0.84958333333333336</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>45</v>
+      </c>
+      <c r="V52">
+        <v>135</v>
+      </c>
+      <c r="W52">
+        <v>45</v>
+      </c>
+      <c r="X52">
+        <v>44</v>
+      </c>
+      <c r="Y52">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>46</v>
       </c>
@@ -19295,8 +20007,23 @@
         <f t="shared" si="9"/>
         <v>0.91798611111111128</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>46</v>
+      </c>
+      <c r="V53">
+        <v>138</v>
+      </c>
+      <c r="W53">
+        <v>46</v>
+      </c>
+      <c r="X53">
+        <v>45</v>
+      </c>
+      <c r="Y53">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>47</v>
       </c>
@@ -19344,8 +20071,23 @@
         <f t="shared" si="9"/>
         <v>0.99025000000000007</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>47</v>
+      </c>
+      <c r="V54">
+        <v>141</v>
+      </c>
+      <c r="W54">
+        <v>47</v>
+      </c>
+      <c r="X54">
+        <v>46</v>
+      </c>
+      <c r="Y54">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>48</v>
       </c>
@@ -19393,8 +20135,23 @@
         <f t="shared" si="9"/>
         <v>1.0664583333333335</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>48</v>
+      </c>
+      <c r="V55">
+        <v>144</v>
+      </c>
+      <c r="W55">
+        <v>48</v>
+      </c>
+      <c r="X55">
+        <v>47</v>
+      </c>
+      <c r="Y55">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49</v>
       </c>
@@ -19442,8 +20199,23 @@
         <f t="shared" si="9"/>
         <v>1.1466944444444445</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>49</v>
+      </c>
+      <c r="V56">
+        <v>147</v>
+      </c>
+      <c r="W56">
+        <v>49</v>
+      </c>
+      <c r="X56">
+        <v>48</v>
+      </c>
+      <c r="Y56">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -19491,8 +20263,23 @@
         <f t="shared" si="9"/>
         <v>1.2310416666666668</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>50</v>
+      </c>
+      <c r="V57">
+        <v>150</v>
+      </c>
+      <c r="W57">
+        <v>50</v>
+      </c>
+      <c r="X57">
+        <v>49</v>
+      </c>
+      <c r="Y57">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>51</v>
       </c>
@@ -19540,8 +20327,23 @@
         <f t="shared" si="9"/>
         <v>1.3195833333333333</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>51</v>
+      </c>
+      <c r="V58">
+        <v>153</v>
+      </c>
+      <c r="W58">
+        <v>51</v>
+      </c>
+      <c r="X58">
+        <v>50</v>
+      </c>
+      <c r="Y58">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>52</v>
       </c>
@@ -19589,8 +20391,23 @@
         <f t="shared" si="9"/>
         <v>1.4124027777777777</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>52</v>
+      </c>
+      <c r="V59">
+        <v>156</v>
+      </c>
+      <c r="W59">
+        <v>52</v>
+      </c>
+      <c r="X59">
+        <v>51</v>
+      </c>
+      <c r="Y59">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>53</v>
       </c>
@@ -19638,8 +20455,23 @@
         <f t="shared" si="9"/>
         <v>1.5095833333333335</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>53</v>
+      </c>
+      <c r="V60">
+        <v>159</v>
+      </c>
+      <c r="W60">
+        <v>53</v>
+      </c>
+      <c r="X60">
+        <v>52</v>
+      </c>
+      <c r="Y60">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>54</v>
       </c>
@@ -19687,8 +20519,23 @@
         <f t="shared" si="9"/>
         <v>1.6112083333333336</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>54</v>
+      </c>
+      <c r="V61">
+        <v>162</v>
+      </c>
+      <c r="W61">
+        <v>54</v>
+      </c>
+      <c r="X61">
+        <v>53</v>
+      </c>
+      <c r="Y61">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>55</v>
       </c>
@@ -19736,8 +20583,23 @@
         <f t="shared" si="9"/>
         <v>1.7173611111111116</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>55</v>
+      </c>
+      <c r="V62">
+        <v>165</v>
+      </c>
+      <c r="W62">
+        <v>55</v>
+      </c>
+      <c r="X62">
+        <v>54</v>
+      </c>
+      <c r="Y62">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>56</v>
       </c>
@@ -19785,8 +20647,23 @@
         <f t="shared" si="9"/>
         <v>1.8281250000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>56</v>
+      </c>
+      <c r="V63">
+        <v>168</v>
+      </c>
+      <c r="W63">
+        <v>56</v>
+      </c>
+      <c r="X63">
+        <v>55</v>
+      </c>
+      <c r="Y63">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>57</v>
       </c>
@@ -19834,8 +20711,23 @@
         <f t="shared" si="9"/>
         <v>1.9435833333333334</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>57</v>
+      </c>
+      <c r="V64">
+        <v>171</v>
+      </c>
+      <c r="W64">
+        <v>57</v>
+      </c>
+      <c r="X64">
+        <v>56</v>
+      </c>
+      <c r="Y64">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>58</v>
       </c>
@@ -19883,8 +20775,23 @@
         <f t="shared" si="9"/>
         <v>2.0638194444444444</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>58</v>
+      </c>
+      <c r="V65">
+        <v>174</v>
+      </c>
+      <c r="W65">
+        <v>58</v>
+      </c>
+      <c r="X65">
+        <v>57</v>
+      </c>
+      <c r="Y65">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>59</v>
       </c>
@@ -19932,8 +20839,23 @@
         <f t="shared" si="9"/>
         <v>2.1889166666666666</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>59</v>
+      </c>
+      <c r="V66">
+        <v>177</v>
+      </c>
+      <c r="W66">
+        <v>59</v>
+      </c>
+      <c r="X66">
+        <v>58</v>
+      </c>
+      <c r="Y66">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>60</v>
       </c>
@@ -19981,8 +20903,23 @@
         <f t="shared" si="9"/>
         <v>2.3189583333333332</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>60</v>
+      </c>
+      <c r="V67">
+        <v>180</v>
+      </c>
+      <c r="W67">
+        <v>60</v>
+      </c>
+      <c r="X67">
+        <v>59</v>
+      </c>
+      <c r="Y67">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>61</v>
       </c>
@@ -20030,8 +20967,23 @@
         <f t="shared" si="9"/>
         <v>2.4540277777777777</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>61</v>
+      </c>
+      <c r="V68">
+        <v>183</v>
+      </c>
+      <c r="W68">
+        <v>61</v>
+      </c>
+      <c r="X68">
+        <v>60</v>
+      </c>
+      <c r="Y68">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>62</v>
       </c>
@@ -20079,8 +21031,23 @@
         <f t="shared" si="9"/>
         <v>2.6196875000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>62</v>
+      </c>
+      <c r="V69">
+        <v>186</v>
+      </c>
+      <c r="W69">
+        <v>62</v>
+      </c>
+      <c r="X69">
+        <v>61</v>
+      </c>
+      <c r="Y69">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>63</v>
       </c>
@@ -20128,8 +21095,23 @@
         <f t="shared" si="9"/>
         <v>2.8069097222222226</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>63</v>
+      </c>
+      <c r="V70">
+        <v>189</v>
+      </c>
+      <c r="W70">
+        <v>63</v>
+      </c>
+      <c r="X70">
+        <v>62</v>
+      </c>
+      <c r="Y70">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>64</v>
       </c>
@@ -20177,8 +21159,23 @@
         <f t="shared" si="9"/>
         <v>3.0160416666666667</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>64</v>
+      </c>
+      <c r="V71">
+        <v>192</v>
+      </c>
+      <c r="W71">
+        <v>64</v>
+      </c>
+      <c r="X71">
+        <v>63</v>
+      </c>
+      <c r="Y71">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>65</v>
       </c>
@@ -20226,8 +21223,23 @@
         <f t="shared" si="9"/>
         <v>3.2474305555555554</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>65</v>
+      </c>
+      <c r="V72">
+        <v>195</v>
+      </c>
+      <c r="W72">
+        <v>65</v>
+      </c>
+      <c r="X72">
+        <v>64</v>
+      </c>
+      <c r="Y72">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>66</v>
       </c>
@@ -20275,8 +21287,23 @@
         <f t="shared" ref="M73:M136" si="20">L73/24</f>
         <v>3.501423611111111</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>66</v>
+      </c>
+      <c r="V73">
+        <v>198</v>
+      </c>
+      <c r="W73">
+        <v>66</v>
+      </c>
+      <c r="X73">
+        <v>65</v>
+      </c>
+      <c r="Y73">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>67</v>
       </c>
@@ -20324,8 +21351,23 @@
         <f t="shared" si="20"/>
         <v>3.7783680555555557</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>67</v>
+      </c>
+      <c r="V74">
+        <v>201</v>
+      </c>
+      <c r="W74">
+        <v>67</v>
+      </c>
+      <c r="X74">
+        <v>66</v>
+      </c>
+      <c r="Y74">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>68</v>
       </c>
@@ -20373,8 +21415,23 @@
         <f t="shared" si="20"/>
         <v>4.0786111111111119</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>68</v>
+      </c>
+      <c r="V75">
+        <v>204</v>
+      </c>
+      <c r="W75">
+        <v>68</v>
+      </c>
+      <c r="X75">
+        <v>67</v>
+      </c>
+      <c r="Y75">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>69</v>
       </c>
@@ -20422,8 +21479,23 @@
         <f t="shared" si="20"/>
         <v>4.4025000000000007</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>69</v>
+      </c>
+      <c r="V76">
+        <v>207</v>
+      </c>
+      <c r="W76">
+        <v>69</v>
+      </c>
+      <c r="X76">
+        <v>68</v>
+      </c>
+      <c r="Y76">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>70</v>
       </c>
@@ -20471,8 +21543,23 @@
         <f t="shared" si="20"/>
         <v>4.7503819444444444</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>70</v>
+      </c>
+      <c r="V77">
+        <v>210</v>
+      </c>
+      <c r="W77">
+        <v>70</v>
+      </c>
+      <c r="X77">
+        <v>69</v>
+      </c>
+      <c r="Y77">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>71</v>
       </c>
@@ -20520,8 +21607,23 @@
         <f t="shared" si="20"/>
         <v>5.1226041666666671</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>71</v>
+      </c>
+      <c r="V78">
+        <v>213</v>
+      </c>
+      <c r="W78">
+        <v>71</v>
+      </c>
+      <c r="X78">
+        <v>70</v>
+      </c>
+      <c r="Y78">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>72</v>
       </c>
@@ -20569,8 +21671,23 @@
         <f t="shared" si="20"/>
         <v>5.5195138888888886</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>72</v>
+      </c>
+      <c r="V79">
+        <v>216</v>
+      </c>
+      <c r="W79">
+        <v>72</v>
+      </c>
+      <c r="X79">
+        <v>71</v>
+      </c>
+      <c r="Y79">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>73</v>
       </c>
@@ -20618,8 +21735,23 @@
         <f t="shared" si="20"/>
         <v>5.9414583333333333</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>73</v>
+      </c>
+      <c r="V80">
+        <v>219</v>
+      </c>
+      <c r="W80">
+        <v>73</v>
+      </c>
+      <c r="X80">
+        <v>72</v>
+      </c>
+      <c r="Y80">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>74</v>
       </c>
@@ -20667,8 +21799,23 @@
         <f t="shared" si="20"/>
         <v>6.3887847222222227</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>74</v>
+      </c>
+      <c r="V81">
+        <v>222</v>
+      </c>
+      <c r="W81">
+        <v>74</v>
+      </c>
+      <c r="X81">
+        <v>73</v>
+      </c>
+      <c r="Y81">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>75</v>
       </c>
@@ -20716,8 +21863,23 @@
         <f t="shared" si="20"/>
         <v>6.8618402777777794</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>75</v>
+      </c>
+      <c r="V82">
+        <v>225</v>
+      </c>
+      <c r="W82">
+        <v>75</v>
+      </c>
+      <c r="X82">
+        <v>74</v>
+      </c>
+      <c r="Y82">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>76</v>
       </c>
@@ -20765,8 +21927,23 @@
         <f t="shared" si="20"/>
         <v>7.3609722222222231</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>76</v>
+      </c>
+      <c r="V83">
+        <v>228</v>
+      </c>
+      <c r="W83">
+        <v>76</v>
+      </c>
+      <c r="X83">
+        <v>75</v>
+      </c>
+      <c r="Y83">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>77</v>
       </c>
@@ -20814,8 +21991,23 @@
         <f t="shared" si="20"/>
         <v>7.8865277777777782</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>77</v>
+      </c>
+      <c r="V84">
+        <v>231</v>
+      </c>
+      <c r="W84">
+        <v>77</v>
+      </c>
+      <c r="X84">
+        <v>76</v>
+      </c>
+      <c r="Y84">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>78</v>
       </c>
@@ -20863,8 +22055,23 @@
         <f t="shared" si="20"/>
         <v>8.4388541666666672</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>78</v>
+      </c>
+      <c r="V85">
+        <v>234</v>
+      </c>
+      <c r="W85">
+        <v>78</v>
+      </c>
+      <c r="X85">
+        <v>77</v>
+      </c>
+      <c r="Y85">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>79</v>
       </c>
@@ -20912,8 +22119,23 @@
         <f t="shared" si="20"/>
         <v>9.0182986111111116</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>79</v>
+      </c>
+      <c r="V86">
+        <v>237</v>
+      </c>
+      <c r="W86">
+        <v>79</v>
+      </c>
+      <c r="X86">
+        <v>78</v>
+      </c>
+      <c r="Y86">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>80</v>
       </c>
@@ -20961,8 +22183,23 @@
         <f t="shared" si="20"/>
         <v>9.6252083333333349</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>80</v>
+      </c>
+      <c r="V87">
+        <v>240</v>
+      </c>
+      <c r="W87">
+        <v>80</v>
+      </c>
+      <c r="X87">
+        <v>79</v>
+      </c>
+      <c r="Y87">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>81</v>
       </c>
@@ -21010,8 +22247,23 @@
         <f t="shared" si="20"/>
         <v>10.259930555555556</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>81</v>
+      </c>
+      <c r="V88">
+        <v>243</v>
+      </c>
+      <c r="W88">
+        <v>81</v>
+      </c>
+      <c r="X88">
+        <v>80</v>
+      </c>
+      <c r="Y88">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>82</v>
       </c>
@@ -21059,8 +22311,23 @@
         <f t="shared" si="20"/>
         <v>10.922812499999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>82</v>
+      </c>
+      <c r="V89">
+        <v>246</v>
+      </c>
+      <c r="W89">
+        <v>82</v>
+      </c>
+      <c r="X89">
+        <v>81</v>
+      </c>
+      <c r="Y89">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>83</v>
       </c>
@@ -21108,8 +22375,23 @@
         <f t="shared" si="20"/>
         <v>11.614201388888889</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>83</v>
+      </c>
+      <c r="V90">
+        <v>249</v>
+      </c>
+      <c r="W90">
+        <v>83</v>
+      </c>
+      <c r="X90">
+        <v>82</v>
+      </c>
+      <c r="Y90">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>84</v>
       </c>
@@ -21157,8 +22439,23 @@
         <f t="shared" si="20"/>
         <v>12.334444444444445</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>84</v>
+      </c>
+      <c r="V91">
+        <v>252</v>
+      </c>
+      <c r="W91">
+        <v>84</v>
+      </c>
+      <c r="X91">
+        <v>83</v>
+      </c>
+      <c r="Y91">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>85</v>
       </c>
@@ -21206,8 +22503,23 @@
         <f t="shared" si="20"/>
         <v>13.083888888888891</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>85</v>
+      </c>
+      <c r="V92">
+        <v>255</v>
+      </c>
+      <c r="W92">
+        <v>85</v>
+      </c>
+      <c r="X92">
+        <v>84</v>
+      </c>
+      <c r="Y92">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>86</v>
       </c>
@@ -21255,8 +22567,23 @@
         <f t="shared" si="20"/>
         <v>13.862881944444446</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <v>86</v>
+      </c>
+      <c r="V93">
+        <v>258</v>
+      </c>
+      <c r="W93">
+        <v>86</v>
+      </c>
+      <c r="X93">
+        <v>85</v>
+      </c>
+      <c r="Y93">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>87</v>
       </c>
@@ -21304,8 +22631,23 @@
         <f t="shared" si="20"/>
         <v>14.671770833333335</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <v>87</v>
+      </c>
+      <c r="V94">
+        <v>261</v>
+      </c>
+      <c r="W94">
+        <v>87</v>
+      </c>
+      <c r="X94">
+        <v>86</v>
+      </c>
+      <c r="Y94">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>88</v>
       </c>
@@ -21353,8 +22695,23 @@
         <f t="shared" si="20"/>
         <v>15.510902777777778</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <v>88</v>
+      </c>
+      <c r="V95">
+        <v>264</v>
+      </c>
+      <c r="W95">
+        <v>88</v>
+      </c>
+      <c r="X95">
+        <v>87</v>
+      </c>
+      <c r="Y95">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>89</v>
       </c>
@@ -21402,8 +22759,23 @@
         <f t="shared" si="20"/>
         <v>16.380625000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>89</v>
+      </c>
+      <c r="V96">
+        <v>267</v>
+      </c>
+      <c r="W96">
+        <v>89</v>
+      </c>
+      <c r="X96">
+        <v>88</v>
+      </c>
+      <c r="Y96">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>90</v>
       </c>
@@ -21451,8 +22823,23 @@
         <f t="shared" si="20"/>
         <v>17.281284722222225</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <v>90</v>
+      </c>
+      <c r="V97">
+        <v>270</v>
+      </c>
+      <c r="W97">
+        <v>90</v>
+      </c>
+      <c r="X97">
+        <v>89</v>
+      </c>
+      <c r="Y97">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>91</v>
       </c>
@@ -21500,8 +22887,23 @@
         <f t="shared" si="20"/>
         <v>18.213229166666668</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <v>91</v>
+      </c>
+      <c r="V98">
+        <v>273</v>
+      </c>
+      <c r="W98">
+        <v>91</v>
+      </c>
+      <c r="X98">
+        <v>90</v>
+      </c>
+      <c r="Y98">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>92</v>
       </c>
@@ -21549,8 +22951,23 @@
         <f t="shared" si="20"/>
         <v>19.176805555555557</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <v>92</v>
+      </c>
+      <c r="V99">
+        <v>276</v>
+      </c>
+      <c r="W99">
+        <v>92</v>
+      </c>
+      <c r="X99">
+        <v>91</v>
+      </c>
+      <c r="Y99">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>93</v>
       </c>
@@ -21598,8 +23015,23 @@
         <f t="shared" si="20"/>
         <v>20.172361111111112</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>93</v>
+      </c>
+      <c r="V100">
+        <v>279</v>
+      </c>
+      <c r="W100">
+        <v>93</v>
+      </c>
+      <c r="X100">
+        <v>92</v>
+      </c>
+      <c r="Y100">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>94</v>
       </c>
@@ -21647,8 +23079,23 @@
         <f t="shared" si="20"/>
         <v>21.200243055555557</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <v>94</v>
+      </c>
+      <c r="V101">
+        <v>282</v>
+      </c>
+      <c r="W101">
+        <v>94</v>
+      </c>
+      <c r="X101">
+        <v>93</v>
+      </c>
+      <c r="Y101">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>95</v>
       </c>
@@ -21696,8 +23143,23 @@
         <f t="shared" si="20"/>
         <v>22.260798611111113</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <v>95</v>
+      </c>
+      <c r="V102">
+        <v>285</v>
+      </c>
+      <c r="W102">
+        <v>95</v>
+      </c>
+      <c r="X102">
+        <v>94</v>
+      </c>
+      <c r="Y102">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>96</v>
       </c>
@@ -21745,8 +23207,23 @@
         <f t="shared" si="20"/>
         <v>23.354375000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <v>96</v>
+      </c>
+      <c r="V103">
+        <v>288</v>
+      </c>
+      <c r="W103">
+        <v>96</v>
+      </c>
+      <c r="X103">
+        <v>95</v>
+      </c>
+      <c r="Y103">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>97</v>
       </c>
@@ -21794,8 +23271,23 @@
         <f t="shared" si="20"/>
         <v>24.481319444444448</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <v>97</v>
+      </c>
+      <c r="V104">
+        <v>291</v>
+      </c>
+      <c r="W104">
+        <v>97</v>
+      </c>
+      <c r="X104">
+        <v>96</v>
+      </c>
+      <c r="Y104">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>98</v>
       </c>
@@ -21843,8 +23335,23 @@
         <f t="shared" si="20"/>
         <v>25.641979166666669</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>98</v>
+      </c>
+      <c r="V105">
+        <v>294</v>
+      </c>
+      <c r="W105">
+        <v>98</v>
+      </c>
+      <c r="X105">
+        <v>97</v>
+      </c>
+      <c r="Y105">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>99</v>
       </c>
@@ -21892,8 +23399,23 @@
         <f t="shared" si="20"/>
         <v>26.836701388888894</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <v>99</v>
+      </c>
+      <c r="V106">
+        <v>297</v>
+      </c>
+      <c r="W106">
+        <v>99</v>
+      </c>
+      <c r="X106">
+        <v>98</v>
+      </c>
+      <c r="Y106">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
         <v>100</v>
       </c>
@@ -21941,8 +23463,23 @@
         <f t="shared" si="20"/>
         <v>28.065833333333334</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>100</v>
+      </c>
+      <c r="V107">
+        <v>300</v>
+      </c>
+      <c r="W107">
+        <v>100</v>
+      </c>
+      <c r="X107">
+        <v>99</v>
+      </c>
+      <c r="Y107">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>101</v>
       </c>
@@ -21990,8 +23527,23 @@
         <f t="shared" si="20"/>
         <v>29.329722222222227</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <v>101</v>
+      </c>
+      <c r="V108">
+        <v>303</v>
+      </c>
+      <c r="W108">
+        <v>101</v>
+      </c>
+      <c r="X108">
+        <v>100</v>
+      </c>
+      <c r="Y108">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>102</v>
       </c>
@@ -22039,8 +23591,11 @@
         <f t="shared" si="20"/>
         <v>30.628715277777783</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>103</v>
       </c>
@@ -22088,8 +23643,11 @@
         <f t="shared" si="20"/>
         <v>31.963159722222226</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>104</v>
       </c>
@@ -22137,8 +23695,11 @@
         <f t="shared" si="20"/>
         <v>33.333402777777785</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>105</v>
       </c>
@@ -22186,8 +23747,11 @@
         <f t="shared" si="20"/>
         <v>34.739791666666669</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>106</v>
       </c>
@@ -22235,8 +23799,11 @@
         <f t="shared" si="20"/>
         <v>36.182673611111113</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>107</v>
       </c>
@@ -22284,8 +23851,11 @@
         <f t="shared" si="20"/>
         <v>37.662395833333342</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>108</v>
       </c>
@@ -22333,8 +23903,11 @@
         <f t="shared" si="20"/>
         <v>39.179305555555558</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>109</v>
       </c>
@@ -22382,8 +23955,11 @@
         <f t="shared" si="20"/>
         <v>40.733750000000008</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>110</v>
       </c>
@@ -22431,8 +24007,11 @@
         <f t="shared" si="20"/>
         <v>42.326076388888893</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>111</v>
       </c>
@@ -22480,8 +24059,11 @@
         <f t="shared" si="20"/>
         <v>43.956631944444446</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>112</v>
       </c>
@@ -22529,8 +24111,11 @@
         <f t="shared" si="20"/>
         <v>45.625763888888891</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>113</v>
       </c>
@@ -22578,8 +24163,11 @@
         <f t="shared" si="20"/>
         <v>47.333819444444451</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>114</v>
       </c>
@@ -22627,8 +24215,11 @@
         <f t="shared" si="20"/>
         <v>49.081145833333331</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>115</v>
       </c>
@@ -22676,8 +24267,11 @@
         <f t="shared" si="20"/>
         <v>50.868090277777782</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>116</v>
       </c>
@@ -22725,8 +24319,11 @@
         <f t="shared" si="20"/>
         <v>52.695</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>117</v>
       </c>
@@ -22774,8 +24371,11 @@
         <f t="shared" si="20"/>
         <v>54.562222222222225</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>118</v>
       </c>
@@ -22823,8 +24423,11 @@
         <f t="shared" si="20"/>
         <v>56.47010416666668</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>119</v>
       </c>
@@ -22872,8 +24475,11 @@
         <f t="shared" si="20"/>
         <v>58.418993055555553</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>120</v>
       </c>
@@ -22921,8 +24527,11 @@
         <f t="shared" si="20"/>
         <v>60.409236111111113</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>121</v>
       </c>
@@ -22970,8 +24579,11 @@
         <f t="shared" si="20"/>
         <v>62.441180555555555</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>122</v>
       </c>
@@ -23019,8 +24631,11 @@
         <f t="shared" si="20"/>
         <v>64.515173611111109</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>123</v>
       </c>
@@ -23068,8 +24683,11 @@
         <f t="shared" si="20"/>
         <v>66.631562500000015</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>124</v>
       </c>
@@ -23117,8 +24735,11 @@
         <f t="shared" si="20"/>
         <v>68.790694444444441</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>125</v>
       </c>
@@ -23166,8 +24787,11 @@
         <f t="shared" si="20"/>
         <v>70.992916666666673</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>126</v>
       </c>
@@ -23215,8 +24839,11 @@
         <f t="shared" si="20"/>
         <v>73.238576388888887</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>127</v>
       </c>
@@ -23264,8 +24891,11 @@
         <f t="shared" si="20"/>
         <v>75.528020833333343</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>128</v>
       </c>
@@ -23313,8 +24943,11 @@
         <f t="shared" si="20"/>
         <v>77.86159722222223</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>129</v>
       </c>
@@ -23362,8 +24995,11 @@
         <f t="shared" si="20"/>
         <v>80.239652777777778</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>130</v>
       </c>
@@ -23411,8 +25047,11 @@
         <f t="shared" ref="M137:M146" si="31">L137/24</f>
         <v>82.662534722222219</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>131</v>
       </c>
@@ -23460,8 +25099,11 @@
         <f t="shared" si="31"/>
         <v>85.130590277777785</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R138">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>132</v>
       </c>
@@ -23509,8 +25151,11 @@
         <f t="shared" si="31"/>
         <v>87.644166666666663</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R139">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>133</v>
       </c>
@@ -23558,8 +25203,11 @@
         <f t="shared" si="31"/>
         <v>90.203611111111115</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R140">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>134</v>
       </c>
@@ -23607,8 +25255,11 @@
         <f t="shared" si="31"/>
         <v>92.809270833333343</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R141">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>135</v>
       </c>
@@ -23656,8 +25307,11 @@
         <f t="shared" si="31"/>
         <v>95.461493055555579</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R142">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>136</v>
       </c>
@@ -23705,8 +25359,11 @@
         <f t="shared" si="31"/>
         <v>98.160625000000024</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R143">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>137</v>
       </c>
@@ -23754,8 +25411,11 @@
         <f t="shared" si="31"/>
         <v>100.9070138888889</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R144">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>138</v>
       </c>
@@ -23803,8 +25463,11 @@
         <f t="shared" si="31"/>
         <v>103.70100694444444</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R145">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>139</v>
       </c>
@@ -23851,6 +25514,829 @@
       <c r="M146">
         <f t="shared" si="31"/>
         <v>106.54295138888888</v>
+      </c>
+      <c r="R146">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R150">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R151">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R152">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R153">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R154">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R155">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R156">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R157">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="164" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="166" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R166">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R167">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R168">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R169">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R170">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R174">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R175">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R176">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R177">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R178">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="179" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R179">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R180">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R181">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R182">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R183">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R184">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R185">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R186">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R187">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R188">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R189">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R190">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R191">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R192">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R193">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R194">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R195">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="196" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R196">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="197" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R197">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R198">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="199" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R199">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R200">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R201">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R202">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R203">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R204">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R205">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="206" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R206">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R207">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R208">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R209">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R210">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R211">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="212" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R212">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="213" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R213">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="214" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R214">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="215" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R215">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R216">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R217">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R218">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R219">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R220">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R221">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R222">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="223" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R223">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R224">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R225">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="226" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R226">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R227">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="228" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R228">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="229" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R229">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R230">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R231">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="232" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R232">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="233" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R233">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="234" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R234">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R235">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R236">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R237">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R238">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R239">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R240">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R241">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R242">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="243" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R243">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="244" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R244">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="245" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R245">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="246" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R246">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R247">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R248">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="249" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R249">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="250" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R250">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="251" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R251">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="252" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R252">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="253" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R253">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="254" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R254">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R255">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="256" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R256">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="257" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R257">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="258" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R258">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="259" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R259">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="260" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R260">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="261" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R261">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="262" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R262">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="263" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R263">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="264" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R264">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="265" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R265">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="266" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R266">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="267" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R267">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="268" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R268">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="269" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R269">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="270" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R270">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="271" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R271">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="272" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R272">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="273" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R273">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="274" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R274">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="275" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R275">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="276" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R276">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="277" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R277">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="278" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R278">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="279" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R279">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="280" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R280">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="281" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R281">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="282" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R282">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="283" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R283">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="284" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R284">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="285" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R285">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="286" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R286">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="287" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R287">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="288" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R288">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="289" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R289">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="290" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R290">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="291" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R291">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="292" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R292">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="293" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R293">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="294" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R294">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="295" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R295">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="296" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R296">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="297" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R297">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="298" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R298">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="299" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R299">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="300" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R300">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="301" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R301">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="302" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R302">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="303" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R303">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="304" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R304">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="305" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R305">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="306" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R306">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="307" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R307">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="308" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R308">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="309" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R309">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="310" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R310">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/打怪.xlsx
+++ b/打怪.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0162B3E0-EC5F-4EC2-9D98-EB60875EE615}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7608" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="173">
   <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,11 +712,19 @@
     <t>垃圾时间（分钟）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>通关奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡怪物数量*怪物金钱*((人数-1)/人数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -832,7 +839,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1018,6 +1025,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1025,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1118,6 +1134,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1137,7 +1156,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1183,6 +1202,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1420,7 +1440,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C682-4F5E-8F13-6CCE8038AD78}"/>
             </c:ext>
@@ -1435,11 +1455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1810226480"/>
-        <c:axId val="-1810235184"/>
+        <c:axId val="-46908640"/>
+        <c:axId val="-46906464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1810226480"/>
+        <c:axId val="-46908640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810235184"/>
+        <c:crossAx val="-46906464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1489,7 +1509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1810235184"/>
+        <c:axId val="-46906464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1560,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810226480"/>
+        <c:crossAx val="-46908640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1590,7 +1610,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1636,6 +1656,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1689,31 +1710,37 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1752,7 +1779,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2082,7 +2109,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
             </c:ext>
@@ -2097,11 +2124,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1810228112"/>
-        <c:axId val="-1810231376"/>
+        <c:axId val="-46908096"/>
+        <c:axId val="-46907552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1810228112"/>
+        <c:axId val="-46908096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810231376"/>
+        <c:crossAx val="-46907552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2152,7 +2179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1810231376"/>
+        <c:axId val="-46907552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2230,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810228112"/>
+        <c:crossAx val="-46908096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2253,7 +2280,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2299,6 +2326,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2362,31 +2390,37 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0B8B-4554-8A34-FCC23104E7CA}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0B8B-4554-8A34-FCC23104E7CA}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2425,7 +2459,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2755,7 +2789,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B8B-4554-8A34-FCC23104E7CA}"/>
             </c:ext>
@@ -2770,11 +2804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1810223760"/>
-        <c:axId val="-1810230832"/>
+        <c:axId val="-46907008"/>
+        <c:axId val="-46905920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1810223760"/>
+        <c:axId val="-46907008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +2850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810230832"/>
+        <c:crossAx val="-46905920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2824,7 +2858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1810230832"/>
+        <c:axId val="-46905920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810223760"/>
+        <c:crossAx val="-46907008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2925,7 +2959,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3331,7 +3365,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2BF-4068-B7B5-7C12C4D19E94}"/>
             </c:ext>
@@ -3346,11 +3380,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1810225936"/>
-        <c:axId val="-1810221040"/>
+        <c:axId val="-46905376"/>
+        <c:axId val="-46196080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1810225936"/>
+        <c:axId val="-46905376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3426,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810221040"/>
+        <c:crossAx val="-46196080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3400,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1810221040"/>
+        <c:axId val="-46196080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,7 +3485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810225936"/>
+        <c:crossAx val="-46905376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3501,7 +3535,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3540,6 +3574,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3593,76 +3628,91 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="62"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-7016-4528-BBB1-AA45A9A9B42E}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="81"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-BD14-4755-AD40-B0680C15F795}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="87"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-BD14-4755-AD40-B0680C15F795}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="93"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-BD14-4755-AD40-B0680C15F795}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-BD14-4755-AD40-B0680C15F795}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3701,7 +3751,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4031,7 +4081,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BD14-4755-AD40-B0680C15F795}"/>
             </c:ext>
@@ -4046,11 +4096,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1810234640"/>
-        <c:axId val="-1803734128"/>
+        <c:axId val="-46197168"/>
+        <c:axId val="-46195536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1810234640"/>
+        <c:axId val="-46197168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +4142,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803734128"/>
+        <c:crossAx val="-46195536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4100,7 +4150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1803734128"/>
+        <c:axId val="-46195536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4151,7 +4201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1810234640"/>
+        <c:crossAx val="-46197168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4201,7 +4251,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4607,7 +4657,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0EE-4B2F-AF02-7A911D2AD5B2}"/>
             </c:ext>
@@ -4622,11 +4672,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1803732496"/>
-        <c:axId val="-1803727600"/>
+        <c:axId val="-46193360"/>
+        <c:axId val="-46190640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1803732496"/>
+        <c:axId val="-46193360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4668,7 +4718,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803727600"/>
+        <c:crossAx val="-46190640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4676,7 +4726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1803727600"/>
+        <c:axId val="-46190640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4727,7 +4777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803732496"/>
+        <c:crossAx val="-46193360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4777,7 +4827,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4820,6 +4870,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4970,7 +5021,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-811B-44D1-948A-90B45BFDA9C5}"/>
             </c:ext>
@@ -4985,11 +5036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831236920"/>
-        <c:axId val="831237248"/>
+        <c:axId val="-163161600"/>
+        <c:axId val="-163156160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831236920"/>
+        <c:axId val="-163161600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5031,7 +5082,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831237248"/>
+        <c:crossAx val="-163156160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5039,7 +5090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831237248"/>
+        <c:axId val="-163156160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5090,7 +5141,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831236920"/>
+        <c:crossAx val="-163161600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,14 +5155,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5147,7 +5198,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5187,6 +5238,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5337,7 +5389,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2201-4F5F-9651-BCB0BB2AA021}"/>
             </c:ext>
@@ -5352,11 +5404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="823507248"/>
-        <c:axId val="823509544"/>
+        <c:axId val="-163158336"/>
+        <c:axId val="-163152352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="823507248"/>
+        <c:axId val="-163158336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5398,7 +5450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823509544"/>
+        <c:crossAx val="-163152352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5406,7 +5458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="823509544"/>
+        <c:axId val="-163152352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5457,7 +5509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823507248"/>
+        <c:crossAx val="-163158336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5471,14 +5523,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5514,7 +5566,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5554,6 +5606,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5734,7 +5787,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-30A2-4151-8405-6B183E734524}"/>
             </c:ext>
@@ -5749,11 +5802,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="823504952"/>
-        <c:axId val="669102904"/>
+        <c:axId val="-163163232"/>
+        <c:axId val="-163155616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="823504952"/>
+        <c:axId val="-163163232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,7 +5848,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669102904"/>
+        <c:crossAx val="-163155616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5803,7 +5856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="669102904"/>
+        <c:axId val="-163155616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5854,7 +5907,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823504952"/>
+        <c:crossAx val="-163163232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5868,14 +5921,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10934,7 +10987,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10970,7 +11023,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11006,7 +11059,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11042,7 +11095,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11078,7 +11131,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11114,7 +11167,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11139,23 +11192,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>201930</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>659130</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>948690</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1559B039-3339-436A-B754-0236CBE4C742}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1559B039-3339-436A-B754-0236CBE4C742}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11176,22 +11229,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B7C706-87B8-4FB1-9261-DC7D2E703933}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B7C706-87B8-4FB1-9261-DC7D2E703933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11211,23 +11264,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBDD52E-574C-4D11-8C6F-E861EB486A46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBDD52E-574C-4D11-8C6F-E861EB486A46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11249,7 +11302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11324,23 +11377,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -11376,23 +11412,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11568,7 +11587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -20187,11 +20206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20248,6 +20267,9 @@
       <c r="R1" s="20" t="s">
         <v>38</v>
       </c>
+      <c r="T1" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="2" spans="1:41" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -20286,6 +20308,9 @@
       </c>
       <c r="P2">
         <v>0.5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -35487,7 +35512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/打怪.xlsx
+++ b/打怪.xlsx
@@ -1116,6 +1116,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1455,11 +1455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-46908640"/>
-        <c:axId val="-46906464"/>
+        <c:axId val="2030353744"/>
+        <c:axId val="2030347216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-46908640"/>
+        <c:axId val="2030353744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46906464"/>
+        <c:crossAx val="2030347216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +1509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46906464"/>
+        <c:axId val="2030347216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1560,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46908640"/>
+        <c:crossAx val="2030353744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2124,11 +2124,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-46908096"/>
-        <c:axId val="-46907552"/>
+        <c:axId val="2030340688"/>
+        <c:axId val="2030344496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-46908096"/>
+        <c:axId val="2030340688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +2171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46907552"/>
+        <c:crossAx val="2030344496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +2179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46907552"/>
+        <c:axId val="2030344496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2230,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46908096"/>
+        <c:crossAx val="2030340688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2804,11 +2804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-46907008"/>
-        <c:axId val="-46905920"/>
+        <c:axId val="2030351568"/>
+        <c:axId val="2030353200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-46907008"/>
+        <c:axId val="2030351568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +2850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46905920"/>
+        <c:crossAx val="2030353200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2858,7 +2858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46905920"/>
+        <c:axId val="2030353200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46907008"/>
+        <c:crossAx val="2030351568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3005,6 +3005,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3380,11 +3381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-46905376"/>
-        <c:axId val="-46196080"/>
+        <c:axId val="2030352112"/>
+        <c:axId val="2030345040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-46905376"/>
+        <c:axId val="2030352112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46196080"/>
+        <c:crossAx val="2030345040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3434,7 +3435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46196080"/>
+        <c:axId val="2030345040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,7 +3486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46905376"/>
+        <c:crossAx val="2030352112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,11 +4097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-46197168"/>
-        <c:axId val="-46195536"/>
+        <c:axId val="2030352656"/>
+        <c:axId val="2030345584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-46197168"/>
+        <c:axId val="2030352656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,7 +4143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46195536"/>
+        <c:crossAx val="2030345584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4150,7 +4151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46195536"/>
+        <c:axId val="2030345584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4201,7 +4202,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46197168"/>
+        <c:crossAx val="2030352656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4290,6 +4291,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4672,11 +4674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-46193360"/>
-        <c:axId val="-46190640"/>
+        <c:axId val="2030346672"/>
+        <c:axId val="2030347760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-46193360"/>
+        <c:axId val="2030346672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4718,7 +4720,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46190640"/>
+        <c:crossAx val="2030347760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4726,7 +4728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46190640"/>
+        <c:axId val="2030347760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,7 +4779,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46193360"/>
+        <c:crossAx val="2030346672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5036,11 +5038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-163161600"/>
-        <c:axId val="-163156160"/>
+        <c:axId val="2030348304"/>
+        <c:axId val="2030339600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-163161600"/>
+        <c:axId val="2030348304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5082,7 +5084,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163156160"/>
+        <c:crossAx val="2030339600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5090,7 +5092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163156160"/>
+        <c:axId val="2030339600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,7 +5143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163161600"/>
+        <c:crossAx val="2030348304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5404,11 +5406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-163158336"/>
-        <c:axId val="-163152352"/>
+        <c:axId val="140461232"/>
+        <c:axId val="140474288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-163158336"/>
+        <c:axId val="140461232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5450,7 +5452,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163152352"/>
+        <c:crossAx val="140474288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5458,7 +5460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163152352"/>
+        <c:axId val="140474288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5509,7 +5511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163158336"/>
+        <c:crossAx val="140461232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5802,11 +5804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-163163232"/>
-        <c:axId val="-163155616"/>
+        <c:axId val="140460688"/>
+        <c:axId val="140466672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-163163232"/>
+        <c:axId val="140460688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,7 +5850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163155616"/>
+        <c:crossAx val="140466672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5856,7 +5858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-163155616"/>
+        <c:axId val="140466672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5907,7 +5909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-163163232"/>
+        <c:crossAx val="140460688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10971,23 +10973,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11007,23 +11009,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1303020</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11043,23 +11045,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11079,23 +11081,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11115,23 +11117,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11151,23 +11153,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11208,7 +11210,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1559B039-3339-436A-B754-0236CBE4C742}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1559B039-3339-436A-B754-0236CBE4C742}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11244,7 +11246,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B7C706-87B8-4FB1-9261-DC7D2E703933}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8B7C706-87B8-4FB1-9261-DC7D2E703933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11280,7 +11282,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBDD52E-574C-4D11-8C6F-E861EB486A46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDBDD52E-574C-4D11-8C6F-E861EB486A46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11590,8 +11592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11645,6 +11647,10 @@
         <f>(4*H1*H3-H2^2)/(4*H1)</f>
         <v>4.8166512345679022E-2</v>
       </c>
+      <c r="N2">
+        <f>300/60</f>
+        <v>5</v>
+      </c>
       <c r="W2" s="10" t="s">
         <v>12</v>
       </c>
@@ -11683,19 +11689,19 @@
         <v>9</v>
       </c>
       <c r="W3" s="4">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="X3" s="5">
         <f>VLOOKUP($W3,$A$8:$G$67,2)</f>
-        <v>70</v>
+        <v>329</v>
       </c>
       <c r="Y3" s="5">
         <f>VLOOKUP($W3,$A$8:$G$67,3)</f>
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="6">
         <f>VLOOKUP($W3,$A$8:$D$37,4)</f>
-        <v>0.60000000000000009</v>
+        <v>0.33738888888888896</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11709,15 +11715,15 @@
         <v>14</v>
       </c>
       <c r="W4" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="X4" s="8">
         <f>VLOOKUP($W4,$N$8:$U$67,2)</f>
-        <v>66.666666666666657</v>
+        <v>864.83023702754633</v>
       </c>
       <c r="Y4" s="8">
         <f>VLOOKUP($W4,$N$8:$U$67,3)</f>
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="9">
         <f>VLOOKUP($W4,$N$8:$Q$37,4)</f>
@@ -11726,21 +11732,21 @@
     </row>
     <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="45"/>
       <c r="R6" s="16" t="s">
         <v>21</v>
       </c>
@@ -11817,11 +11823,11 @@
       </c>
       <c r="X7" s="8">
         <f>X4</f>
-        <v>66.666666666666657</v>
+        <v>864.83023702754633</v>
       </c>
       <c r="Y7" s="9">
         <f>X3</f>
-        <v>70</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -11894,11 +11900,11 @@
       </c>
       <c r="X8">
         <f t="shared" ref="X8:X39" si="2">X$7-W8/$Z$3*$Y$3</f>
-        <v>33.333333333333329</v>
+        <v>695.88572854738823</v>
       </c>
       <c r="Y8">
         <f t="shared" ref="Y8:Y39" si="3">Y$7-W8/$Z$4*$Y$4</f>
-        <v>60</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -11975,11 +11981,11 @@
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>526.94122006723023</v>
       </c>
       <c r="Y9">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -12056,11 +12062,11 @@
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>-33.333333333333329</v>
+        <v>357.99671158707218</v>
       </c>
       <c r="Y10">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -12137,11 +12143,11 @@
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>-66.666666666666657</v>
+        <v>189.05220310691413</v>
       </c>
       <c r="Y11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -12218,11 +12224,11 @@
       </c>
       <c r="X12">
         <f t="shared" si="2"/>
-        <v>-99.999999999999972</v>
+        <v>20.107694626756142</v>
       </c>
       <c r="Y12">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -12299,11 +12305,11 @@
       </c>
       <c r="X13">
         <f t="shared" si="2"/>
-        <v>-133.33333333333331</v>
+        <v>-148.83681385340196</v>
       </c>
       <c r="Y13">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -12380,11 +12386,11 @@
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>-166.66666666666663</v>
+        <v>-317.78132233355984</v>
       </c>
       <c r="Y14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -12461,11 +12467,11 @@
       </c>
       <c r="X15">
         <f t="shared" si="2"/>
-        <v>-199.99999999999997</v>
+        <v>-486.72583081371806</v>
       </c>
       <c r="Y15">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -12542,11 +12548,11 @@
       </c>
       <c r="X16">
         <f t="shared" si="2"/>
-        <v>-233.33333333333329</v>
+        <v>-655.67033929387605</v>
       </c>
       <c r="Y16">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>-256</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -12626,11 +12632,11 @@
       </c>
       <c r="X17">
         <f t="shared" si="2"/>
-        <v>-266.66666666666663</v>
+        <v>-824.61484777403405</v>
       </c>
       <c r="Y17">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>-321</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -12710,11 +12716,11 @@
       </c>
       <c r="X18">
         <f t="shared" si="2"/>
-        <v>-300</v>
+        <v>-993.55935625419204</v>
       </c>
       <c r="Y18">
         <f t="shared" si="3"/>
-        <v>-40</v>
+        <v>-386</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -12794,11 +12800,11 @@
       </c>
       <c r="X19">
         <f t="shared" si="2"/>
-        <v>-333.33333333333326</v>
+        <v>-1162.5038647343504</v>
       </c>
       <c r="Y19">
         <f t="shared" si="3"/>
-        <v>-50</v>
+        <v>-451</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -12878,11 +12884,11 @@
       </c>
       <c r="X20">
         <f t="shared" si="2"/>
-        <v>-366.66666666666663</v>
+        <v>-1331.4483732145081</v>
       </c>
       <c r="Y20">
         <f t="shared" si="3"/>
-        <v>-60</v>
+        <v>-516</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -12962,11 +12968,11 @@
       </c>
       <c r="X21">
         <f t="shared" si="2"/>
-        <v>-399.99999999999989</v>
+        <v>-1500.3928816946659</v>
       </c>
       <c r="Y21">
         <f t="shared" si="3"/>
-        <v>-70</v>
+        <v>-581</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -13046,11 +13052,11 @@
       </c>
       <c r="X22">
         <f t="shared" si="2"/>
-        <v>-433.33333333333326</v>
+        <v>-1669.3373901748241</v>
       </c>
       <c r="Y22">
         <f t="shared" si="3"/>
-        <v>-80</v>
+        <v>-646</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -13130,11 +13136,11 @@
       </c>
       <c r="X23">
         <f t="shared" si="2"/>
-        <v>-466.66666666666663</v>
+        <v>-1838.2818986549823</v>
       </c>
       <c r="Y23">
         <f t="shared" si="3"/>
-        <v>-90</v>
+        <v>-711</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -13214,11 +13220,11 @@
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>-499.99999999999989</v>
+        <v>-2007.2264071351406</v>
       </c>
       <c r="Y24">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-776</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -13298,11 +13304,11 @@
       </c>
       <c r="X25">
         <f t="shared" si="2"/>
-        <v>-533.33333333333326</v>
+        <v>-2176.1709156152983</v>
       </c>
       <c r="Y25">
         <f t="shared" si="3"/>
-        <v>-110</v>
+        <v>-841</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -13382,11 +13388,11 @@
       </c>
       <c r="X26">
         <f t="shared" si="2"/>
-        <v>-566.66666666666663</v>
+        <v>-2345.1154240954561</v>
       </c>
       <c r="Y26">
         <f t="shared" si="3"/>
-        <v>-120</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -13466,11 +13472,11 @@
       </c>
       <c r="X27">
         <f t="shared" si="2"/>
-        <v>-599.99999999999989</v>
+        <v>-2514.0599325756143</v>
       </c>
       <c r="Y27">
         <f t="shared" si="3"/>
-        <v>-130</v>
+        <v>-971</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -13550,11 +13556,11 @@
       </c>
       <c r="X28">
         <f t="shared" si="2"/>
-        <v>-633.33333333333326</v>
+        <v>-2683.0044410557725</v>
       </c>
       <c r="Y28">
         <f t="shared" si="3"/>
-        <v>-140</v>
+        <v>-1036</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -13634,11 +13640,11 @@
       </c>
       <c r="X29">
         <f t="shared" si="2"/>
-        <v>-666.66666666666663</v>
+        <v>-2851.9489495359303</v>
       </c>
       <c r="Y29">
         <f t="shared" si="3"/>
-        <v>-150</v>
+        <v>-1101</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -13718,11 +13724,11 @@
       </c>
       <c r="X30">
         <f t="shared" si="2"/>
-        <v>-699.99999999999989</v>
+        <v>-3020.8934580160885</v>
       </c>
       <c r="Y30">
         <f t="shared" si="3"/>
-        <v>-160</v>
+        <v>-1166</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -13802,11 +13808,11 @@
       </c>
       <c r="X31">
         <f t="shared" si="2"/>
-        <v>-733.33333333333326</v>
+        <v>-3189.8379664962467</v>
       </c>
       <c r="Y31">
         <f t="shared" si="3"/>
-        <v>-170</v>
+        <v>-1231</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -13886,11 +13892,11 @@
       </c>
       <c r="X32">
         <f t="shared" si="2"/>
-        <v>-766.66666666666652</v>
+        <v>-3358.7824749764045</v>
       </c>
       <c r="Y32">
         <f t="shared" si="3"/>
-        <v>-180</v>
+        <v>-1296</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -13970,11 +13976,11 @@
       </c>
       <c r="X33">
         <f t="shared" si="2"/>
-        <v>-799.99999999999989</v>
+        <v>-3527.7269834565627</v>
       </c>
       <c r="Y33">
         <f t="shared" si="3"/>
-        <v>-190</v>
+        <v>-1361</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -14054,11 +14060,11 @@
       </c>
       <c r="X34">
         <f t="shared" si="2"/>
-        <v>-833.33333333333326</v>
+        <v>-3696.6714919367209</v>
       </c>
       <c r="Y34">
         <f t="shared" si="3"/>
-        <v>-200</v>
+        <v>-1426</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -14138,11 +14144,11 @@
       </c>
       <c r="X35">
         <f t="shared" si="2"/>
-        <v>-866.66666666666652</v>
+        <v>-3865.6160004168783</v>
       </c>
       <c r="Y35">
         <f t="shared" si="3"/>
-        <v>-210</v>
+        <v>-1491</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -14222,11 +14228,11 @@
       </c>
       <c r="X36">
         <f t="shared" si="2"/>
-        <v>-899.99999999999989</v>
+        <v>-4034.5605088970365</v>
       </c>
       <c r="Y36">
         <f t="shared" si="3"/>
-        <v>-220</v>
+        <v>-1556</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -14306,11 +14312,11 @@
       </c>
       <c r="X37">
         <f t="shared" si="2"/>
-        <v>-933.33333333333326</v>
+        <v>-4203.5050173771951</v>
       </c>
       <c r="Y37">
         <f t="shared" si="3"/>
-        <v>-230</v>
+        <v>-1621</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -14390,11 +14396,11 @@
       </c>
       <c r="X38">
         <f t="shared" si="2"/>
-        <v>-966.6666666666664</v>
+        <v>-4372.4495258573534</v>
       </c>
       <c r="Y38">
         <f t="shared" si="3"/>
-        <v>-240</v>
+        <v>-1686</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -14474,11 +14480,11 @@
       </c>
       <c r="X39">
         <f t="shared" si="2"/>
-        <v>-999.99999999999989</v>
+        <v>-4541.3940343375116</v>
       </c>
       <c r="Y39">
         <f t="shared" si="3"/>
-        <v>-250</v>
+        <v>-1751</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -14558,11 +14564,11 @@
       </c>
       <c r="X40">
         <f t="shared" ref="X40:X67" si="18">X$7-W40/$Z$3*$Y$3</f>
-        <v>-1033.333333333333</v>
+        <v>-4710.3385428176698</v>
       </c>
       <c r="Y40">
         <f t="shared" ref="Y40:Y67" si="19">Y$7-W40/$Z$4*$Y$4</f>
-        <v>-260</v>
+        <v>-1816</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -14642,11 +14648,11 @@
       </c>
       <c r="X41">
         <f t="shared" si="18"/>
-        <v>-1066.6666666666663</v>
+        <v>-4879.283051297828</v>
       </c>
       <c r="Y41">
         <f t="shared" si="19"/>
-        <v>-270</v>
+        <v>-1881</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -14726,11 +14732,11 @@
       </c>
       <c r="X42">
         <f t="shared" si="18"/>
-        <v>-1099.9999999999998</v>
+        <v>-5048.2275597779853</v>
       </c>
       <c r="Y42">
         <f t="shared" si="19"/>
-        <v>-280</v>
+        <v>-1946</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -14810,11 +14816,11 @@
       </c>
       <c r="X43">
         <f t="shared" si="18"/>
-        <v>-1133.333333333333</v>
+        <v>-5217.1720682581436</v>
       </c>
       <c r="Y43">
         <f t="shared" si="19"/>
-        <v>-290</v>
+        <v>-2011</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -14894,11 +14900,11 @@
       </c>
       <c r="X44">
         <f t="shared" si="18"/>
-        <v>-1166.6666666666663</v>
+        <v>-5386.1165767383018</v>
       </c>
       <c r="Y44">
         <f t="shared" si="19"/>
-        <v>-300</v>
+        <v>-2076</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -14978,11 +14984,11 @@
       </c>
       <c r="X45">
         <f t="shared" si="18"/>
-        <v>-1199.9999999999998</v>
+        <v>-5555.0610852184591</v>
       </c>
       <c r="Y45">
         <f t="shared" si="19"/>
-        <v>-310</v>
+        <v>-2141</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -15062,11 +15068,11 @@
       </c>
       <c r="X46">
         <f t="shared" si="18"/>
-        <v>-1233.333333333333</v>
+        <v>-5724.0055936986173</v>
       </c>
       <c r="Y46">
         <f t="shared" si="19"/>
-        <v>-320</v>
+        <v>-2206</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -15146,11 +15152,11 @@
       </c>
       <c r="X47">
         <f t="shared" si="18"/>
-        <v>-1266.6666666666663</v>
+        <v>-5892.9501021787755</v>
       </c>
       <c r="Y47">
         <f t="shared" si="19"/>
-        <v>-330</v>
+        <v>-2271</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -15230,11 +15236,11 @@
       </c>
       <c r="X48">
         <f t="shared" si="18"/>
-        <v>-1299.9999999999998</v>
+        <v>-6061.8946106589337</v>
       </c>
       <c r="Y48">
         <f t="shared" si="19"/>
-        <v>-340</v>
+        <v>-2336</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -15314,11 +15320,11 @@
       </c>
       <c r="X49">
         <f t="shared" si="18"/>
-        <v>-1333.333333333333</v>
+        <v>-6230.839119139092</v>
       </c>
       <c r="Y49">
         <f t="shared" si="19"/>
-        <v>-350</v>
+        <v>-2401</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -15398,11 +15404,11 @@
       </c>
       <c r="X50">
         <f t="shared" si="18"/>
-        <v>-1366.6666666666663</v>
+        <v>-6399.7836276192502</v>
       </c>
       <c r="Y50">
         <f t="shared" si="19"/>
-        <v>-360</v>
+        <v>-2466</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -15482,11 +15488,11 @@
       </c>
       <c r="X51">
         <f t="shared" si="18"/>
-        <v>-1399.9999999999998</v>
+        <v>-6568.7281360994075</v>
       </c>
       <c r="Y51">
         <f t="shared" si="19"/>
-        <v>-370</v>
+        <v>-2531</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -15566,11 +15572,11 @@
       </c>
       <c r="X52">
         <f t="shared" si="18"/>
-        <v>-1433.333333333333</v>
+        <v>-6737.6726445795666</v>
       </c>
       <c r="Y52">
         <f t="shared" si="19"/>
-        <v>-380</v>
+        <v>-2596</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -15650,11 +15656,11 @@
       </c>
       <c r="X53">
         <f t="shared" si="18"/>
-        <v>-1466.6666666666663</v>
+        <v>-6906.6171530597239</v>
       </c>
       <c r="Y53">
         <f t="shared" si="19"/>
-        <v>-390</v>
+        <v>-2661</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -15734,11 +15740,11 @@
       </c>
       <c r="X54">
         <f t="shared" si="18"/>
-        <v>-1499.9999999999998</v>
+        <v>-7075.5616615398812</v>
       </c>
       <c r="Y54">
         <f t="shared" si="19"/>
-        <v>-400</v>
+        <v>-2726</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -15818,11 +15824,11 @@
       </c>
       <c r="X55">
         <f t="shared" si="18"/>
-        <v>-1533.333333333333</v>
+        <v>-7244.5061700200404</v>
       </c>
       <c r="Y55">
         <f t="shared" si="19"/>
-        <v>-410</v>
+        <v>-2791</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -15902,11 +15908,11 @@
       </c>
       <c r="X56">
         <f t="shared" si="18"/>
-        <v>-1566.6666666666663</v>
+        <v>-7413.4506785001986</v>
       </c>
       <c r="Y56">
         <f t="shared" si="19"/>
-        <v>-420</v>
+        <v>-2856</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -15986,11 +15992,11 @@
       </c>
       <c r="X57">
         <f t="shared" si="18"/>
-        <v>-1599.9999999999995</v>
+        <v>-7582.3951869803559</v>
       </c>
       <c r="Y57">
         <f t="shared" si="19"/>
-        <v>-430</v>
+        <v>-2921</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -16070,11 +16076,11 @@
       </c>
       <c r="X58">
         <f t="shared" si="18"/>
-        <v>-1633.333333333333</v>
+        <v>-7751.339695460515</v>
       </c>
       <c r="Y58">
         <f t="shared" si="19"/>
-        <v>-440</v>
+        <v>-2986</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -16154,11 +16160,11 @@
       </c>
       <c r="X59">
         <f t="shared" si="18"/>
-        <v>-1666.6666666666663</v>
+        <v>-7920.2842039406723</v>
       </c>
       <c r="Y59">
         <f t="shared" si="19"/>
-        <v>-450</v>
+        <v>-3051</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -16238,11 +16244,11 @@
       </c>
       <c r="X60">
         <f t="shared" si="18"/>
-        <v>-1699.9999999999995</v>
+        <v>-8089.2287124208297</v>
       </c>
       <c r="Y60">
         <f t="shared" si="19"/>
-        <v>-460</v>
+        <v>-3116</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -16322,11 +16328,11 @@
       </c>
       <c r="X61">
         <f t="shared" si="18"/>
-        <v>-1733.333333333333</v>
+        <v>-8258.1732209009879</v>
       </c>
       <c r="Y61">
         <f t="shared" si="19"/>
-        <v>-470</v>
+        <v>-3181</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -16406,11 +16412,11 @@
       </c>
       <c r="X62">
         <f t="shared" si="18"/>
-        <v>-1766.6666666666663</v>
+        <v>-8427.1177293811452</v>
       </c>
       <c r="Y62">
         <f t="shared" si="19"/>
-        <v>-480</v>
+        <v>-3246</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -16490,11 +16496,11 @@
       </c>
       <c r="X63">
         <f t="shared" si="18"/>
-        <v>-1799.9999999999995</v>
+        <v>-8596.0622378613025</v>
       </c>
       <c r="Y63">
         <f t="shared" si="19"/>
-        <v>-490</v>
+        <v>-3311</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -16574,11 +16580,11 @@
       </c>
       <c r="X64">
         <f t="shared" si="18"/>
-        <v>-1833.333333333333</v>
+        <v>-8765.0067463414616</v>
       </c>
       <c r="Y64">
         <f t="shared" si="19"/>
-        <v>-500</v>
+        <v>-3376</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
@@ -16658,11 +16664,11 @@
       </c>
       <c r="X65">
         <f t="shared" si="18"/>
-        <v>-1866.6666666666663</v>
+        <v>-8933.9512548216189</v>
       </c>
       <c r="Y65">
         <f t="shared" si="19"/>
-        <v>-510</v>
+        <v>-3441</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
@@ -16742,11 +16748,11 @@
       </c>
       <c r="X66">
         <f t="shared" si="18"/>
-        <v>-1899.9999999999995</v>
+        <v>-9102.8957633017762</v>
       </c>
       <c r="Y66">
         <f t="shared" si="19"/>
-        <v>-520</v>
+        <v>-3506</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
@@ -16826,11 +16832,11 @@
       </c>
       <c r="X67">
         <f t="shared" si="18"/>
-        <v>-1933.333333333333</v>
+        <v>-9271.8402717819354</v>
       </c>
       <c r="Y67">
         <f t="shared" si="19"/>
-        <v>-530</v>
+        <v>-3571</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
@@ -16910,11 +16916,11 @@
       </c>
       <c r="X68">
         <f t="shared" ref="X68:X107" si="30">X$7-W68/$Z$3*$Y$3</f>
-        <v>-1966.6666666666663</v>
+        <v>-9440.7847802620927</v>
       </c>
       <c r="Y68">
         <f t="shared" ref="Y68:Y107" si="31">Y$7-W68/$Z$4*$Y$4</f>
-        <v>-540</v>
+        <v>-3636</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
@@ -16994,11 +17000,11 @@
       </c>
       <c r="X69">
         <f t="shared" si="30"/>
-        <v>-1999.9999999999993</v>
+        <v>-9609.7292887422518</v>
       </c>
       <c r="Y69">
         <f t="shared" si="31"/>
-        <v>-550</v>
+        <v>-3701</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
@@ -17078,11 +17084,11 @@
       </c>
       <c r="X70">
         <f t="shared" si="30"/>
-        <v>-2033.3333333333328</v>
+        <v>-9778.6737972224091</v>
       </c>
       <c r="Y70">
         <f t="shared" si="31"/>
-        <v>-560</v>
+        <v>-3766</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -17162,11 +17168,11 @@
       </c>
       <c r="X71">
         <f t="shared" si="30"/>
-        <v>-2066.6666666666665</v>
+        <v>-9947.6183057025683</v>
       </c>
       <c r="Y71">
         <f t="shared" si="31"/>
-        <v>-570</v>
+        <v>-3831</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -17246,11 +17252,11 @@
       </c>
       <c r="X72">
         <f t="shared" si="30"/>
-        <v>-2099.9999999999995</v>
+        <v>-10116.562814182726</v>
       </c>
       <c r="Y72">
         <f t="shared" si="31"/>
-        <v>-580</v>
+        <v>-3896</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -17330,11 +17336,11 @@
       </c>
       <c r="X73">
         <f t="shared" si="30"/>
-        <v>-2133.333333333333</v>
+        <v>-10285.507322662885</v>
       </c>
       <c r="Y73">
         <f t="shared" si="31"/>
-        <v>-590</v>
+        <v>-3961</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -17414,11 +17420,11 @@
       </c>
       <c r="X74">
         <f t="shared" si="30"/>
-        <v>-2166.6666666666665</v>
+        <v>-10454.451831143042</v>
       </c>
       <c r="Y74">
         <f t="shared" si="31"/>
-        <v>-600</v>
+        <v>-4026</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -17498,11 +17504,11 @@
       </c>
       <c r="X75">
         <f t="shared" si="30"/>
-        <v>-2199.9999999999995</v>
+        <v>-10623.396339623201</v>
       </c>
       <c r="Y75">
         <f t="shared" si="31"/>
-        <v>-610</v>
+        <v>-4091</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -17582,11 +17588,11 @@
       </c>
       <c r="X76">
         <f t="shared" si="30"/>
-        <v>-2233.333333333333</v>
+        <v>-10792.340848103358</v>
       </c>
       <c r="Y76">
         <f t="shared" si="31"/>
-        <v>-620</v>
+        <v>-4156</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -17666,11 +17672,11 @@
       </c>
       <c r="X77">
         <f t="shared" si="30"/>
-        <v>-2266.6666666666665</v>
+        <v>-10961.285356583516</v>
       </c>
       <c r="Y77">
         <f t="shared" si="31"/>
-        <v>-630</v>
+        <v>-4221</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
@@ -17750,11 +17756,11 @@
       </c>
       <c r="X78">
         <f t="shared" si="30"/>
-        <v>-2299.9999999999995</v>
+        <v>-11130.229865063675</v>
       </c>
       <c r="Y78">
         <f t="shared" si="31"/>
-        <v>-640</v>
+        <v>-4286</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
@@ -17834,11 +17840,11 @@
       </c>
       <c r="X79">
         <f t="shared" si="30"/>
-        <v>-2333.333333333333</v>
+        <v>-11299.174373543832</v>
       </c>
       <c r="Y79">
         <f t="shared" si="31"/>
-        <v>-650</v>
+        <v>-4351</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
@@ -17918,11 +17924,11 @@
       </c>
       <c r="X80">
         <f t="shared" si="30"/>
-        <v>-2366.6666666666665</v>
+        <v>-11468.118882023989</v>
       </c>
       <c r="Y80">
         <f t="shared" si="31"/>
-        <v>-660</v>
+        <v>-4416</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -18002,11 +18008,11 @@
       </c>
       <c r="X81">
         <f t="shared" si="30"/>
-        <v>-2399.9999999999995</v>
+        <v>-11637.063390504149</v>
       </c>
       <c r="Y81">
         <f t="shared" si="31"/>
-        <v>-670</v>
+        <v>-4481</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -18086,11 +18092,11 @@
       </c>
       <c r="X82">
         <f t="shared" si="30"/>
-        <v>-2433.333333333333</v>
+        <v>-11806.007898984306</v>
       </c>
       <c r="Y82">
         <f t="shared" si="31"/>
-        <v>-680</v>
+        <v>-4546</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -18170,11 +18176,11 @@
       </c>
       <c r="X83">
         <f t="shared" si="30"/>
-        <v>-2466.6666666666665</v>
+        <v>-11974.952407464463</v>
       </c>
       <c r="Y83">
         <f t="shared" si="31"/>
-        <v>-690</v>
+        <v>-4611</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -18254,11 +18260,11 @@
       </c>
       <c r="X84">
         <f t="shared" si="30"/>
-        <v>-2499.9999999999995</v>
+        <v>-12143.896915944622</v>
       </c>
       <c r="Y84">
         <f t="shared" si="31"/>
-        <v>-700</v>
+        <v>-4676</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -18338,11 +18344,11 @@
       </c>
       <c r="X85">
         <f t="shared" si="30"/>
-        <v>-2533.333333333333</v>
+        <v>-12312.84142442478</v>
       </c>
       <c r="Y85">
         <f t="shared" si="31"/>
-        <v>-710</v>
+        <v>-4741</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -18422,11 +18428,11 @@
       </c>
       <c r="X86">
         <f t="shared" si="30"/>
-        <v>-2566.6666666666665</v>
+        <v>-12481.785932904937</v>
       </c>
       <c r="Y86">
         <f t="shared" si="31"/>
-        <v>-720</v>
+        <v>-4806</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -18506,11 +18512,11 @@
       </c>
       <c r="X87">
         <f t="shared" si="30"/>
-        <v>-2599.9999999999995</v>
+        <v>-12650.730441385096</v>
       </c>
       <c r="Y87">
         <f t="shared" si="31"/>
-        <v>-730</v>
+        <v>-4871</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -18590,11 +18596,11 @@
       </c>
       <c r="X88">
         <f t="shared" si="30"/>
-        <v>-2633.333333333333</v>
+        <v>-12819.674949865255</v>
       </c>
       <c r="Y88">
         <f t="shared" si="31"/>
-        <v>-740</v>
+        <v>-4936</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -18674,11 +18680,11 @@
       </c>
       <c r="X89">
         <f t="shared" si="30"/>
-        <v>-2666.6666666666665</v>
+        <v>-12988.619458345413</v>
       </c>
       <c r="Y89">
         <f t="shared" si="31"/>
-        <v>-750</v>
+        <v>-5001</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -18758,11 +18764,11 @@
       </c>
       <c r="X90">
         <f t="shared" si="30"/>
-        <v>-2699.9999999999995</v>
+        <v>-13157.563966825572</v>
       </c>
       <c r="Y90">
         <f t="shared" si="31"/>
-        <v>-760</v>
+        <v>-5066</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
@@ -18842,11 +18848,11 @@
       </c>
       <c r="X91">
         <f t="shared" si="30"/>
-        <v>-2733.333333333333</v>
+        <v>-13326.508475305729</v>
       </c>
       <c r="Y91">
         <f t="shared" si="31"/>
-        <v>-770</v>
+        <v>-5131</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -18926,11 +18932,11 @@
       </c>
       <c r="X92">
         <f t="shared" si="30"/>
-        <v>-2766.6666666666665</v>
+        <v>-13495.452983785886</v>
       </c>
       <c r="Y92">
         <f t="shared" si="31"/>
-        <v>-780</v>
+        <v>-5196</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -19010,11 +19016,11 @@
       </c>
       <c r="X93">
         <f t="shared" si="30"/>
-        <v>-2799.9999999999995</v>
+        <v>-13664.397492266045</v>
       </c>
       <c r="Y93">
         <f t="shared" si="31"/>
-        <v>-790</v>
+        <v>-5261</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
@@ -19094,11 +19100,11 @@
       </c>
       <c r="X94">
         <f t="shared" si="30"/>
-        <v>-2833.333333333333</v>
+        <v>-13833.342000746203</v>
       </c>
       <c r="Y94">
         <f t="shared" si="31"/>
-        <v>-800</v>
+        <v>-5326</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
@@ -19178,11 +19184,11 @@
       </c>
       <c r="X95">
         <f t="shared" si="30"/>
-        <v>-2866.6666666666665</v>
+        <v>-14002.28650922636</v>
       </c>
       <c r="Y95">
         <f t="shared" si="31"/>
-        <v>-810</v>
+        <v>-5391</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -19262,11 +19268,11 @@
       </c>
       <c r="X96">
         <f t="shared" si="30"/>
-        <v>-2899.9999999999995</v>
+        <v>-14171.231017706517</v>
       </c>
       <c r="Y96">
         <f t="shared" si="31"/>
-        <v>-820</v>
+        <v>-5456</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
@@ -19346,11 +19352,11 @@
       </c>
       <c r="X97">
         <f t="shared" si="30"/>
-        <v>-2933.333333333333</v>
+        <v>-14340.175526186678</v>
       </c>
       <c r="Y97">
         <f t="shared" si="31"/>
-        <v>-830</v>
+        <v>-5521</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
@@ -19430,11 +19436,11 @@
       </c>
       <c r="X98">
         <f t="shared" si="30"/>
-        <v>-2966.6666666666665</v>
+        <v>-14509.120034666836</v>
       </c>
       <c r="Y98">
         <f t="shared" si="31"/>
-        <v>-840</v>
+        <v>-5586</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -19514,11 +19520,11 @@
       </c>
       <c r="X99">
         <f t="shared" si="30"/>
-        <v>-2999.9999999999995</v>
+        <v>-14678.064543146993</v>
       </c>
       <c r="Y99">
         <f t="shared" si="31"/>
-        <v>-850</v>
+        <v>-5651</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
@@ -19598,11 +19604,11 @@
       </c>
       <c r="X100">
         <f t="shared" si="30"/>
-        <v>-3033.333333333333</v>
+        <v>-14847.00905162715</v>
       </c>
       <c r="Y100">
         <f t="shared" si="31"/>
-        <v>-860</v>
+        <v>-5716</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
@@ -19682,11 +19688,11 @@
       </c>
       <c r="X101">
         <f t="shared" si="30"/>
-        <v>-3066.6666666666665</v>
+        <v>-15015.953560107308</v>
       </c>
       <c r="Y101">
         <f t="shared" si="31"/>
-        <v>-870</v>
+        <v>-5781</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
@@ -19766,11 +19772,11 @@
       </c>
       <c r="X102">
         <f t="shared" si="30"/>
-        <v>-3099.9999999999995</v>
+        <v>-15184.898068587465</v>
       </c>
       <c r="Y102">
         <f t="shared" si="31"/>
-        <v>-880</v>
+        <v>-5846</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
@@ -19850,11 +19856,11 @@
       </c>
       <c r="X103">
         <f t="shared" si="30"/>
-        <v>-3133.333333333333</v>
+        <v>-15353.842577067626</v>
       </c>
       <c r="Y103">
         <f t="shared" si="31"/>
-        <v>-890</v>
+        <v>-5911</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
@@ -19934,11 +19940,11 @@
       </c>
       <c r="X104">
         <f t="shared" si="30"/>
-        <v>-3166.6666666666661</v>
+        <v>-15522.787085547783</v>
       </c>
       <c r="Y104">
         <f t="shared" si="31"/>
-        <v>-900</v>
+        <v>-5976</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
@@ -20018,11 +20024,11 @@
       </c>
       <c r="X105">
         <f t="shared" si="30"/>
-        <v>-3199.9999999999995</v>
+        <v>-15691.731594027942</v>
       </c>
       <c r="Y105">
         <f t="shared" si="31"/>
-        <v>-910</v>
+        <v>-6041</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
@@ -20102,11 +20108,11 @@
       </c>
       <c r="X106">
         <f t="shared" si="30"/>
-        <v>-3233.333333333333</v>
+        <v>-15860.676102508098</v>
       </c>
       <c r="Y106">
         <f t="shared" si="31"/>
-        <v>-920</v>
+        <v>-6106</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
@@ -20186,11 +20192,11 @@
       </c>
       <c r="X107">
         <f t="shared" si="30"/>
-        <v>-3266.6666666666661</v>
+        <v>-16029.620610988257</v>
       </c>
       <c r="Y107">
         <f t="shared" si="31"/>
-        <v>-930</v>
+        <v>-6171</v>
       </c>
     </row>
   </sheetData>
@@ -20210,7 +20216,7 @@
   <dimension ref="A1:AO308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20267,7 +20273,7 @@
       <c r="R1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="42" t="s">
         <v>171</v>
       </c>
     </row>

--- a/打怪.xlsx
+++ b/打怪.xlsx
@@ -717,7 +717,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关卡怪物数量*怪物金钱*((人数-1)/人数)</t>
+    <t>关卡怪物平均数量*怪物金钱*((人数-1)/人数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,7 +1202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1455,11 +1454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2030353744"/>
-        <c:axId val="2030347216"/>
+        <c:axId val="408099856"/>
+        <c:axId val="408105840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030353744"/>
+        <c:axId val="408099856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030347216"/>
+        <c:crossAx val="408105840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +1508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030347216"/>
+        <c:axId val="408105840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030353744"/>
+        <c:crossAx val="408099856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,7 +1655,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1710,7 +1708,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1721,14 +1718,11 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1739,9 +1733,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-284F-4F0A-AD86-DF0EDA4AE3FC}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2124,11 +2116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2030340688"/>
-        <c:axId val="2030344496"/>
+        <c:axId val="408090608"/>
+        <c:axId val="408091152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030340688"/>
+        <c:axId val="408090608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +2163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030344496"/>
+        <c:crossAx val="408091152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +2171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030344496"/>
+        <c:axId val="408091152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2222,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030340688"/>
+        <c:crossAx val="408090608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2326,7 +2318,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2390,7 +2381,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2401,14 +2391,11 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0B8B-4554-8A34-FCC23104E7CA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2419,9 +2406,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0B8B-4554-8A34-FCC23104E7CA}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2804,11 +2789,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2030351568"/>
-        <c:axId val="2030353200"/>
+        <c:axId val="408094960"/>
+        <c:axId val="408092240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030351568"/>
+        <c:axId val="408094960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +2835,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030353200"/>
+        <c:crossAx val="408092240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2858,7 +2843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030353200"/>
+        <c:axId val="408092240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2894,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030351568"/>
+        <c:crossAx val="408094960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3005,7 +2990,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3381,11 +3365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2030352112"/>
-        <c:axId val="2030345040"/>
+        <c:axId val="408092784"/>
+        <c:axId val="408097680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030352112"/>
+        <c:axId val="408092784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,7 +3411,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030345040"/>
+        <c:crossAx val="408097680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3435,7 +3419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030345040"/>
+        <c:axId val="408097680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,7 +3470,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030352112"/>
+        <c:crossAx val="408092784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3575,7 +3559,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3629,7 +3612,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="62"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3640,14 +3622,11 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-7016-4528-BBB1-AA45A9A9B42E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="81"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3658,14 +3637,11 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-BD14-4755-AD40-B0680C15F795}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="87"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3676,14 +3652,11 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-BD14-4755-AD40-B0680C15F795}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="93"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3694,14 +3667,11 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-BD14-4755-AD40-B0680C15F795}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="99"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -3712,9 +3682,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-BD14-4755-AD40-B0680C15F795}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4097,11 +4065,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2030352656"/>
-        <c:axId val="2030345584"/>
+        <c:axId val="408101488"/>
+        <c:axId val="408095504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030352656"/>
+        <c:axId val="408101488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,7 +4111,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030345584"/>
+        <c:crossAx val="408095504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4151,7 +4119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030345584"/>
+        <c:axId val="408095504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4202,7 +4170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030352656"/>
+        <c:crossAx val="408101488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4291,7 +4259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4674,11 +4641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2030346672"/>
-        <c:axId val="2030347760"/>
+        <c:axId val="408096048"/>
+        <c:axId val="408098224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030346672"/>
+        <c:axId val="408096048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,7 +4687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030347760"/>
+        <c:crossAx val="408098224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4728,7 +4695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030347760"/>
+        <c:axId val="408098224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +4746,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030346672"/>
+        <c:crossAx val="408096048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5038,11 +5005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2030348304"/>
-        <c:axId val="2030339600"/>
+        <c:axId val="408098768"/>
+        <c:axId val="405078704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030348304"/>
+        <c:axId val="408098768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,7 +5051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030339600"/>
+        <c:crossAx val="405078704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5092,7 +5059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030339600"/>
+        <c:axId val="405078704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5143,7 +5110,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030348304"/>
+        <c:crossAx val="408098768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5406,11 +5373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="140461232"/>
-        <c:axId val="140474288"/>
+        <c:axId val="405075440"/>
+        <c:axId val="405075984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140461232"/>
+        <c:axId val="405075440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140474288"/>
+        <c:crossAx val="405075984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5460,7 +5427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140474288"/>
+        <c:axId val="405075984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5511,7 +5478,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140461232"/>
+        <c:crossAx val="405075440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5804,11 +5771,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="140460688"/>
-        <c:axId val="140466672"/>
+        <c:axId val="405076528"/>
+        <c:axId val="405079248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140460688"/>
+        <c:axId val="405076528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,7 +5817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140466672"/>
+        <c:crossAx val="405079248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5858,7 +5825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140466672"/>
+        <c:axId val="405079248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5909,7 +5876,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140460688"/>
+        <c:crossAx val="405076528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10989,7 +10956,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11025,7 +10992,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11061,7 +11028,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11097,7 +11064,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11133,7 +11100,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11169,7 +11136,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11210,7 +11177,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1559B039-3339-436A-B754-0236CBE4C742}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1559B039-3339-436A-B754-0236CBE4C742}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11230,23 +11197,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8B7C706-87B8-4FB1-9261-DC7D2E703933}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B7C706-87B8-4FB1-9261-DC7D2E703933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11266,23 +11233,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDBDD52E-574C-4D11-8C6F-E861EB486A46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBDD52E-574C-4D11-8C6F-E861EB486A46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11593,7 +11560,7 @@
   <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20215,8 +20182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO308"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/打怪.xlsx
+++ b/打怪.xlsx
@@ -1454,11 +1454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408099856"/>
-        <c:axId val="408105840"/>
+        <c:axId val="1708069680"/>
+        <c:axId val="1708075664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408099856"/>
+        <c:axId val="1708069680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408105840"/>
+        <c:crossAx val="1708075664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1508,7 +1508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408105840"/>
+        <c:axId val="1708075664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408099856"/>
+        <c:crossAx val="1708069680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2116,11 +2116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408090608"/>
-        <c:axId val="408091152"/>
+        <c:axId val="1708065328"/>
+        <c:axId val="1708065872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408090608"/>
+        <c:axId val="1708065328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408091152"/>
+        <c:crossAx val="1708065872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +2171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408091152"/>
+        <c:axId val="1708065872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2222,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408090608"/>
+        <c:crossAx val="1708065328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2789,11 +2789,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408094960"/>
-        <c:axId val="408092240"/>
+        <c:axId val="1708066416"/>
+        <c:axId val="1708066960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408094960"/>
+        <c:axId val="1708066416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,7 +2835,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408092240"/>
+        <c:crossAx val="1708066960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2843,7 +2843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408092240"/>
+        <c:axId val="1708066960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,7 +2894,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408094960"/>
+        <c:crossAx val="1708066416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3365,11 +3365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408092784"/>
-        <c:axId val="408097680"/>
+        <c:axId val="1708078384"/>
+        <c:axId val="1708068592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408092784"/>
+        <c:axId val="1708078384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3411,7 +3411,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408097680"/>
+        <c:crossAx val="1708068592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3419,7 +3419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408097680"/>
+        <c:axId val="1708068592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,7 +3470,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408092784"/>
+        <c:crossAx val="1708078384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4065,11 +4065,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408101488"/>
-        <c:axId val="408095504"/>
+        <c:axId val="1708068048"/>
+        <c:axId val="1708076208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408101488"/>
+        <c:axId val="1708068048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,7 +4111,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408095504"/>
+        <c:crossAx val="1708076208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4119,7 +4119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408095504"/>
+        <c:axId val="1708076208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,7 +4170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408101488"/>
+        <c:crossAx val="1708068048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4641,11 +4641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408096048"/>
-        <c:axId val="408098224"/>
+        <c:axId val="1708076752"/>
+        <c:axId val="1708069136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408096048"/>
+        <c:axId val="1708076752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,7 +4687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408098224"/>
+        <c:crossAx val="1708069136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4695,7 +4695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408098224"/>
+        <c:axId val="1708069136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4746,7 +4746,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408096048"/>
+        <c:crossAx val="1708076752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5005,11 +5005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408098768"/>
-        <c:axId val="405078704"/>
+        <c:axId val="1708074576"/>
+        <c:axId val="1708077296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408098768"/>
+        <c:axId val="1708074576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405078704"/>
+        <c:crossAx val="1708077296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5059,7 +5059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405078704"/>
+        <c:axId val="1708077296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5110,7 +5110,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408098768"/>
+        <c:crossAx val="1708074576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5373,11 +5373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="405075440"/>
-        <c:axId val="405075984"/>
+        <c:axId val="1708077840"/>
+        <c:axId val="1708064784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="405075440"/>
+        <c:axId val="1708077840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5419,7 +5419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405075984"/>
+        <c:crossAx val="1708064784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5427,7 +5427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405075984"/>
+        <c:axId val="1708064784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5478,7 +5478,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405075440"/>
+        <c:crossAx val="1708077840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5771,11 +5771,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="405076528"/>
-        <c:axId val="405079248"/>
+        <c:axId val="1708070224"/>
+        <c:axId val="1708070768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="405076528"/>
+        <c:axId val="1708070224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5817,7 +5817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405079248"/>
+        <c:crossAx val="1708070768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5825,7 +5825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405079248"/>
+        <c:axId val="1708070768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5876,7 +5876,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405076528"/>
+        <c:crossAx val="1708070224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10956,7 +10956,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10992,7 +10992,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11028,7 +11028,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11064,7 +11064,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11100,7 +11100,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11136,7 +11136,7 @@
         <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11177,7 +11177,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1559B039-3339-436A-B754-0236CBE4C742}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1559B039-3339-436A-B754-0236CBE4C742}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11213,7 +11213,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B7C706-87B8-4FB1-9261-DC7D2E703933}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8B7C706-87B8-4FB1-9261-DC7D2E703933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11249,7 +11249,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBDD52E-574C-4D11-8C6F-E861EB486A46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDBDD52E-574C-4D11-8C6F-E861EB486A46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20182,8 +20182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="39">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AF8" s="36">
         <v>1</v>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="AO8" t="str">
         <f>CONCATENATE("{","mModel = ",CHAR(34),AH8,CHAR(34),","," mModelScaling =", AI8,","," mAttackTime = ",AJ8,","," mStopTime = ",AK8,","," mAttackRange = ",AL8,","," mLevelEnable = function(level) if level &gt;= ",AD8," and level &lt;= ",AE8," then return true end end, mName = ",CHAR(34),AG8,CHAR(34),"},")</f>
-        <v>{mModel = "character/v3/Pet/CAITOUBB/CAITOUbb.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 1 and level &lt;= 8 then return true end end, mName = "雄性菜头宝宝"},</v>
+        <v>{mModel = "character/v3/Pet/CAITOUBB/CAITOUbb.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 1 and level &lt;= 16 then return true end end, mName = "雄性菜头宝宝"},</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -20689,10 +20689,10 @@
         <v>3</v>
       </c>
       <c r="AD9" s="39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE9" s="39">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AF9" s="36">
         <v>2</v>
@@ -20717,7 +20717,7 @@
       </c>
       <c r="AO9" t="str">
         <f t="shared" ref="AO9:AO46" si="12">CONCATENATE("{","mModel = ",CHAR(34),AH9,CHAR(34),","," mModelScaling =", AI9,","," mAttackTime = ",AJ9,","," mStopTime = ",AK9,","," mAttackRange = ",AL9,","," mLevelEnable = function(level) if level &gt;= ",AD9," and level &lt;= ",AE9," then return true end end, mName = ",CHAR(34),AG9,CHAR(34),"},")</f>
-        <v>{mModel = "character/v3/Pet/CTBB/ctbb_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 9 and level &lt;= 16 then return true end end, mName = "雌性菜头宝宝"},</v>
+        <v>{mModel = "character/v3/Pet/CTBB/ctbb_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 8 and level &lt;= 24 then return true end end, mName = "雌性菜头宝宝"},</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -20799,10 +20799,10 @@
         <v>6</v>
       </c>
       <c r="AD10" s="39">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE10" s="39">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AF10" s="36">
         <v>3</v>
@@ -20827,7 +20827,7 @@
       </c>
       <c r="AO10" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Pet/HGS/HGS_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 17 and level &lt;= 24 then return true end end, mName = "皇冠蛇宝宝"},</v>
+        <v>{mModel = "character/v3/Pet/HGS/HGS_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 15 and level &lt;= 32 then return true end end, mName = "皇冠蛇宝宝"},</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -20909,10 +20909,10 @@
         <v>9</v>
       </c>
       <c r="AD11" s="39">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE11" s="39">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF11" s="36">
         <v>4</v>
@@ -20937,7 +20937,7 @@
       </c>
       <c r="AO11" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Pet/MFBB/MFBB_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 25 and level &lt;= 32 then return true end end, mName = "蜜蜂宝宝"},</v>
+        <v>{mModel = "character/v3/Pet/MFBB/MFBB_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 22 and level &lt;= 40 then return true end end, mName = "蜜蜂宝宝"},</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -21019,10 +21019,10 @@
         <v>12</v>
       </c>
       <c r="AD12" s="39">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AE12" s="39">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AF12" s="36">
         <v>5</v>
@@ -21047,7 +21047,7 @@
       </c>
       <c r="AO12" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Pet/MGBB/mgbb_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 33 and level &lt;= 40 then return true end end, mName = "蘑菇宝宝"},</v>
+        <v>{mModel = "character/v3/Pet/MGBB/mgbb_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 29 and level &lt;= 48 then return true end end, mName = "蘑菇宝宝"},</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -21129,10 +21129,10 @@
         <v>15</v>
       </c>
       <c r="AD13" s="39">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AE13" s="39">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AF13" s="36">
         <v>6</v>
@@ -21157,7 +21157,7 @@
       </c>
       <c r="AO13" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Pet/PP/PP_LOD5.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 41 and level &lt;= 48 then return true end end, mName = "PP机器人"},</v>
+        <v>{mModel = "character/v3/Pet/PP/PP_LOD5.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 36 and level &lt;= 56 then return true end end, mName = "PP机器人"},</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -21239,10 +21239,10 @@
         <v>18</v>
       </c>
       <c r="AD14" s="39">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AE14" s="39">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AF14" s="36">
         <v>7</v>
@@ -21267,7 +21267,7 @@
       </c>
       <c r="AO14" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Pet/SJTZ/SJTZ_LOD05.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 49 and level &lt;= 56 then return true end end, mName = "小精灵宝宝"},</v>
+        <v>{mModel = "character/v3/Pet/SJTZ/SJTZ_LOD05.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 43 and level &lt;= 64 then return true end end, mName = "小精灵宝宝"},</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -21349,10 +21349,10 @@
         <v>21</v>
       </c>
       <c r="AD15" s="39">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AE15" s="39">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AF15" s="36">
         <v>8</v>
@@ -21377,7 +21377,7 @@
       </c>
       <c r="AO15" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Pet/XGBB/XGBB_LOD5.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 57 and level &lt;= 64 then return true end end, mName = "西瓜宝宝"},</v>
+        <v>{mModel = "character/v3/Pet/XGBB/XGBB_LOD5.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 50 and level &lt;= 72 then return true end end, mName = "西瓜宝宝"},</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -21459,10 +21459,10 @@
         <v>24</v>
       </c>
       <c r="AD16" s="39">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AE16" s="39">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AF16" s="36">
         <v>9</v>
@@ -21487,7 +21487,7 @@
       </c>
       <c r="AO16" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Pet/HDL/HDL_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 65 and level &lt;= 72 then return true end end, mName = "花朵兰宝宝"},</v>
+        <v>{mModel = "character/v3/Pet/HDL/HDL_LOD15.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 57 and level &lt;= 80 then return true end end, mName = "花朵兰宝宝"},</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -21569,10 +21569,10 @@
         <v>27</v>
       </c>
       <c r="AD17" s="39">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AE17" s="39">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AF17" s="36">
         <v>10</v>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="AO17" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Pet/YYCZ/yycz_LOD5.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 73 and level &lt;= 80 then return true end end, mName = "音乐机器人"},</v>
+        <v>{mModel = "character/v3/Pet/YYCZ/yycz_LOD5.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 64 and level &lt;= 88 then return true end end, mName = "音乐机器人"},</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -21679,10 +21679,10 @@
         <v>30</v>
       </c>
       <c r="AD18" s="39">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AE18" s="39">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AF18" s="36">
         <v>11</v>
@@ -21707,7 +21707,7 @@
       </c>
       <c r="AO18" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/DragonBaby/DragonBabyGreen/DragonBabyGreen.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 81 and level &lt;= 88 then return true end end, mName = "绿龙宝宝"},</v>
+        <v>{mModel = "character/v5/02animals/DragonBaby/DragonBabyGreen/DragonBabyGreen.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 71 and level &lt;= 96 then return true end end, mName = "绿龙宝宝"},</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -21789,10 +21789,10 @@
         <v>33</v>
       </c>
       <c r="AD19" s="39">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AE19" s="39">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AF19" s="36">
         <v>12</v>
@@ -21817,7 +21817,7 @@
       </c>
       <c r="AO19" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/DragonBaby/DragonBabyOrange/DragonBabyOrange.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 89 and level &lt;= 96 then return true end end, mName = "橙龙宝宝"},</v>
+        <v>{mModel = "character/v5/02animals/DragonBaby/DragonBabyOrange/DragonBabyOrange.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 78 and level &lt;= 104 then return true end end, mName = "橙龙宝宝"},</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -21899,10 +21899,10 @@
         <v>36</v>
       </c>
       <c r="AD20" s="39">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="AE20" s="39">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AF20" s="36">
         <v>13</v>
@@ -21927,7 +21927,7 @@
       </c>
       <c r="AO20" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/DragonBaby/DragonBabyYellow/DragonBabyYellow.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 97 and level &lt;= 104 then return true end end, mName = "黄龙宝宝"},</v>
+        <v>{mModel = "character/v5/02animals/DragonBaby/DragonBabyYellow/DragonBabyYellow.x", mModelScaling =2, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 85 and level &lt;= 112 then return true end end, mName = "黄龙宝宝"},</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -22009,10 +22009,10 @@
         <v>39</v>
       </c>
       <c r="AD21" s="39">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="AE21" s="39">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AF21" s="36">
         <v>14</v>
@@ -22037,7 +22037,7 @@
       </c>
       <c r="AO21" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/Npc/shitouren/shitouren.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 105 and level &lt;= 112 then return true end end, mName = "石头人"},</v>
+        <v>{mModel = "character/v3/Npc/shitouren/shitouren.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 92 and level &lt;= 120 then return true end end, mName = "石头人"},</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -22119,10 +22119,10 @@
         <v>42</v>
       </c>
       <c r="AD22" s="39">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AE22" s="39">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AF22" s="36">
         <v>15</v>
@@ -22147,7 +22147,7 @@
       </c>
       <c r="AO22" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/GameNpc/TZMYS/TZMYS.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 113 and level &lt;= 120 then return true end end, mName = "兔子先生"},</v>
+        <v>{mModel = "character/v3/GameNpc/TZMYS/TZMYS.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 99 and level &lt;= 128 then return true end end, mName = "兔子先生"},</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -22229,10 +22229,10 @@
         <v>45</v>
       </c>
       <c r="AD23" s="39">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AE23" s="39">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AF23" s="36">
         <v>16</v>
@@ -22257,7 +22257,7 @@
       </c>
       <c r="AO23" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/Pig/Pig_V1.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 121 and level &lt;= 128 then return true end end, mName = "猪战士"},</v>
+        <v>{mModel = "character/v5/02animals/Pig/Pig_V1.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 106 and level &lt;= 136 then return true end end, mName = "猪战士"},</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -22339,10 +22339,10 @@
         <v>48</v>
       </c>
       <c r="AD24" s="39">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="AE24" s="39">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AF24" s="36">
         <v>17</v>
@@ -22367,7 +22367,7 @@
       </c>
       <c r="AO24" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/Pig/Pig_V2.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 129 and level &lt;= 136 then return true end end, mName = "猪射手"},</v>
+        <v>{mModel = "character/v5/02animals/Pig/Pig_V2.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 113 and level &lt;= 144 then return true end end, mName = "猪射手"},</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -22449,10 +22449,10 @@
         <v>51</v>
       </c>
       <c r="AD25" s="39">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AE25" s="39">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AF25" s="36">
         <v>18</v>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="AO25" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/JXRXLG/JXRXLG.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 137 and level &lt;= 144 then return true end end, mName = "机械人"},</v>
+        <v>{mModel = "character/v5/02animals/JXRXLG/JXRXLG.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 120 and level &lt;= 152 then return true end end, mName = "机械人"},</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -22559,10 +22559,10 @@
         <v>54</v>
       </c>
       <c r="AD26" s="39">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AE26" s="39">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AF26" s="36">
         <v>19</v>
@@ -22587,7 +22587,7 @@
       </c>
       <c r="AO26" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/01human/SmallWindEagle/SmallWindEagle.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 145 and level &lt;= 152 then return true end end, mName = "小风鹰"},</v>
+        <v>{mModel = "character/v5/01human/SmallWindEagle/SmallWindEagle.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 127 and level &lt;= 160 then return true end end, mName = "小风鹰"},</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -22669,10 +22669,10 @@
         <v>57</v>
       </c>
       <c r="AD27" s="39">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AE27" s="39">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AF27" s="36">
         <v>20</v>
@@ -22697,7 +22697,7 @@
       </c>
       <c r="AO27" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/SophieDragon/SophieDragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 153 and level &lt;= 160 then return true end end, mName = "索菲龙"},</v>
+        <v>{mModel = "character/v5/02animals/SophieDragon/SophieDragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 134 and level &lt;= 168 then return true end end, mName = "索菲龙"},</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
@@ -22779,10 +22779,10 @@
         <v>60</v>
       </c>
       <c r="AD28" s="39">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="AE28" s="39">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AF28" s="36">
         <v>21</v>
@@ -22807,7 +22807,7 @@
       </c>
       <c r="AO28" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/XiYiJinJiaoLong/XiYiJinJiaoLong.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 161 and level &lt;= 168 then return true end end, mName = "蜥蜴金蛟龙"},</v>
+        <v>{mModel = "character/v5/02animals/XiYiJinJiaoLong/XiYiJinJiaoLong.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 141 and level &lt;= 176 then return true end end, mName = "蜥蜴金蛟龙"},</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -22889,10 +22889,10 @@
         <v>63</v>
       </c>
       <c r="AD29" s="39">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="AE29" s="39">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AF29" s="36">
         <v>22</v>
@@ -22917,7 +22917,7 @@
       </c>
       <c r="AO29" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/06quest/DisorderRobot/DisorderRobot.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 169 and level &lt;= 176 then return true end end, mName = "无序机器人"},</v>
+        <v>{mModel = "character/v5/06quest/DisorderRobot/DisorderRobot.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 148 and level &lt;= 184 then return true end end, mName = "无序机器人"},</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -22999,10 +22999,10 @@
         <v>66</v>
       </c>
       <c r="AD30" s="39">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="AE30" s="39">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AF30" s="36">
         <v>23</v>
@@ -23027,7 +23027,7 @@
       </c>
       <c r="AO30" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/FireBon/FireBon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 177 and level &lt;= 184 then return true end end, mName = "冰魔"},</v>
+        <v>{mModel = "character/v5/02animals/FireBon/FireBon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 155 and level &lt;= 192 then return true end end, mName = "冰魔"},</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -23109,10 +23109,10 @@
         <v>69</v>
       </c>
       <c r="AD31" s="39">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="AE31" s="39">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AF31" s="36">
         <v>24</v>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="AO31" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/01human/Dragon/Dragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 185 and level &lt;= 192 then return true end end, mName = "龙"},</v>
+        <v>{mModel = "character/v5/01human/Dragon/Dragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 162 and level &lt;= 200 then return true end end, mName = "龙"},</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -23219,10 +23219,10 @@
         <v>72</v>
       </c>
       <c r="AD32" s="39">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="AE32" s="39">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AF32" s="36">
         <v>25</v>
@@ -23247,7 +23247,7 @@
       </c>
       <c r="AO32" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/01human/Messenger/Messenger.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 193 and level &lt;= 200 then return true end end, mName = "蘑菇妖"},</v>
+        <v>{mModel = "character/v5/01human/Messenger/Messenger.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 169 and level &lt;= 208 then return true end end, mName = "蘑菇妖"},</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
@@ -23329,10 +23329,10 @@
         <v>75</v>
       </c>
       <c r="AD33" s="39">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AE33" s="39">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AF33" s="36">
         <v>26</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="AO33" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/GameNpc/XRKZS/XRKZS.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 201 and level &lt;= 208 then return true end end, mName = "熊人战士"},</v>
+        <v>{mModel = "character/v3/GameNpc/XRKZS/XRKZS.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 176 and level &lt;= 216 then return true end end, mName = "熊人战士"},</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -23439,10 +23439,10 @@
         <v>78</v>
       </c>
       <c r="AD34" s="39">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="AE34" s="39">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AF34" s="36">
         <v>27</v>
@@ -23467,7 +23467,7 @@
       </c>
       <c r="AO34" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/GameNpc/BZL/BZL.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 209 and level &lt;= 216 then return true end end, mName = "冰紫龙"},</v>
+        <v>{mModel = "character/v3/GameNpc/BZL/BZL.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 183 and level &lt;= 224 then return true end end, mName = "冰紫龙"},</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -23549,10 +23549,10 @@
         <v>81</v>
       </c>
       <c r="AD35" s="39">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="AE35" s="39">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AF35" s="36">
         <v>28</v>
@@ -23577,7 +23577,7 @@
       </c>
       <c r="AO35" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/GameNpc/FEILONG/FEILONG.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 217 and level &lt;= 224 then return true end end, mName = "飞龙"},</v>
+        <v>{mModel = "character/v3/GameNpc/FEILONG/FEILONG.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 190 and level &lt;= 232 then return true end end, mName = "飞龙"},</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
@@ -23659,10 +23659,10 @@
         <v>84</v>
       </c>
       <c r="AD36" s="39">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AE36" s="39">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AF36" s="36">
         <v>29</v>
@@ -23687,7 +23687,7 @@
       </c>
       <c r="AO36" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v3/GameNpc/HUAYAO/HUAYAO.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 225 and level &lt;= 232 then return true end end, mName = "花妖"},</v>
+        <v>{mModel = "character/v3/GameNpc/HUAYAO/HUAYAO.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 197 and level &lt;= 240 then return true end end, mName = "花妖"},</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
@@ -23769,10 +23769,10 @@
         <v>87</v>
       </c>
       <c r="AD37" s="39">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="AE37" s="39">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AF37" s="36">
         <v>30</v>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="AO37" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/WhiteDragon/WhiteDragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 233 and level &lt;= 240 then return true end end, mName = "白龙"},</v>
+        <v>{mModel = "character/v5/02animals/WhiteDragon/WhiteDragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 204 and level &lt;= 248 then return true end end, mName = "白龙"},</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
@@ -23879,10 +23879,10 @@
         <v>90</v>
       </c>
       <c r="AD38" s="39">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="AE38" s="39">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AF38" s="36">
         <v>31</v>
@@ -23907,7 +23907,7 @@
       </c>
       <c r="AO38" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/BlueDragon/BlueDragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 241 and level &lt;= 248 then return true end end, mName = "蓝龙"},</v>
+        <v>{mModel = "character/v5/02animals/BlueDragon/BlueDragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 211 and level &lt;= 256 then return true end end, mName = "蓝龙"},</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
@@ -23989,10 +23989,10 @@
         <v>93</v>
       </c>
       <c r="AD39" s="39">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="AE39" s="39">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AF39" s="36">
         <v>32</v>
@@ -24017,7 +24017,7 @@
       </c>
       <c r="AO39" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/CyanDragon/CyanDragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 249 and level &lt;= 256 then return true end end, mName = "暴龙"},</v>
+        <v>{mModel = "character/v5/02animals/CyanDragon/CyanDragon.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 218 and level &lt;= 264 then return true end end, mName = "暴龙"},</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
@@ -24099,10 +24099,10 @@
         <v>96</v>
       </c>
       <c r="AD40" s="39">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="AE40" s="39">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AF40" s="36">
         <v>33</v>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="AO40" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/EpicDragonDeath/EpicDragonDeath.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 257 and level &lt;= 264 then return true end end, mName = "死亡龙"},</v>
+        <v>{mModel = "character/v5/02animals/EpicDragonDeath/EpicDragonDeath.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 225 and level &lt;= 272 then return true end end, mName = "死亡龙"},</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
@@ -24209,10 +24209,10 @@
         <v>99</v>
       </c>
       <c r="AD41" s="39">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AE41" s="39">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AF41" s="36">
         <v>34</v>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="AO41" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/EpicDragonFire/EpicDragonFire.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 265 and level &lt;= 272 then return true end end, mName = "火龙"},</v>
+        <v>{mModel = "character/v5/02animals/EpicDragonFire/EpicDragonFire.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 232 and level &lt;= 280 then return true end end, mName = "火龙"},</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
@@ -24319,10 +24319,10 @@
         <v>102</v>
       </c>
       <c r="AD42" s="39">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="AE42" s="39">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AF42" s="36">
         <v>35</v>
@@ -24347,7 +24347,7 @@
       </c>
       <c r="AO42" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/EpicDragonIce/EpicDragonIce.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 273 and level &lt;= 280 then return true end end, mName = "冰龙"},</v>
+        <v>{mModel = "character/v5/02animals/EpicDragonIce/EpicDragonIce.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 239 and level &lt;= 288 then return true end end, mName = "冰龙"},</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
@@ -24429,10 +24429,10 @@
         <v>105</v>
       </c>
       <c r="AD43" s="39">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="AE43" s="39">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AF43" s="36">
         <v>36</v>
@@ -24457,7 +24457,7 @@
       </c>
       <c r="AO43" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/EpicDragonLife/EpicDragonLife.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 281 and level &lt;= 288 then return true end end, mName = "生命龙"},</v>
+        <v>{mModel = "character/v5/02animals/EpicDragonLife/EpicDragonLife.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 246 and level &lt;= 296 then return true end end, mName = "生命龙"},</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
@@ -24539,10 +24539,10 @@
         <v>108</v>
       </c>
       <c r="AD44" s="39">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="AE44" s="39">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AF44" s="36">
         <v>37</v>
@@ -24567,7 +24567,7 @@
       </c>
       <c r="AO44" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/EpicDragonStorm/EpicDragonStorm.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 289 and level &lt;= 296 then return true end end, mName = "雷龙"},</v>
+        <v>{mModel = "character/v5/02animals/EpicDragonStorm/EpicDragonStorm.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 253 and level &lt;= 304 then return true end end, mName = "雷龙"},</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
@@ -24649,10 +24649,10 @@
         <v>111</v>
       </c>
       <c r="AD45" s="39">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="AE45" s="39">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AF45" s="36">
         <v>38</v>
@@ -24677,7 +24677,7 @@
       </c>
       <c r="AO45" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/GoldenDragon/GoldenDragon_02.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 297 and level &lt;= 304 then return true end end, mName = "金属性龙"},</v>
+        <v>{mModel = "character/v5/02animals/GoldenDragon/GoldenDragon_02.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 260 and level &lt;= 312 then return true end end, mName = "金属性龙"},</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
@@ -24759,10 +24759,10 @@
         <v>114</v>
       </c>
       <c r="AD46" s="39">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="AE46" s="39">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AF46" s="36">
         <v>39</v>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="AO46" t="str">
         <f t="shared" si="12"/>
-        <v>{mModel = "character/v5/02animals/GreenDragon/GreenDragon_02.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 305 and level &lt;= 312 then return true end end, mName = "绿龙"},</v>
+        <v>{mModel = "character/v5/02animals/GreenDragon/GreenDragon_02.x", mModelScaling =1, mAttackTime = 1, mStopTime = 1, mAttackRange = 1, mLevelEnable = function(level) if level &gt;= 267 and level &lt;= 320 then return true end end, mName = "绿龙"},</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
